--- a/Codelists/Error and warning codes.xlsx
+++ b/Codelists/Error and warning codes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D874"/>
+  <dimension ref="A1:D878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1094,12 +1094,12 @@
       <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Relation error: The combination of Authorization Document and Application by means of Declaration is not allowed.</t>
+          <t>Error: The requested procedure requires either an authorisation or an 8f/A163 application.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Kombination af bevillings dokument og ansøgning via angivelsen er ikke tilladt</t>
+          <t>Fejl: Der mangler eller der er uoverensstemmelser mellem  dokumenttyper i gruppe 12 på Hoveddel eller Varepost, når ansøgning 8f /A163 ikke er udfyldt</t>
         </is>
       </c>
     </row>
@@ -3344,12 +3344,12 @@
       <c r="B153" s="3" t="n"/>
       <c r="C153" s="3" t="inlineStr">
         <is>
-          <t>If data element 12 01 000 000 is filled out, it must be max. (incl.) 35 characters</t>
+          <t>Error: (data element 12 01 000 000) Previous Document ID, it must be max. (incl.) 70 characters</t>
         </is>
       </c>
       <c r="D153" s="3" t="inlineStr">
         <is>
-          <t>If data element 12 01 000 000 is filled out, it must be max. (incl.) 35 characters</t>
+          <t>Fejl: (Dataelement 12 01 000 000) Forudgående dokument ID, må ikke være mere end 70 tegn</t>
         </is>
       </c>
     </row>
@@ -3662,12 +3662,12 @@
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>Error: it is only when a valid EORI number is in data element 13 04 017 000 identification number of the importer that data element 13 04 018 020 country code of the importer must be filled in. (DK)</t>
+          <t>Warning: When (D.E 13 04 017 000) Importer - Identification number is filled in with DK09999981, then (D.E 13 04 018 020) Importer - Adress - Country must also be filled in.</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>Når angivelsen er udfyldt med et gyldigt EORI nr.  (13 04 017 000)  så skal dataelement (13 04 018 020) også udfyldes</t>
+          <t>OBS: Når (D.E 13 04 017 000) Importør - Identifikationsnummer er udfyldt med DK09999981, så skal (D.E 13 04 018 020) Importør - Adresse - Land også udfyldes</t>
         </is>
       </c>
     </row>
@@ -8130,12 +8130,12 @@
       <c r="B382" s="2" t="n"/>
       <c r="C382" s="2" t="inlineStr">
         <is>
-          <t>Error: (Dataelement 15 09 000 000) Date of acceptance may not be included in declaration type I2EIDR.</t>
+          <t>Error: (D.E. 15 09 000 000) Date of acceptance is mandatory for all procedure types, with the exception of I2EIDR, with additional procedure type N or Z</t>
         </is>
       </c>
       <c r="D382" s="2" t="inlineStr">
         <is>
-          <t>Fejl: (Dataelement 15 09 000 000) Dato for antagelse må ikke inkluderes i angivelsestype I2EIDR.</t>
+          <t>Fejl: (D.E. 15 09 000 000) Antagelsesdato er obligatorisk for alle angivelsesarter, undtagen I2EIDR, med supplerende angivelsestype N eller Z</t>
         </is>
       </c>
     </row>
@@ -10058,12 +10058,12 @@
       <c r="B476" s="2" t="n"/>
       <c r="C476" s="2" t="inlineStr">
         <is>
-          <t>Field VIII/9 on the invalidation application must be E</t>
+          <t>Error: (Dataelement VIII/9) Legal Basis on the invalidation application must be E</t>
         </is>
       </c>
       <c r="D476" s="2" t="inlineStr">
         <is>
-          <t>Felt VIII/9 på ansøgning om ugyldiggørelse skal være E</t>
+          <t>Fejl: (Dataelement VIII/9) Lovgrundlag på ansøgning om ugyldiggørelse skal være E</t>
         </is>
       </c>
     </row>
@@ -11078,457 +11078,461 @@
     <row r="533">
       <c r="A533" s="3" t="inlineStr">
         <is>
-          <t>DK3033</t>
-        </is>
-      </c>
-      <c r="B533" s="3" t="n"/>
+          <t>DK3025</t>
+        </is>
+      </c>
+      <c r="B533" s="3" t="inlineStr">
+        <is>
+          <t>DKW3025</t>
+        </is>
+      </c>
       <c r="C533" s="3" t="inlineStr">
         <is>
-          <t>Error in "Location of goods" (16 15 000 000) when "Qualifier of identification" =  "X", then "Identification Number" must be provided</t>
+          <t>Warning: Format of the field is not correct according to EUCDM. The field must contain a maximum of 16 digits in total where there can be a maximum of 2 decimals.</t>
         </is>
       </c>
       <c r="D533" s="3" t="inlineStr">
         <is>
-          <t>Fejl i Varens placering (16 15 000 000), når type = "X" så skal  identifikations nummer angives</t>
+          <t>OBS: Formattet af feltet er ikke korrekt i henhold til EUCDM. Feltet må maksimalt indeholde 16 cifre i alt, hvor der kan være højst 2 decimaler.</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="inlineStr">
         <is>
-          <t>DK3034</t>
+          <t>DK3033</t>
         </is>
       </c>
       <c r="B534" s="2" t="n"/>
       <c r="C534" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error in "Location of goods" (16 15 000 000) when "Qualifier of identification" = W, then "Latitude" and "Longitude" must be provided </t>
+          <t>Error in "Location of goods" (16 15 000 000) when "Qualifier of identification" =  "X", then "Identification Number" must be provided</t>
         </is>
       </c>
       <c r="D534" s="2" t="inlineStr">
         <is>
-          <t>Fejl i Varens placering (16 15 000 000), når identifikationkode = "W", skal  Længde- og breddegrad angives</t>
+          <t>Fejl i Varens placering (16 15 000 000), når type = "X" så skal  identifikations nummer angives</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="3" t="inlineStr">
         <is>
-          <t>DK3035</t>
+          <t>DK3034</t>
         </is>
       </c>
       <c r="B535" s="3" t="n"/>
       <c r="C535" s="3" t="inlineStr">
         <is>
-          <t>Error in "Location of goods" (16 15 000 000), when type = "C", then Qualifier of identification must be  "Z".</t>
+          <t xml:space="preserve">Error in "Location of goods" (16 15 000 000) when "Qualifier of identification" = W, then "Latitude" and "Longitude" must be provided </t>
         </is>
       </c>
       <c r="D535" s="3" t="inlineStr">
         <is>
-          <t>Fejl i Varens placering (16 15 000 000), når type = "C" kan identifikationskode kun være "Z"</t>
+          <t>Fejl i Varens placering (16 15 000 000), når identifikationkode = "W", skal  Længde- og breddegrad angives</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="inlineStr">
         <is>
-          <t>DK3036</t>
+          <t>DK3035</t>
         </is>
       </c>
       <c r="B536" s="2" t="n"/>
       <c r="C536" s="2" t="inlineStr">
         <is>
-          <t>It is not allowed to amend "Declaration type" (D.E. 11 01 001 000)</t>
+          <t>Error in "Location of goods" (16 15 000 000), when type = "C", then Qualifier of identification must be  "Z".</t>
         </is>
       </c>
       <c r="D536" s="2" t="inlineStr">
         <is>
-          <t>Det er ikke tilladt at ændre "Declaration type" (D.E. 11 01 001 000)</t>
+          <t>Fejl i Varens placering (16 15 000 000), når type = "C" kan identifikationskode kun være "Z"</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="3" t="inlineStr">
         <is>
-          <t>DK3037</t>
+          <t>DK3036</t>
         </is>
       </c>
       <c r="B537" s="3" t="n"/>
       <c r="C537" s="3" t="inlineStr">
         <is>
-          <t>It is not allowed to amend "Additional declaration type" (D.E. 11 02 001 000)</t>
+          <t>It is not allowed to amend "Declaration type" (D.E. 11 01 001 000)</t>
         </is>
       </c>
       <c r="D537" s="3" t="inlineStr">
         <is>
-          <t>Det er ikke tilladt at ændre Supplerende angivelsestype (D.E. 11 02 001 000)</t>
+          <t>Det er ikke tilladt at ændre "Declaration type" (D.E. 11 01 001 000)</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="inlineStr">
         <is>
-          <t>DK3038</t>
+          <t>DK3037</t>
         </is>
       </c>
       <c r="B538" s="2" t="n"/>
       <c r="C538" s="2" t="inlineStr">
         <is>
-          <t>It is not allowed to amend "Goods item number" (D.E. 11 03 000 000 + 11 03 001 000)</t>
+          <t>It is not allowed to amend "Additional declaration type" (D.E. 11 02 001 000)</t>
         </is>
       </c>
       <c r="D538" s="2" t="inlineStr">
         <is>
-          <t>Det er ikke tilladt at ændre varepostnummer (D.E. 11 03 000 000 )</t>
+          <t>Det er ikke tilladt at ændre Supplerende angivelsestype (D.E. 11 02 001 000)</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="3" t="inlineStr">
         <is>
-          <t>DK3039</t>
+          <t>DK3038</t>
         </is>
       </c>
       <c r="B539" s="3" t="n"/>
       <c r="C539" s="3" t="inlineStr">
         <is>
-          <t>It is not allowed to amend "Security" (D.E. 11 07 001 000)</t>
+          <t>It is not allowed to amend "Goods item number" (D.E. 11 03 000 000 + 11 03 001 000)</t>
         </is>
       </c>
       <c r="D539" s="3" t="inlineStr">
         <is>
-          <t>Det er ikke tilladt at ændre Sikkerhed og sikring (D.E. 11 07 000 000)</t>
+          <t>Det er ikke tilladt at ændre varepostnummer (D.E. 11 03 000 000 )</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="inlineStr">
         <is>
-          <t>DK3040</t>
+          <t>DK3039</t>
         </is>
       </c>
       <c r="B540" s="2" t="n"/>
       <c r="C540" s="2" t="inlineStr">
         <is>
-          <t>It is not allowed to amend "Procedure" (D.E. 11 09 000 000), "Requested Procedure" (D.E. 11 09 001 000), "Previous procedure" (D.E. 11 09 002 000), "Additional Procedure" (D.E. 11 10 000 000 + 11 10 001 000).</t>
+          <t>It is not allowed to amend "Security" (D.E. 11 07 001 000)</t>
         </is>
       </c>
       <c r="D540" s="2" t="inlineStr">
         <is>
-          <t>Det er ikke tilladt at ændre "Procedure" (D.E. 11 09 000 000), "Requested Procedure" (D.E. 11 09 001 000), "Previous procedure" (D.E. 11 09 002 000), "Additional Procedure" (D.E. 11 10 000 000 + 11 10 001 000).</t>
+          <t>Det er ikke tilladt at ændre Sikkerhed og sikring (D.E. 11 07 000 000)</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="3" t="inlineStr">
         <is>
-          <t>DK3041</t>
+          <t>DK3040</t>
         </is>
       </c>
       <c r="B541" s="3" t="n"/>
       <c r="C541" s="3" t="inlineStr">
         <is>
-          <t>Error in "Declarant" (13 05 000 000), Declarant identification No.(13 05 017 000) must match the Declarant identification No.(13 05 017 000) on the pre-lodged declaration.</t>
+          <t>It is not allowed to amend "Procedure" (D.E. 11 09 000 000), "Requested Procedure" (D.E. 11 09 001 000), "Previous procedure" (D.E. 11 09 002 000), "Additional Procedure" (D.E. 11 10 000 000 + 11 10 001 000).</t>
         </is>
       </c>
       <c r="D541" s="3" t="inlineStr">
         <is>
-          <t>Fejl i "Erklærer" (13 05 000 000), klarererens identifikationsnr. (13 05 017 000) skal svare til klarererens identifikationsnummer (13 05 017 000) på den forudindgivne erklæring.</t>
+          <t>Det er ikke tilladt at ændre "Procedure" (D.E. 11 09 000 000), "Requested Procedure" (D.E. 11 09 001 000), "Previous procedure" (D.E. 11 09 002 000), "Additional Procedure" (D.E. 11 10 000 000 + 11 10 001 000).</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="inlineStr">
         <is>
-          <t>DK3042</t>
+          <t>DK3041</t>
         </is>
       </c>
       <c r="B542" s="2" t="n"/>
       <c r="C542" s="2" t="inlineStr">
         <is>
-          <t>Error in "Declarant" (13 05 000 000), If Declarant identification No. (13 05 017 000) is DK09999981, then (13 05 016 000) "Name", (13 05 018 019) "Street and Number", (13 05 018 020) "Country", (13 05 018 021) "Postcode", (13 05 018 022) "City" must be provided.</t>
+          <t>Error in "Declarant" (13 05 000 000), Declarant identification No.(13 05 017 000) must match the Declarant identification No.(13 05 017 000) on the pre-lodged declaration.</t>
         </is>
       </c>
       <c r="D542" s="2" t="inlineStr">
         <is>
-          <t>Fejl i Klarerer (13 05 000 000), hvis EORI-nr. - Klarereren (13 05 017 000) er DK09999981, så skal (13 05 016 000) "Navn", (13 05 018 019) "Gade og nummer" , (13 05 018 020) "Land", (13 05 018 021) "Postnummer", (13 05 018 022) "By" være udfyldt</t>
+          <t>Fejl i "Erklærer" (13 05 000 000), klarererens identifikationsnr. (13 05 017 000) skal svare til klarererens identifikationsnummer (13 05 017 000) på den forudindgivne erklæring.</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="3" t="inlineStr">
         <is>
-          <t>DK3043</t>
+          <t>DK3042</t>
         </is>
       </c>
       <c r="B543" s="3" t="n"/>
       <c r="C543" s="3" t="inlineStr">
         <is>
-          <t>Error in "Representative" (13 06 017 000),  Representative ID No. (13 06 017 000) was provided, but "Status" (13 06 030 000) was not. A status needs to be provided along with the ID.</t>
+          <t>Error in "Declarant" (13 05 000 000), If Declarant identification No. (13 05 017 000) is DK09999981, then (13 05 016 000) "Name", (13 05 018 019) "Street and Number", (13 05 018 020) "Country", (13 05 018 021) "Postcode", (13 05 018 022) "City" must be provided.</t>
         </is>
       </c>
       <c r="D543" s="3" t="inlineStr">
         <is>
-          <t>Fejl i "Repræsentant" (13 06 017 000),  Repræsentant-id-nr. (13 06 017 000) blev angivet, men "Status" (13 06 030 000) var ikke. En status skal angives sammen med id.</t>
+          <t>Fejl i Klarerer (13 05 000 000), hvis EORI-nr. - Klarereren (13 05 017 000) er DK09999981, så skal (13 05 016 000) "Navn", (13 05 018 019) "Gade og nummer" , (13 05 018 020) "Land", (13 05 018 021) "Postnummer", (13 05 018 022) "By" være udfyldt</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="inlineStr">
         <is>
-          <t>DK3044</t>
+          <t>DK3043</t>
         </is>
       </c>
       <c r="B544" s="2" t="n"/>
       <c r="C544" s="2" t="inlineStr">
         <is>
-          <t>Error: The combination of procedurecodes are not allowed/incorrect see CL102 for the correct special procedurecode</t>
+          <t>Error in "Representative" (13 06 017 000),  Representative ID No. (13 06 017 000) was provided, but "Status" (13 06 030 000) was not. A status needs to be provided along with the ID.</t>
         </is>
       </c>
       <c r="D544" s="2" t="inlineStr">
         <is>
-          <t>Fejl: Kombinationen af ​​procedurekoder er ikke tilladt/forkert se CL102 for den korrekt speciale procedurekode</t>
+          <t>Fejl i "Repræsentant" (13 06 017 000),  Repræsentant-id-nr. (13 06 017 000) blev angivet, men "Status" (13 06 030 000) var ikke. En status skal angives sammen med id.</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="3" t="inlineStr">
         <is>
-          <t>DK3045</t>
+          <t>DK3044</t>
         </is>
       </c>
       <c r="B545" s="3" t="n"/>
       <c r="C545" s="3" t="inlineStr">
         <is>
-          <t>Error: Country of destination (16 03 001 000) must not be a EU country.</t>
+          <t>Error: The combination of procedurecodes are not allowed/incorrect see CL102 for the correct special procedurecode</t>
         </is>
       </c>
       <c r="D545" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Bestemmelsesland (16 03 001 000) må ikke være et EU-land.</t>
+          <t>Fejl: Kombinationen af ​​procedurekoder er ikke tilladt/forkert se CL102 for den korrekt speciale procedurekode</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="inlineStr">
         <is>
-          <t>DK3046</t>
+          <t>DK3045</t>
         </is>
       </c>
       <c r="B546" s="2" t="n"/>
       <c r="C546" s="2" t="inlineStr">
         <is>
-          <t>Error: Country of destination (16 03 001 000) must be DK.</t>
+          <t>Error: Country of destination (16 03 001 000) must not be a EU country.</t>
         </is>
       </c>
       <c r="D546" s="2" t="inlineStr">
         <is>
-          <t>Fejl: Bestemmelsesland (16 03 001 000) skal være Danmark (DK).</t>
+          <t>Fejl: Bestemmelsesland (16 03 001 000) må ikke være et EU-land.</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="3" t="inlineStr">
         <is>
-          <t>DK3047</t>
+          <t>DK3046</t>
         </is>
       </c>
       <c r="B547" s="3" t="n"/>
       <c r="C547" s="3" t="inlineStr">
         <is>
-          <t>Error: Country of destination (16 03 001 000) must be EU country, but not DK.</t>
+          <t>Error: Country of destination (16 03 001 000) must be DK.</t>
         </is>
       </c>
       <c r="D547" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Bestemmelsesland (16 03 001 000) skal være EU-land, men ikke Danmark (DK).</t>
+          <t>Fejl: Bestemmelsesland (16 03 001 000) skal være Danmark (DK).</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="inlineStr">
         <is>
-          <t>DK3048</t>
+          <t>DK3047</t>
         </is>
       </c>
       <c r="B548" s="2" t="n"/>
       <c r="C548" s="2" t="inlineStr">
         <is>
-          <t>Error: Declarant must have the bev_code 166.</t>
+          <t>Error: Country of destination (16 03 001 000) must be EU country, but not DK.</t>
         </is>
       </c>
       <c r="D548" s="2" t="inlineStr">
         <is>
-          <t>Fejl: Klareren skal have bev_code 166.</t>
+          <t>Fejl: Bestemmelsesland (16 03 001 000) skal være EU-land, men ikke Danmark (DK).</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="3" t="inlineStr">
         <is>
-          <t>DK3049</t>
+          <t>DK3048</t>
         </is>
       </c>
       <c r="B549" s="3" t="n"/>
       <c r="C549" s="3" t="inlineStr">
         <is>
-          <t>Error: Country of destination (16 03 001 000) must be FI, FR, GR, IT, ES, DE.</t>
+          <t>Error: Declarant must have the bev_code 166.</t>
         </is>
       </c>
       <c r="D549" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Bestemmelsesland (16 03 001 000) skal være FI, FR, GR, IT, ES, DE.</t>
+          <t>Fejl: Klareren skal have bev_code 166.</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="inlineStr">
         <is>
-          <t>DK3050</t>
+          <t>DK3049</t>
         </is>
       </c>
       <c r="B550" s="2" t="n"/>
       <c r="C550" s="2" t="inlineStr">
         <is>
-          <t>Error: Must have a valid "warehouse identifier" (12 11 015 000).</t>
+          <t>Error: Country of destination (16 03 001 000) must be FI, FR, GR, IT, ES, DE.</t>
         </is>
       </c>
       <c r="D550" s="2" t="inlineStr">
         <is>
-          <t>Fejl: Skal have en gyldig "lageridentifikator" (12 11 015 000).</t>
+          <t>Fejl: Bestemmelsesland (16 03 001 000) skal være FI, FR, GR, IT, ES, DE.</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="3" t="inlineStr">
         <is>
-          <t>DK3051</t>
+          <t>DK3050</t>
         </is>
       </c>
       <c r="B551" s="3" t="n"/>
       <c r="C551" s="3" t="inlineStr">
         <is>
-          <t>Error in authorization reference (12 12 001 000). Authorization reference must start with DKEUS</t>
+          <t>Error: Must have a valid "warehouse identifier" (12 11 015 000).</t>
         </is>
       </c>
       <c r="D551" s="3" t="inlineStr">
         <is>
-          <t>Fejl i autorisationsreference (12 12 001 000). Autorisationsreference skal starte med DKEUS.</t>
+          <t>Fejl: Skal have en gyldig "lageridentifikator" (12 11 015 000).</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="inlineStr">
         <is>
-          <t>DK3052</t>
+          <t>DK3051</t>
         </is>
       </c>
       <c r="B552" s="2" t="n"/>
       <c r="C552" s="2" t="inlineStr">
         <is>
-          <t>Error in authorization reference (12 12 001 000). Authorization reference must start with DKIPO.</t>
+          <t>Error in authorization reference (12 12 001 000). Authorization reference must start with DKEUS</t>
         </is>
       </c>
       <c r="D552" s="2" t="inlineStr">
         <is>
-          <t>Fejl i autorisationsreference (12 12 001 000). Autorisationsreference skal starte med DKIPO.</t>
+          <t>Fejl i autorisationsreference (12 12 001 000). Autorisationsreference skal starte med DKEUS.</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="3" t="inlineStr">
         <is>
-          <t>DK3053</t>
+          <t>DK3052</t>
         </is>
       </c>
       <c r="B553" s="3" t="n"/>
       <c r="C553" s="3" t="inlineStr">
         <is>
-          <t>Error: Must have a valid "warehouse identifier" (12 11 015 000) and country of destination  (16 03 001 000) must be a EU country.</t>
+          <t>Error in authorization reference (12 12 001 000). Authorization reference must start with DKIPO.</t>
         </is>
       </c>
       <c r="D553" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Skal have en gyldig "lageridentifikator" (12 11 015 000), og bestemmelseslandet (16 03 001 000) skal være et EU-land.</t>
+          <t>Fejl i autorisationsreference (12 12 001 000). Autorisationsreference skal starte med DKIPO.</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="inlineStr">
         <is>
-          <t>DK3054</t>
+          <t>DK3053</t>
         </is>
       </c>
       <c r="B554" s="2" t="n"/>
       <c r="C554" s="2" t="inlineStr">
         <is>
-          <t>Error: Identication of warehouse (12 11 002 000) must be R, S, U and must have a valid warehouse identifier (12 11 015 000).</t>
+          <t>Error: Must have a valid "warehouse identifier" (12 11 015 000) and country of destination  (16 03 001 000) must be a EU country.</t>
         </is>
       </c>
       <c r="D554" s="2" t="inlineStr">
         <is>
-          <t>Fejl: Identifikation af lager (12 11 002 000) skal være R, S, U og skal have en gyldig lageridentifikator (12 11 015 000).</t>
+          <t>Fejl: Skal have en gyldig "lageridentifikator" (12 11 015 000), og bestemmelseslandet (16 03 001 000) skal være et EU-land.</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="3" t="inlineStr">
         <is>
-          <t>DK3055</t>
+          <t>DK3054</t>
         </is>
       </c>
       <c r="B555" s="3" t="n"/>
       <c r="C555" s="3" t="inlineStr">
         <is>
-          <t>Error: The combination of procedurecodes are not allowed/incorrect for C1 declarations. Please choose the correct values for: 11 09 001 000, 11 09 002 000 and 11 10 000 000</t>
+          <t>Error: Identication of warehouse (12 11 002 000) must be R, S, U and must have a valid warehouse identifier (12 11 015 000).</t>
         </is>
       </c>
       <c r="D555" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Kombinationen af procedurekoder er ikke tilladt/forkert for C1 erklæringer. Vælg venligst de korrekte værdier for: 11 09 001 000, 11 09 002 000 og 11 10 000 000</t>
+          <t>Fejl: Identifikation af lager (12 11 002 000) skal være R, S, U og skal have en gyldig lageridentifikator (12 11 015 000).</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="inlineStr">
         <is>
-          <t>DK3056</t>
+          <t>DK3055</t>
         </is>
       </c>
       <c r="B556" s="2" t="n"/>
       <c r="C556" s="2" t="inlineStr">
         <is>
-          <t>Error: in authorization reference (12 12 001 000). Authorization reference must start with DKCWP, DKCW1 or DKCW2.</t>
+          <t>Error: The combination of procedurecodes are not allowed/incorrect for C1 declarations. Please choose the correct values for: 11 09 001 000, 11 09 002 000 and 11 10 000 000</t>
         </is>
       </c>
       <c r="D556" s="2" t="inlineStr">
         <is>
-          <t>Fejl: i autorisationsreference (12 12 001 000). Autorisationsreference skal starte med DKCWP, DKCW1 eller DKCW2.</t>
+          <t>Fejl: Kombinationen af procedurekoder er ikke tilladt/forkert for C1 erklæringer. Vælg venligst de korrekte værdier for: 11 09 001 000, 11 09 002 000 og 11 10 000 000</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="3" t="inlineStr">
         <is>
-          <t>DK3057</t>
+          <t>DK3056</t>
         </is>
       </c>
       <c r="B557" s="3" t="n"/>
       <c r="C557" s="3" t="inlineStr">
         <is>
-          <t>Error: The combination of procedurecodes are not allowed/incorrect see CL102 for the correct special procedurecode</t>
+          <t>Error: in authorization reference (12 12 001 000). Authorization reference must start with DKCWP, DKCW1 or DKCW2.</t>
         </is>
       </c>
       <c r="D557" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Kombinationen af ​​procedurekoder er ikke tilladt/forkert se CL102 for den korrekt speciale procedurekode</t>
+          <t>Fejl: i autorisationsreference (12 12 001 000). Autorisationsreference skal starte med DKCWP, DKCW1 eller DKCW2.</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="inlineStr">
         <is>
-          <t>DK3058</t>
+          <t>DK3057</t>
         </is>
       </c>
       <c r="B558" s="2" t="n"/>
@@ -11539,1057 +11543,1053 @@
       </c>
       <c r="D558" s="2" t="inlineStr">
         <is>
-          <t>Fejl: Kombinationen af ​procedurekoder er ikke tilladt/forkert se CL102 for den korrekt speciale procedurekode</t>
+          <t>Fejl: Kombinationen af ​​procedurekoder er ikke tilladt/forkert se CL102 for den korrekt speciale procedurekode</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="3" t="inlineStr">
         <is>
-          <t>DK3059</t>
+          <t>DK3058</t>
         </is>
       </c>
       <c r="B559" s="3" t="n"/>
       <c r="C559" s="3" t="inlineStr">
         <is>
-          <t>Invalid Procedure code combination see CL102 to find the correct special procedure</t>
+          <t>Error: The combination of procedurecodes are not allowed/incorrect see CL102 for the correct special procedurecode</t>
         </is>
       </c>
       <c r="D559" s="3" t="inlineStr">
         <is>
-          <t>Invalid procedure kode kombination se CL102 for valide specialProcedure</t>
+          <t>Fejl: Kombinationen af ​procedurekoder er ikke tilladt/forkert se CL102 for den korrekt speciale procedurekode</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="inlineStr">
         <is>
-          <t>DK3060</t>
-        </is>
-      </c>
-      <c r="B560" s="2" t="inlineStr">
-        <is>
-          <t>DKW3060</t>
-        </is>
-      </c>
+          <t>DK3059</t>
+        </is>
+      </c>
+      <c r="B560" s="2" t="n"/>
       <c r="C560" s="2" t="inlineStr">
         <is>
-          <t>Previous Document Type Data Element 12 01 002 000 must be N337 (at masterConsignment level)</t>
+          <t>Invalid Procedure code combination see CL102 to find the correct special procedure</t>
         </is>
       </c>
       <c r="D560" s="2" t="inlineStr">
         <is>
-          <t>Forrige dokumenttype dataelement 12 01 002 000 skal være N337 (på masterConsignment niveau)</t>
+          <t>Invalid procedure kode kombination se CL102 for valide specialProcedure</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="3" t="inlineStr">
         <is>
-          <t>DK3061</t>
+          <t>DK3060</t>
         </is>
       </c>
       <c r="B561" s="3" t="inlineStr">
         <is>
-          <t>DKW3061</t>
+          <t>DKW3060</t>
         </is>
       </c>
       <c r="C561" s="3" t="inlineStr">
         <is>
-          <t>Previous Document Type Data Element 12 01 002 000 must be N337 (at goodsItemMasterConsignment level)</t>
+          <t>Previous Document Type Data Element 12 01 002 000 must be N337 (at masterConsignment level)</t>
         </is>
       </c>
       <c r="D561" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forrige dokumenttype dataelement 12 01 002 000 skal være N337 (på goodsItemMasterConsignment niveau) </t>
+          <t>Forrige dokumenttype dataelement 12 01 002 000 skal være N337 (på masterConsignment niveau)</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="inlineStr">
         <is>
-          <t>DK3062</t>
+          <t>DK3061</t>
         </is>
       </c>
       <c r="B562" s="2" t="inlineStr">
         <is>
-          <t>DKW3062</t>
+          <t>DKW3061</t>
         </is>
       </c>
       <c r="C562" s="2" t="inlineStr">
         <is>
-          <t>Previous Document Type Data Element 12 01 002 000 must be N337 (at houseConsignement level)</t>
+          <t>Previous Document Type Data Element 12 01 002 000 must be N337 (at goodsItemMasterConsignment level)</t>
         </is>
       </c>
       <c r="D562" s="2" t="inlineStr">
         <is>
-          <t>Forrige dokumenttype dataelement 12 01 002 000 skal være N337 (på houseConsignement niveau)</t>
+          <t xml:space="preserve">Forrige dokumenttype dataelement 12 01 002 000 skal være N337 (på goodsItemMasterConsignment niveau) </t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="3" t="inlineStr">
         <is>
-          <t>DK3063</t>
+          <t>DK3062</t>
         </is>
       </c>
       <c r="B563" s="3" t="inlineStr">
         <is>
-          <t>DKW3063</t>
+          <t>DKW3062</t>
         </is>
       </c>
       <c r="C563" s="3" t="inlineStr">
         <is>
-          <t>Previous Document Type Data Element 12 01 002 000 must be N337 (at goodsItemHouseConsignment level)</t>
+          <t>Previous Document Type Data Element 12 01 002 000 must be N337 (at houseConsignement level)</t>
         </is>
       </c>
       <c r="D563" s="3" t="inlineStr">
         <is>
-          <t>Forrige dokumenttype dataelement 12 01 002 000 skal være N337 (på goodsItemHouseConsignment niveau)</t>
+          <t>Forrige dokumenttype dataelement 12 01 002 000 skal være N337 (på houseConsignement niveau)</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="inlineStr">
         <is>
-          <t>DK3064</t>
+          <t>DK3063</t>
         </is>
       </c>
       <c r="B564" s="2" t="inlineStr">
         <is>
-          <t>DKW3064</t>
+          <t>DKW3063</t>
         </is>
       </c>
       <c r="C564" s="2" t="inlineStr">
         <is>
-          <t>Warehouse Type 12 11 002 000 must be V</t>
+          <t>Previous Document Type Data Element 12 01 002 000 must be N337 (at goodsItemHouseConsignment level)</t>
         </is>
       </c>
       <c r="D564" s="2" t="inlineStr">
         <is>
-          <t>Lager Type 12 11 002 000 skal være V</t>
+          <t>Forrige dokumenttype dataelement 12 01 002 000 skal være N337 (på goodsItemHouseConsignment niveau)</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="3" t="inlineStr">
         <is>
-          <t>DK3065</t>
+          <t>DK3064</t>
         </is>
       </c>
       <c r="B565" s="3" t="inlineStr">
         <is>
-          <t>DKW3065</t>
+          <t>DKW3064</t>
         </is>
       </c>
       <c r="C565" s="3" t="inlineStr">
         <is>
-          <t>If DE 16 15 045 000 Type of location = A, then data element 16 15 046 000 Qualifier of identification must be U or V</t>
+          <t>Warehouse Type 12 11 002 000 must be V</t>
         </is>
       </c>
       <c r="D565" s="3" t="inlineStr">
         <is>
-          <t>Hvis Lokationstype (16 15 045 000)  = A, så skal Lokations-ID (16 15 046 000) være U eller V</t>
+          <t>Lager Type 12 11 002 000 skal være V</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="inlineStr">
         <is>
-          <t>DK3066</t>
+          <t>DK3065</t>
         </is>
       </c>
       <c r="B566" s="2" t="inlineStr">
         <is>
-          <t>DKW3066</t>
+          <t>DKW3065</t>
         </is>
       </c>
       <c r="C566" s="2" t="inlineStr">
         <is>
-          <t>If DE 16 15 045 000 Type of location = B, then data element 16 15 046 000 Qualifier of identification must be Y</t>
+          <t>If DE 16 15 045 000 Type of location = A, then data element 16 15 046 000 Qualifier of identification must be U or V</t>
         </is>
       </c>
       <c r="D566" s="2" t="inlineStr">
         <is>
-          <t>Hvis Lokationstype (16 15 045 000) = B, så skal Lokations-ID (16 15 046 000) være Y</t>
+          <t>Hvis Lokationstype (16 15 045 000)  = A, så skal Lokations-ID (16 15 046 000) være U eller V</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="3" t="inlineStr">
         <is>
-          <t>DK3067</t>
+          <t>DK3066</t>
         </is>
       </c>
       <c r="B567" s="3" t="inlineStr">
         <is>
-          <t>DKW3067</t>
+          <t>DKW3066</t>
         </is>
       </c>
       <c r="C567" s="3" t="inlineStr">
         <is>
-          <t>If DE 16 15 045 000 Type of location = C, then data element 16 15 046 000 Qualifier of identification must be Z</t>
+          <t>If DE 16 15 045 000 Type of location = B, then data element 16 15 046 000 Qualifier of identification must be Y</t>
         </is>
       </c>
       <c r="D567" s="3" t="inlineStr">
         <is>
-          <t>Hvis Lokationstype (16 15 045 000) = C, så skal Lokations-ID (16 15 046 000) være Z</t>
+          <t>Hvis Lokationstype (16 15 045 000) = B, så skal Lokations-ID (16 15 046 000) være Y</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="inlineStr">
         <is>
-          <t>DK3068</t>
+          <t>DK3067</t>
         </is>
       </c>
       <c r="B568" s="2" t="inlineStr">
         <is>
-          <t>DKW3068</t>
+          <t>DKW3067</t>
         </is>
       </c>
       <c r="C568" s="2" t="inlineStr">
         <is>
-          <t>If DE 16 15 045 000 Type of location = D, then data element 16 15 046 000 Qualifier of identification must be Z</t>
+          <t>If DE 16 15 045 000 Type of location = C, then data element 16 15 046 000 Qualifier of identification must be Z</t>
         </is>
       </c>
       <c r="D568" s="2" t="inlineStr">
         <is>
-          <t>Hvis Lokationstype (16 15 045 000) = D, så skal Lokations-ID (16 15 046 000) være Z</t>
+          <t>Hvis Lokationstype (16 15 045 000) = C, så skal Lokations-ID (16 15 046 000) være Z</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="3" t="inlineStr">
         <is>
-          <t>DK3069</t>
+          <t>DK3068</t>
         </is>
       </c>
       <c r="B569" s="3" t="inlineStr">
         <is>
-          <t>DKW3069</t>
+          <t>DKW3068</t>
         </is>
       </c>
       <c r="C569" s="3" t="inlineStr">
         <is>
-          <t>If DE 16 15 046 000 Qualifier of identification = Y, then Authorisation number must be provided in 16 15 052 000 Authorisation</t>
+          <t>If DE 16 15 045 000 Type of location = D, then data element 16 15 046 000 Qualifier of identification must be Z</t>
         </is>
       </c>
       <c r="D569" s="3" t="inlineStr">
         <is>
-          <t>Hvis Lokations-ID (16 15 046 000) = Y, så skal bevillingsnummer være angivet i Bevilling (16 15 052 000)</t>
+          <t>Hvis Lokationstype (16 15 045 000) = D, så skal Lokations-ID (16 15 046 000) være Z</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="inlineStr">
         <is>
-          <t>DK3070</t>
-        </is>
-      </c>
-      <c r="B570" s="2" t="n"/>
+          <t>DK3069</t>
+        </is>
+      </c>
+      <c r="B570" s="2" t="inlineStr">
+        <is>
+          <t>DKW3069</t>
+        </is>
+      </c>
       <c r="C570" s="2" t="inlineStr">
         <is>
-          <t>Error: Additional procedurecode (11 10 001 000) must be filled and cannot be empty</t>
+          <t>If DE 16 15 046 000 Qualifier of identification = Y, then Authorisation number must be provided in 16 15 052 000 Authorisation</t>
         </is>
       </c>
       <c r="D570" s="2" t="inlineStr">
         <is>
-          <t>Fejl, Supplerende procedurekode (11 10 001 000) skal udfyldes og må ikke være tom</t>
+          <t>Hvis Lokations-ID (16 15 046 000) = Y, så skal bevillingsnummer være angivet i Bevilling (16 15 052 000)</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="3" t="inlineStr">
         <is>
-          <t>DK3071</t>
+          <t>DK3070</t>
         </is>
       </c>
       <c r="B571" s="3" t="n"/>
       <c r="C571" s="3" t="inlineStr">
         <is>
-          <t>Error: Exporter Identification number (13 01 017 000) must be filled and cannot be empty</t>
+          <t>Error: Additional procedurecode (11 10 001 000) must be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D571" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Eksportør identifikations nummer (13 01 017 000) skal udfyldes og må ikke være tomt</t>
+          <t>Fejl, Supplerende procedurekode (11 10 001 000) skal udfyldes og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="inlineStr">
         <is>
-          <t>DK3072</t>
+          <t>DK3071</t>
         </is>
       </c>
       <c r="B572" s="2" t="n"/>
       <c r="C572" s="2" t="inlineStr">
         <is>
-          <t>Error: Delivery terms (14 01 000 000) or Incoterm code (14 01 035 000) must both be filled and cannot be empty</t>
+          <t>Error: Exporter Identification number (13 01 017 000) must be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D572" s="2" t="inlineStr">
         <is>
-          <t>Fejl: Leveringsbetingelser (14 01 000 000) eller Incoterm kode (14 01 035 000) skal begge udfyldes og må ikke være tomme</t>
+          <t>Fejl: Eksportør identifikations nummer (13 01 017 000) skal udfyldes og må ikke være tomt</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="3" t="inlineStr">
         <is>
-          <t>DK3073</t>
+          <t>DK3072</t>
         </is>
       </c>
       <c r="B573" s="3" t="n"/>
       <c r="C573" s="3" t="inlineStr">
         <is>
-          <t>Error: Both Invoice currency (14 05 001 000) and Total amount invoiced (14 06 001 000) must be filled and cannot be empty</t>
+          <t>Error: Delivery terms (14 01 000 000) or Incoterm code (14 01 035 000) must both be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D573" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Både Fakturavaluta (14 05 001 000) og Samlet faktureret beløb (14 06 001 000) skal udfyldes og må ikke være tomme</t>
+          <t>Fejl: Leveringsbetingelser (14 01 000 000) eller Incoterm kode (14 01 035 000) skal begge udfyldes og må ikke være tomme</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="inlineStr">
         <is>
-          <t>DK3074</t>
-        </is>
-      </c>
-      <c r="B574" s="2" t="inlineStr">
-        <is>
-          <t>DKW3074</t>
-        </is>
-      </c>
+          <t>DK3073</t>
+        </is>
+      </c>
+      <c r="B574" s="2" t="n"/>
       <c r="C574" s="2" t="inlineStr">
         <is>
-          <t>Error: Qualifier of identification (16 15 046 000) must be filled and cannot be empty</t>
+          <t>Error: Both Invoice currency (14 05 001 000) and Total amount invoiced (14 06 001 000) must be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D574" s="2" t="inlineStr">
         <is>
-          <t>Lokations-ID (16 15 046 000) skal udfyldes</t>
+          <t>Fejl: Både Fakturavaluta (14 05 001 000) og Samlet faktureret beløb (14 06 001 000) skal udfyldes og må ikke være tomme</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="3" t="inlineStr">
         <is>
-          <t>DK3075</t>
+          <t>DK3074</t>
         </is>
       </c>
       <c r="B575" s="3" t="inlineStr">
         <is>
-          <t>DKW3075</t>
+          <t>DKW3074</t>
         </is>
       </c>
       <c r="C575" s="3" t="inlineStr">
         <is>
-          <t>Error: Type of location (16 15 045 000) must be filled and cannot be empty</t>
+          <t>Error: Qualifier of identification (16 15 046 000) must be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D575" s="3" t="inlineStr">
         <is>
-          <t>Lokationsart (16 15 045 000) skal udfyldes</t>
+          <t>Lokations-ID (16 15 046 000) skal udfyldes</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="inlineStr">
         <is>
-          <t>DK3076</t>
-        </is>
-      </c>
-      <c r="B576" s="2" t="n"/>
+          <t>DK3075</t>
+        </is>
+      </c>
+      <c r="B576" s="2" t="inlineStr">
+        <is>
+          <t>DKW3075</t>
+        </is>
+      </c>
       <c r="C576" s="2" t="inlineStr">
         <is>
-          <t>Error:  Customs office of export - Reference number (17 02 001 000) must be filled and cannot be empty</t>
+          <t>Error: Type of location (16 15 045 000) must be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D576" s="2" t="inlineStr">
         <is>
-          <t>Fejl: Toldstedskoden (17 02 001 000) skal udfyldes og må ikke være tom</t>
+          <t>Lokationsart (16 15 045 000) skal udfyldes</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="3" t="inlineStr">
         <is>
-          <t>DK3077</t>
+          <t>DK3076</t>
         </is>
       </c>
       <c r="B577" s="3" t="n"/>
       <c r="C577" s="3" t="inlineStr">
         <is>
-          <t>Error: Shipping marks (18 06 054 000) must be filled and cannot be empty</t>
+          <t>Error:  Customs office of export - Reference number (17 02 001 000) must be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D577" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Kollimærker (18 06 054 000) skal udfyldes og må ikke være tomme</t>
+          <t>Fejl: Toldstedskoden (17 02 001 000) skal udfyldes og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="inlineStr">
         <is>
-          <t>DK3078</t>
-        </is>
-      </c>
-      <c r="B578" s="2" t="inlineStr">
-        <is>
-          <t>DKW3078</t>
-        </is>
-      </c>
+          <t>DK3077</t>
+        </is>
+      </c>
+      <c r="B578" s="2" t="n"/>
       <c r="C578" s="2" t="inlineStr">
         <is>
-          <t>Error: Net mass (18 01 001 000) must be filled and cannot be empty</t>
+          <t>Error: Shipping marks (18 06 054 000) must be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D578" s="2" t="inlineStr">
         <is>
-          <t>Fejl: Nettomasse (18 01 001 000) skal udfyldes og må ikke være tom</t>
+          <t>Fejl: Kollimærker (18 06 054 000) skal udfyldes og må ikke være tomme</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="3" t="inlineStr">
         <is>
-          <t>DK3079</t>
+          <t>DK3078</t>
         </is>
       </c>
       <c r="B579" s="3" t="inlineStr">
         <is>
-          <t>DKW3079</t>
+          <t>DKW3078</t>
         </is>
       </c>
       <c r="C579" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Statistisk værdi (99 06 001 000) skal udfyldes og må ikke være tom</t>
+          <t>Error: Net mass (18 01 001 000) must be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D579" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Statistisk værdi (99 06 001 000) skal udfyldes og må ikke være tom</t>
+          <t>Fejl: Nettomasse (18 01 001 000) skal udfyldes og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="inlineStr">
         <is>
-          <t>DK3080</t>
-        </is>
-      </c>
-      <c r="B580" s="2" t="n"/>
+          <t>DK3079</t>
+        </is>
+      </c>
+      <c r="B580" s="2" t="inlineStr">
+        <is>
+          <t>DKW3079</t>
+        </is>
+      </c>
       <c r="C580" s="2" t="inlineStr">
         <is>
-          <t>Error: Gross mass (18 04 001 000) must be filled and cannot be empty</t>
+          <t>Fejl: Statistisk værdi (99 06 001 000) skal udfyldes og må ikke være tom</t>
         </is>
       </c>
       <c r="D580" s="2" t="inlineStr">
         <is>
-          <t>Fejl: Bruttomasse (18 04 001 000) skal udfyldes og må ikke være tom</t>
+          <t>Fejl: Statistisk værdi (99 06 001 000) skal udfyldes og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="3" t="inlineStr">
         <is>
-          <t>DK3081</t>
+          <t>DK3080</t>
         </is>
       </c>
       <c r="B581" s="3" t="n"/>
       <c r="C581" s="3" t="inlineStr">
         <is>
-          <t>Error : Security (11 07 001 000) must be filled and cannot be empty</t>
+          <t>Error: Gross mass (18 04 001 000) must be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D581" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Sikkerhed (11 07 001 000) skal være udfyldt og må ikke være tom</t>
+          <t>Fejl: Bruttomasse (18 04 001 000) skal udfyldes og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="inlineStr">
         <is>
-          <t>DK3082</t>
+          <t>DK3081</t>
         </is>
       </c>
       <c r="B582" s="2" t="n"/>
       <c r="C582" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error: Carrier - Identification number (13 12 017 000) must be filled and cannot be empty </t>
+          <t>Error : Security (11 07 001 000) must be filled and cannot be empty</t>
         </is>
       </c>
       <c r="D582" s="2" t="inlineStr">
         <is>
-          <t>Fejl Transportør (13 12 017 000) skal være udfyldt og må ikke være tom</t>
+          <t>Fejl: Sikkerhed (11 07 001 000) skal være udfyldt og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="3" t="inlineStr">
         <is>
-          <t>DK3083</t>
+          <t>DK3082</t>
         </is>
       </c>
       <c r="B583" s="3" t="n"/>
       <c r="C583" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error: Customs office of exit - Reference number (17 01 001 000) must be filled and cannot be empty </t>
+          <t xml:space="preserve">Error: Carrier - Identification number (13 12 017 000) must be filled and cannot be empty </t>
         </is>
       </c>
       <c r="D583" s="3" t="inlineStr">
         <is>
-          <t>Fejl Udgangstoldsted (17 01 000 000) skal være udfyldt og må ikke være tom</t>
+          <t>Fejl Transportør (13 12 017 000) skal være udfyldt og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="inlineStr">
         <is>
-          <t>DK3084</t>
+          <t>DK3083</t>
         </is>
       </c>
       <c r="B584" s="2" t="n"/>
       <c r="C584" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error: Type of packages (18 06 003 000) must be filled and cannot be empty </t>
+          <t xml:space="preserve">Error: Customs office of exit - Reference number (17 01 001 000) must be filled and cannot be empty </t>
         </is>
       </c>
       <c r="D584" s="2" t="inlineStr">
         <is>
-          <t>Fejl Pakke Type (18 03 003 000) skal være udfyldt og må ikke være tom</t>
+          <t>Fejl Udgangstoldsted (17 01 000 000) skal være udfyldt og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="3" t="inlineStr">
         <is>
-          <t>DK3085</t>
+          <t>DK3084</t>
         </is>
       </c>
       <c r="B585" s="3" t="n"/>
       <c r="C585" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Error: Specific circumstance indicator (11 04 001 000) must be filled and cannot be empty </t>
+          <t xml:space="preserve">Error: Type of packages (18 06 003 000) must be filled and cannot be empty </t>
         </is>
       </c>
       <c r="D585" s="3" t="inlineStr">
         <is>
-          <t>Fejl specifik omstændighedsindikator (11 04 001 000) skal være udfyldt og må ikke være tom</t>
+          <t>Fejl Pakke Type (18 03 003 000) skal være udfyldt og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="inlineStr">
         <is>
-          <t>DK3086</t>
+          <t>DK3085</t>
         </is>
       </c>
       <c r="B586" s="2" t="n"/>
       <c r="C586" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Country of routing of consignment - Country (16 12 020 000) must be filled and cannot be empty </t>
+          <t xml:space="preserve">Error: Specific circumstance indicator (11 04 001 000) must be filled and cannot be empty </t>
         </is>
       </c>
       <c r="D586" s="2" t="inlineStr">
         <is>
-          <t>Land på ruten (16 12 020 000) skal være udfyldt og må ikke være tom</t>
+          <t>Fejl specifik omstændighedsindikator (11 04 001 000) skal være udfyldt og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="3" t="inlineStr">
         <is>
-          <t>DK3087</t>
+          <t>DK3086</t>
         </is>
       </c>
       <c r="B587" s="3" t="n"/>
       <c r="C587" s="3" t="inlineStr">
         <is>
-          <t>Error: customs office of Exit (17 01 001 000) is not a Danish custom office</t>
+          <t xml:space="preserve">Country of routing of consignment - Country (16 12 020 000) must be filled and cannot be empty </t>
         </is>
       </c>
       <c r="D587" s="3" t="inlineStr">
         <is>
-          <t>Fejl Toldstedskoden (17 01 001 000) skal være et dansk Toldsted</t>
+          <t>Land på ruten (16 12 020 000) skal være udfyldt og må ikke være tom</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="inlineStr">
         <is>
-          <t>DK3088</t>
-        </is>
-      </c>
-      <c r="B588" s="2" t="inlineStr">
-        <is>
-          <t>DKW3088</t>
-        </is>
-      </c>
+          <t>DK3087</t>
+        </is>
+      </c>
+      <c r="B588" s="2" t="n"/>
       <c r="C588" s="2" t="inlineStr">
         <is>
-          <t>Previous Document Type Data Element 12 01 002 000 must be N337</t>
+          <t>Error: customs office of Exit (17 01 001 000) is not a Danish custom office</t>
         </is>
       </c>
       <c r="D588" s="2" t="inlineStr">
         <is>
-          <t>Forrige dokumenttype dataelement 12 01 002 000 skal være N337</t>
+          <t>Fejl Toldstedskoden (17 01 001 000) skal være et dansk Toldsted</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="3" t="inlineStr">
         <is>
-          <t>DK3090</t>
+          <t>DK3088</t>
         </is>
       </c>
       <c r="B589" s="3" t="inlineStr">
         <is>
-          <t>DKW3090</t>
+          <t>DKW3088</t>
         </is>
       </c>
       <c r="C589" s="3" t="inlineStr">
         <is>
-          <t>If the value in the field (Dataelement 12 02 008 000) Additional Information - Code is declared then the field (Dataelement 12 02 009 000) Text must be filled in</t>
+          <t>Previous Document Type Data Element 12 01 002 000 must be N337</t>
         </is>
       </c>
       <c r="D589" s="3" t="inlineStr">
         <is>
-          <t>Hvis værdien i (Dataelement 12 02 008 000) Supplerende Oplysninger - Kode er deklareret, så skal feltet (Dataelement 12 02 009 000) Tekst være udfyldt</t>
+          <t>Forrige dokumenttype dataelement 12 01 002 000 skal være N337</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="inlineStr">
         <is>
-          <t>DK3091</t>
-        </is>
-      </c>
-      <c r="B590" s="2" t="n"/>
+          <t>DK3090</t>
+        </is>
+      </c>
+      <c r="B590" s="2" t="inlineStr">
+        <is>
+          <t>DKW3090</t>
+        </is>
+      </c>
       <c r="C590" s="2" t="inlineStr">
         <is>
-          <t>If previous document (12 01 000 000) is filled out then the reference number (12 01 001 000), type (12 01 002 000), type of pacakges (12 01 003 000), number of packages (12 01 004 000) and quantity of packages (12 01 006 000) must be filled out too.</t>
+          <t>If the value in the field (Dataelement 12 02 008 000) Additional Information - Code is declared then the field (Dataelement 12 02 009 000) Text must be filled in</t>
         </is>
       </c>
       <c r="D590" s="2" t="inlineStr">
         <is>
-          <t>Hvis tidligere dokument (12 01 000 000) er udfyldt, så er referencenummeret (12 01 001 000), type (12 01 002 000), pakketype (12 01 003 000), antal pakker (12 01 004 000) og antal pakker (12 01 006 000) skal også udfyldes.</t>
+          <t>Hvis værdien i (Dataelement 12 02 008 000) Supplerende Oplysninger - Kode er deklareret, så skal feltet (Dataelement 12 02 009 000) Tekst være udfyldt</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="3" t="inlineStr">
         <is>
-          <t>DK3092</t>
+          <t>DK3091</t>
         </is>
       </c>
       <c r="B591" s="3" t="n"/>
       <c r="C591" s="3" t="inlineStr">
         <is>
-          <t>If name in contact details of declarant (13 05 074 016) is provided either phone number (13 05 074 075) or e-mail address (13 05 074 076) must be provided, or both.</t>
+          <t>If previous document (12 01 000 000) is filled out then the reference number (12 01 001 000), type (12 01 002 000), type of pacakges (12 01 003 000), number of packages (12 01 004 000) and quantity of packages (12 01 006 000) must be filled out too.</t>
         </is>
       </c>
       <c r="D591" s="3" t="inlineStr">
         <is>
-          <t>Hvis navn i kontaktoplysningerne på klarereren (13 05 074 016) er angivet, skal enten telefonnummer (13 05 074 075) eller e-mailadresse (13 05 074 076) angives, eller begge dele.</t>
+          <t>Hvis tidligere dokument (12 01 000 000) er udfyldt, så er referencenummeret (12 01 001 000), type (12 01 002 000), pakketype (12 01 003 000), antal pakker (12 01 004 000) og antal pakker (12 01 006 000) skal også udfyldes.</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="inlineStr">
         <is>
-          <t>DK3093</t>
+          <t>DK3092</t>
         </is>
       </c>
       <c r="B592" s="2" t="n"/>
       <c r="C592" s="2" t="inlineStr">
         <is>
-          <t>If name in contact details of agent (13 06 074 016) is provided either phone number (13 06 074 075) or e-mail address (13 06 074 076) must be provided, or both.</t>
+          <t>If name in contact details of declarant (13 05 074 016) is provided either phone number (13 05 074 075) or e-mail address (13 05 074 076) must be provided, or both.</t>
         </is>
       </c>
       <c r="D592" s="2" t="inlineStr">
         <is>
-          <t>Hvis navn i agentens kontaktoplysninger (13 06 074 016) er angivet, skal enten telefonnummer (13 06 074 075) eller e-mailadresse (13 06 074 076) angives, eller begge dele.</t>
+          <t>Hvis navn i kontaktoplysningerne på klarereren (13 05 074 016) er angivet, skal enten telefonnummer (13 05 074 075) eller e-mailadresse (13 05 074 076) angives, eller begge dele.</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="3" t="inlineStr">
         <is>
-          <t>DK3094</t>
+          <t>DK3093</t>
         </is>
       </c>
       <c r="B593" s="3" t="n"/>
       <c r="C593" s="3" t="inlineStr">
         <is>
-          <t>If name in contact details of carrier (13 12 074 016) is provided either phone number (13 12 074 075) or e-mail address (13 12 074 076) must be provided, or both.</t>
+          <t>If name in contact details of agent (13 06 074 016) is provided either phone number (13 06 074 075) or e-mail address (13 06 074 076) must be provided, or both.</t>
         </is>
       </c>
       <c r="D593" s="3" t="inlineStr">
         <is>
-          <t>Hvis navn i operatørens kontaktoplysninger (13 12 074 016) er angivet, skal enten telefonnummer (13 12 074 075) eller e-mailadresse (13 12 074 076) angives, eller begge dele.</t>
+          <t>Hvis navn i agentens kontaktoplysninger (13 06 074 016) er angivet, skal enten telefonnummer (13 06 074 075) eller e-mailadresse (13 06 074 076) angives, eller begge dele.</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="inlineStr">
         <is>
-          <t>DK3095</t>
+          <t>DK3094</t>
         </is>
       </c>
       <c r="B594" s="2" t="n"/>
       <c r="C594" s="2" t="inlineStr">
         <is>
-          <t>If name in contact details on master consignment level (16 15 074 016) is provided either phone number (16 15 074 075) or e-mail address (16 15 074 076) must be provided, or both.</t>
+          <t>If name in contact details of carrier (13 12 074 016) is provided either phone number (13 12 074 075) or e-mail address (13 12 074 076) must be provided, or both.</t>
         </is>
       </c>
       <c r="D594" s="2" t="inlineStr">
         <is>
-          <t>Hvis navn i kontaktoplysninger på hovedforsendelsesniveau (16 15 074 016) angives, skal enten telefonnummer (16 15 074 075) eller e-mailadresse (16 15 074 076) angives, eller begge dele.</t>
+          <t>Hvis navn i operatørens kontaktoplysninger (13 12 074 016) er angivet, skal enten telefonnummer (13 12 074 075) eller e-mailadresse (13 12 074 076) angives, eller begge dele.</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="3" t="inlineStr">
         <is>
-          <t>DK3096</t>
+          <t>DK3095</t>
         </is>
       </c>
       <c r="B595" s="3" t="n"/>
       <c r="C595" s="3" t="inlineStr">
         <is>
-          <t>If transport means type (19 01 001 000) code is equal to 1 then transport equipment (19 07 000 000) is mandatory</t>
+          <t>If name in contact details on master consignment level (16 15 074 016) is provided either phone number (16 15 074 075) or e-mail address (16 15 074 076) must be provided, or both.</t>
         </is>
       </c>
       <c r="D595" s="3" t="inlineStr">
         <is>
-          <t>Hvis transportmiddeltype (19 01 001 000) kode er lig med 1, er transportudstyr (19 07 000 000) obligatorisk</t>
+          <t>Hvis navn i kontaktoplysninger på hovedforsendelsesniveau (16 15 074 016) angives, skal enten telefonnummer (16 15 074 075) eller e-mailadresse (16 15 074 076) angives, eller begge dele.</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="inlineStr">
         <is>
-          <t>DK3097</t>
-        </is>
-      </c>
-      <c r="B596" s="2" t="inlineStr">
-        <is>
-          <t>DKW3097</t>
-        </is>
-      </c>
+          <t>DK3096</t>
+        </is>
+      </c>
+      <c r="B596" s="2" t="n"/>
       <c r="C596" s="2" t="inlineStr">
         <is>
-          <t>Data element LRN (12 09 000 000) must be filled in</t>
+          <t>If transport means type (19 01 001 000) code is equal to 1 then transport equipment (19 07 000 000) is mandatory</t>
         </is>
       </c>
       <c r="D596" s="2" t="inlineStr">
         <is>
-          <t>Dataelement LRN (12 09 000 000) skal udfyldes</t>
+          <t>Hvis transportmiddeltype (19 01 001 000) kode er lig med 1, er transportudstyr (19 07 000 000) obligatorisk</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="3" t="inlineStr">
         <is>
-          <t>DK3098</t>
+          <t>DK3097</t>
         </is>
       </c>
       <c r="B597" s="3" t="inlineStr">
         <is>
-          <t>DKW3098</t>
+          <t>DKW3097</t>
         </is>
       </c>
       <c r="C597" s="3" t="inlineStr">
         <is>
-          <t>Declarant identification number (13 05 017 000) must be filled in</t>
+          <t>Data element LRN (12 09 000 000) must be filled in</t>
         </is>
       </c>
       <c r="D597" s="3" t="inlineStr">
         <is>
-          <t>EORI-nr. - Klarerer (13 05 017 000) skal udfyldes</t>
+          <t>Dataelement LRN (12 09 000 000) skal udfyldes</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="inlineStr">
         <is>
-          <t>DK3099</t>
+          <t>DK3098</t>
         </is>
       </c>
       <c r="B598" s="2" t="inlineStr">
         <is>
-          <t>DKW3099</t>
+          <t>DKW3098</t>
         </is>
       </c>
       <c r="C598" s="2" t="inlineStr">
         <is>
-          <t>Consignee identification number (13 03 017 000) must be filled in</t>
+          <t>Declarant identification number (13 05 017 000) must be filled in</t>
         </is>
       </c>
       <c r="D598" s="2" t="inlineStr">
         <is>
-          <t>Modtager identifikations nummer (13 03 017 000) skal udfyldes</t>
+          <t>EORI-nr. - Klarerer (13 05 017 000) skal udfyldes</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="3" t="inlineStr">
         <is>
-          <t>DK3100</t>
+          <t>DK3099</t>
         </is>
       </c>
       <c r="B599" s="3" t="inlineStr">
         <is>
-          <t>DKW3100</t>
+          <t>DKW3099</t>
         </is>
       </c>
       <c r="C599" s="3" t="inlineStr">
         <is>
-          <t>If DE 16 15 046 000 Qualifier of identification = Z, then Address must be provided in DEs 16 15 018 019 (street and number), 16 15 018 020 (country code), 16 15 018 021 (postcode) and 16 15 018 022 (city)</t>
+          <t>Consignee identification number (13 03 017 000) must be filled in</t>
         </is>
       </c>
       <c r="D599" s="3" t="inlineStr">
         <is>
-          <t>Hvis Lokations-ID (16 15 046 000) = Z, så skal følgende dataelementer være udfyldt Adresse (16 15 018 019), Land (16 15 018 020), Postnummer (16 15 018 021) og By (16 15 018 022)</t>
+          <t>Modtager identifikations nummer (13 03 017 000) skal udfyldes</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="inlineStr">
         <is>
-          <t>DK3101</t>
+          <t>DK3100</t>
         </is>
       </c>
       <c r="B600" s="2" t="inlineStr">
         <is>
-          <t>DKW3101</t>
+          <t>DKW3100</t>
         </is>
       </c>
       <c r="C600" s="2" t="inlineStr">
         <is>
-          <t>If DE 16 15 018 020 Country code is provided, the entry must be contained in a reference data list</t>
+          <t>If DE 16 15 046 000 Qualifier of identification = Z, then Address must be provided in DEs 16 15 018 019 (street and number), 16 15 018 020 (country code), 16 15 018 021 (postcode) and 16 15 018 022 (city)</t>
         </is>
       </c>
       <c r="D600" s="2" t="inlineStr">
         <is>
-          <t>Hvis Land (16 15 018 020)  er angivet, så skal landekode findes i kodeliste</t>
+          <t>Hvis Lokations-ID (16 15 046 000) = Z, så skal følgende dataelementer være udfyldt Adresse (16 15 018 019), Land (16 15 018 020), Postnummer (16 15 018 021) og By (16 15 018 022)</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="3" t="inlineStr">
         <is>
-          <t>DK3102</t>
+          <t>DK3101</t>
         </is>
       </c>
       <c r="B601" s="3" t="inlineStr">
         <is>
-          <t>DKW3102</t>
+          <t>DKW3101</t>
         </is>
       </c>
       <c r="C601" s="3" t="inlineStr">
         <is>
-          <t>If DE 16 15 046 000 Qualifier of identification = V, then Customs Office must be provided in data element 16 15 047 001 and must be contained in a reference list</t>
+          <t>If DE 16 15 018 020 Country code is provided, the entry must be contained in a reference data list</t>
         </is>
       </c>
       <c r="D601" s="3" t="inlineStr">
         <is>
-          <t>Hvis Lokations-ID (16 15 046 000) = V, så skal Toldsted være angivet i (16 15 047 000) og skal findes i en kodeliste</t>
+          <t>Hvis Land (16 15 018 020)  er angivet, så skal landekode findes i kodeliste</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="inlineStr">
         <is>
-          <t>DK3103</t>
+          <t>DK3102</t>
         </is>
       </c>
       <c r="B602" s="2" t="inlineStr">
         <is>
-          <t>DKW3103</t>
+          <t>DKW3102</t>
         </is>
       </c>
       <c r="C602" s="2" t="inlineStr">
         <is>
-          <t>If DE 16 15 046 000 Qualifier of identification = U, then UN/LOCODE must be provided in DE 16 15 036 000 and must be contained in a reference list</t>
+          <t>If DE 16 15 046 000 Qualifier of identification = V, then Customs Office must be provided in data element 16 15 047 001 and must be contained in a reference list</t>
         </is>
       </c>
       <c r="D602" s="2" t="inlineStr">
         <is>
-          <t>Hvis Lokations-ID (16 15 046 000) = U, så skal UN/LOCODE være angivet i (16 15 036 000) og skal findes i en kodeliste</t>
+          <t>Hvis Lokations-ID (16 15 046 000) = V, så skal Toldsted være angivet i (16 15 047 000) og skal findes i en kodeliste</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="3" t="inlineStr">
         <is>
-          <t>DK3104</t>
+          <t>DK3103</t>
         </is>
       </c>
       <c r="B603" s="3" t="inlineStr">
         <is>
-          <t>DKW3104</t>
+          <t>DKW3103</t>
         </is>
       </c>
       <c r="C603" s="3" t="inlineStr">
         <is>
-          <t>If DE 16 15 046 000 'Qualifier of identification' = Y, then 'Authorisation number' must be provided and on the format an..35</t>
+          <t>If DE 16 15 046 000 Qualifier of identification = U, then UN/LOCODE must be provided in DE 16 15 036 000 and must be contained in a reference list</t>
         </is>
       </c>
       <c r="D603" s="3" t="inlineStr">
         <is>
-          <t>Hvis DE 16 15 046 000 Lokations-ID = Y, skal 16 15 052 000 Bevilling være angivet på formatet an..35</t>
+          <t>Hvis Lokations-ID (16 15 046 000) = U, så skal UN/LOCODE være angivet i (16 15 036 000) og skal findes i en kodeliste</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="inlineStr">
         <is>
-          <t>DK3105</t>
+          <t>DK3104</t>
         </is>
       </c>
       <c r="B604" s="2" t="inlineStr">
         <is>
-          <t>DKW3105</t>
+          <t>DKW3104</t>
         </is>
       </c>
       <c r="C604" s="2" t="inlineStr">
         <is>
-          <t>Both number of packages (12 01 004 000) and type of packages (12 01 003 000) must be filled out if any is provided</t>
+          <t>If DE 16 15 046 000 'Qualifier of identification' = Y, then 'Authorisation number' must be provided and on the format an..35</t>
         </is>
       </c>
       <c r="D604" s="2" t="inlineStr">
         <is>
-          <t>Både Kolli antal (12 01 004 000) og Kolliart (12 01 003 000) skal udfyldes, hvis der er angivet nogen</t>
+          <t>Hvis DE 16 15 046 000 Lokations-ID = Y, skal 16 15 052 000 Bevilling være angivet på formatet an..35</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="3" t="inlineStr">
         <is>
-          <t>DK3106</t>
+          <t>DK3105</t>
         </is>
       </c>
       <c r="B605" s="3" t="inlineStr">
         <is>
-          <t>DKW3106</t>
+          <t>DKW3105</t>
         </is>
       </c>
       <c r="C605" s="3" t="inlineStr">
         <is>
-          <t>If Authorisation Reference Number (12 12 015 000) starts with DKCW1, DKCW2 or DKCWP then Warehouse - Identifier (12 11 015 000) must be non-empty</t>
+          <t>Both number of packages (12 01 004 000) and type of packages (12 01 003 000) must be filled out if any is provided</t>
         </is>
       </c>
       <c r="D605" s="3" t="inlineStr">
         <is>
-          <t>Hvis bevillingsnummer (12 12 015 000) starter med DKCW1, DKCW2 eller DKCWP så skal Oplag - Datanavn (12 11 015 000) være udfyldt</t>
+          <t>Både Kolli antal (12 01 004 000) og Kolliart (12 01 003 000) skal udfyldes, hvis der er angivet nogen</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="inlineStr">
         <is>
-          <t>DK3107</t>
+          <t>DK3106</t>
         </is>
       </c>
       <c r="B606" s="2" t="inlineStr">
         <is>
-          <t>DKW3107</t>
+          <t>DKW3106</t>
         </is>
       </c>
       <c r="C606" s="2" t="inlineStr">
         <is>
-          <t>Warning: Previous Document Type Data Element 12 01 002 000 must be one of N820, N821, N822, N355, N337, or NMRN (at goodsItemMasterConsignment level)</t>
+          <t>If Authorisation Reference Number (12 12 015 000) starts with DKCW1, DKCW2 or DKCWP then Warehouse - Identifier (12 11 015 000) must be non-empty</t>
         </is>
       </c>
       <c r="D606" s="2" t="inlineStr">
         <is>
-          <t>OBS: Forrige dokumenttype dataelement 12 01 002 000 skal være en af N820, N821, N822, N355, N337 eller NMRN (på masterniveau for varepost)</t>
+          <t>Hvis bevillingsnummer (12 12 015 000) starter med DKCW1, DKCW2 eller DKCWP så skal Oplag - Datanavn (12 11 015 000) være udfyldt</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="3" t="inlineStr">
         <is>
-          <t>DK3108</t>
+          <t>DK3107</t>
         </is>
       </c>
       <c r="B607" s="3" t="inlineStr">
         <is>
-          <t>DKW3108</t>
+          <t>DKW3107</t>
         </is>
       </c>
       <c r="C607" s="3" t="inlineStr">
         <is>
-          <t>Warning: Previous Document Type Data Element 12 01 002 000 must be one of N820, N821, N822, N355, N337, or NMRN (at houseConsignement level)</t>
+          <t>Warning: Previous Document Type Data Element 12 01 002 000 must be one of N820, N821, N822, N355, N337, or NMRN (at goodsItemMasterConsignment level)</t>
         </is>
       </c>
       <c r="D607" s="3" t="inlineStr">
         <is>
-          <t>OBS: Forrige dokumenttype dataelement 12 01 002 000 skal være en af N820, N821, N822, N355, N337 eller NMRN (på husforsendelsesniveau)</t>
+          <t>OBS: Forrige dokumenttype dataelement 12 01 002 000 skal være en af N820, N821, N822, N355, N337 eller NMRN (på masterniveau for varepost)</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="inlineStr">
         <is>
-          <t>DK3109</t>
+          <t>DK3108</t>
         </is>
       </c>
       <c r="B608" s="2" t="inlineStr">
         <is>
-          <t>DKW3109</t>
+          <t>DKW3108</t>
         </is>
       </c>
       <c r="C608" s="2" t="inlineStr">
         <is>
-          <t>Warning: Previous Document Type Data Element 12 01 002 000 must be one of N820, N821, N822, N355, N337, or NMRN (at goodsItemHouseConsignment level)</t>
+          <t>Warning: Previous Document Type Data Element 12 01 002 000 must be one of N820, N821, N822, N355, N337, or NMRN (at houseConsignement level)</t>
         </is>
       </c>
       <c r="D608" s="2" t="inlineStr">
         <is>
-          <t>OBS: Forrige dokumenttype dataelement 12 01 002 000 skal være en af N820, N821, N822, N355, N337 eller NMRN (på vareposthusforsendelsesniveau)</t>
+          <t>OBS: Forrige dokumenttype dataelement 12 01 002 000 skal være en af N820, N821, N822, N355, N337 eller NMRN (på husforsendelsesniveau)</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="3" t="inlineStr">
         <is>
-          <t>DK3110</t>
+          <t>DK3109</t>
         </is>
       </c>
       <c r="B609" s="3" t="inlineStr">
         <is>
-          <t>DKW3110</t>
+          <t>DKW3109</t>
         </is>
       </c>
       <c r="C609" s="3" t="inlineStr">
         <is>
-          <t>Please provide the combined nomenclature code in field 18 09 057 000</t>
+          <t>Warning: Previous Document Type Data Element 12 01 002 000 must be one of N820, N821, N822, N355, N337, or NMRN (at goodsItemHouseConsignment level)</t>
         </is>
       </c>
       <c r="D609" s="3" t="inlineStr">
         <is>
-          <t>Venligst angiv den kombinerede nomenklaturkode i felt 18 09 057 000</t>
+          <t>OBS: Forrige dokumenttype dataelement 12 01 002 000 skal være en af N820, N821, N822, N355, N337 eller NMRN (på vareposthusforsendelsesniveau)</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="inlineStr">
         <is>
-          <t>DK3111</t>
+          <t>DK3110</t>
         </is>
       </c>
       <c r="B610" s="2" t="inlineStr">
         <is>
-          <t>DKW3111</t>
+          <t>DKW3110</t>
         </is>
       </c>
       <c r="C610" s="2" t="inlineStr">
@@ -12606,4394 +12606,4398 @@
     <row r="611">
       <c r="A611" s="3" t="inlineStr">
         <is>
-          <t>DK3112</t>
+          <t>DK3111</t>
         </is>
       </c>
       <c r="B611" s="3" t="inlineStr">
         <is>
-          <t>DKW3112</t>
+          <t>DKW3111</t>
         </is>
       </c>
       <c r="C611" s="3" t="inlineStr">
         <is>
-          <t>If the "Representative" (13 06 017 000) is filled out, then the representative must be in the codelist for postal service EORI</t>
+          <t>Please provide the combined nomenclature code in field 18 09 057 000</t>
         </is>
       </c>
       <c r="D611" s="3" t="inlineStr">
         <is>
-          <t>Hvis "Repræsentant" (13 06 017 000) er udfyldt, så skal repræsentanten være i kodelisten for post service EORI.</t>
+          <t>Venligst angiv den kombinerede nomenklaturkode i felt 18 09 057 000</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="inlineStr">
         <is>
-          <t>DK3113</t>
+          <t>DK3112</t>
         </is>
       </c>
       <c r="B612" s="2" t="inlineStr">
         <is>
-          <t>DKW3113</t>
+          <t>DKW3112</t>
         </is>
       </c>
       <c r="C612" s="2" t="inlineStr">
         <is>
-          <t>If the "Representative" (13 06 017 000) is not filled out, then "Declarant identification number" (13 05 017 000) must be in the codelist for postal service EORI.</t>
+          <t>If the "Representative" (13 06 017 000) is filled out, then the representative must be in the codelist for postal service EORI</t>
         </is>
       </c>
       <c r="D612" s="2" t="inlineStr">
         <is>
-          <t>Hvis "Repræsentant" (13 06 017 000) ikke er udfyldt, så skal "Erklærerens identifikationsnummer" (13 05 017 000) være i kodelisten for post servicens EORI.</t>
+          <t>Hvis "Repræsentant" (13 06 017 000) er udfyldt, så skal repræsentanten være i kodelisten for post service EORI.</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="3" t="inlineStr">
         <is>
-          <t>DK3114</t>
+          <t>DK3113</t>
         </is>
       </c>
       <c r="B613" s="3" t="inlineStr">
         <is>
-          <t>DKW3114</t>
+          <t>DKW3113</t>
         </is>
       </c>
       <c r="C613" s="3" t="inlineStr">
         <is>
-          <t>If the value in the field (Dataelement 12 02 008 000) Additional Information - Code is "NOSUP" then the field (Dataelement 12 02 009 000) Text must be filled in</t>
+          <t>If the "Representative" (13 06 017 000) is not filled out, then "Declarant identification number" (13 05 017 000) must be in the codelist for postal service EORI.</t>
         </is>
       </c>
       <c r="D613" s="3" t="inlineStr">
         <is>
-          <t>Hvis værdien i (Dataelement 12 02 008 000) Supplerende Oplysninger - Kode er "NOSUP", så skal feltet (Dataelement 12 02 009 000) Tekst være udfyldt</t>
+          <t>Hvis "Repræsentant" (13 06 017 000) ikke er udfyldt, så skal "Erklærerens identifikationsnummer" (13 05 017 000) være i kodelisten for post servicens EORI.</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="inlineStr">
         <is>
-          <t>DK3115</t>
+          <t>DK3114</t>
         </is>
       </c>
       <c r="B614" s="2" t="inlineStr">
         <is>
-          <t>DKW3115</t>
+          <t>DKW3114</t>
         </is>
       </c>
       <c r="C614" s="2" t="inlineStr">
         <is>
-          <t>If the value in the field (Dataelement 12 02 008 000) Additional Information - Code is "NOSUP" then the sum of the values of the field (Dataelement 14 08 000 000) Item Amount Invoiced for all goods items must not be above 1000 EUR</t>
+          <t>If the value in the field (Dataelement 12 02 008 000) Additional Information - Code is "NOSUP" then the field (Dataelement 12 02 009 000) Text must be filled in</t>
         </is>
       </c>
       <c r="D614" s="2" t="inlineStr">
         <is>
-          <t>Hvis værdien i (Dataelement 12 02 008 000) Supplerende Oplysninger - Kode er "NOSUP", så må samlede sum af værdierne i feltet (Dataelement 14 08 000 000) Faktureret Beløb for Vareposten for alle vareposter ikke overstige 1000 EURO</t>
+          <t>Hvis værdien i (Dataelement 12 02 008 000) Supplerende Oplysninger - Kode er "NOSUP", så skal feltet (Dataelement 12 02 009 000) Tekst være udfyldt</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="3" t="inlineStr">
         <is>
-          <t>DK3116</t>
+          <t>DK3115</t>
         </is>
       </c>
       <c r="B615" s="3" t="inlineStr">
         <is>
-          <t>DKW3116</t>
+          <t>DKW3115</t>
         </is>
       </c>
       <c r="C615" s="3" t="inlineStr">
         <is>
-          <t>If the value in the field (Dataelement 12 02 008 000) Additional Information - Code is "NOSUP" then the field (Dataelement 18 01 000 000) Net Mass summed for all goods items must be below 1000 kg</t>
+          <t>If the value in the field (Dataelement 12 02 008 000) Additional Information - Code is "NOSUP" then the sum of the values of the field (Dataelement 14 08 000 000) Item Amount Invoiced for all goods items must not be above 1000 EUR</t>
         </is>
       </c>
       <c r="D615" s="3" t="inlineStr">
         <is>
-          <t>Hvis værdien i feltet (Dataelement 12 02 008 000) Supplerende Oplysninger - Kode er "NOSUP", så skal feltet (Dataelement 18 01 000 000) Nettomasse summeret for alle vareposteret være under 1000 kg</t>
+          <t>Hvis værdien i (Dataelement 12 02 008 000) Supplerende Oplysninger - Kode er "NOSUP", så må samlede sum af værdierne i feltet (Dataelement 14 08 000 000) Faktureret Beløb for Vareposten for alle vareposter ikke overstige 1000 EURO</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="inlineStr">
         <is>
-          <t>DK3117</t>
-        </is>
-      </c>
-      <c r="B616" s="2" t="n"/>
+          <t>DK3116</t>
+        </is>
+      </c>
+      <c r="B616" s="2" t="inlineStr">
+        <is>
+          <t>DKW3116</t>
+        </is>
+      </c>
       <c r="C616" s="2" t="inlineStr">
         <is>
-          <t>Customs Office of Export (Data element 17 02 001 000) must be a Danish Customs Office</t>
+          <t>If the value in the field (Dataelement 12 02 008 000) Additional Information - Code is "NOSUP" then the field (Dataelement 18 01 000 000) Net Mass summed for all goods items must be below 1000 kg</t>
         </is>
       </c>
       <c r="D616" s="2" t="inlineStr">
         <is>
-          <t>Eksporttoldsted (Data element 17 02 001 000) skal være et dansk toldsted</t>
+          <t>Hvis værdien i feltet (Dataelement 12 02 008 000) Supplerende Oplysninger - Kode er "NOSUP", så skal feltet (Dataelement 18 01 000 000) Nettomasse summeret for alle vareposteret være under 1000 kg</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="3" t="inlineStr">
         <is>
-          <t>DK3118</t>
+          <t>DK3117</t>
         </is>
       </c>
       <c r="B617" s="3" t="n"/>
       <c r="C617" s="3" t="inlineStr">
         <is>
-          <t>Error: Field (18 09 056 000) Harmonized System sub-heading code is mandatory</t>
+          <t>Customs Office of Export (Data element 17 02 001 000) must be a Danish Customs Office</t>
         </is>
       </c>
       <c r="D617" s="3" t="inlineStr">
         <is>
-          <t>HS-kode (18 09 056 000) skal være udfyldt</t>
+          <t>Eksporttoldsted (Data element 17 02 001 000) skal være et dansk toldsted</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="inlineStr">
         <is>
-          <t>DK3119</t>
+          <t>DK3118</t>
         </is>
       </c>
       <c r="B618" s="2" t="n"/>
       <c r="C618" s="2" t="inlineStr">
         <is>
-          <t>Error: Field (13 05 016 000) Declarant Name is mandatory</t>
+          <t>Error: Field (18 09 056 000) Harmonized System sub-heading code is mandatory</t>
         </is>
       </c>
       <c r="D618" s="2" t="inlineStr">
         <is>
-          <t>Navn (13 05 016 000) skal være udfyldt</t>
+          <t>HS-kode (18 09 056 000) skal være udfyldt</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="3" t="inlineStr">
         <is>
-          <t>DK3120</t>
+          <t>DK3119</t>
         </is>
       </c>
       <c r="B619" s="3" t="n"/>
       <c r="C619" s="3" t="inlineStr">
         <is>
-          <t>Error: Field (12 09 001 000) LRN is mandatory</t>
+          <t>Error: Field (13 05 016 000) Declarant Name is mandatory</t>
         </is>
       </c>
       <c r="D619" s="3" t="inlineStr">
         <is>
-          <t>LRN (12 09 001 000) skal være udfyldt</t>
+          <t>Navn (13 05 016 000) skal være udfyldt</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="inlineStr">
         <is>
-          <t>DK3121</t>
+          <t>DK3120</t>
         </is>
       </c>
       <c r="B620" s="2" t="n"/>
       <c r="C620" s="2" t="inlineStr">
         <is>
-          <t>Error: Field (11 09 001 000) Requested Procedure Type is mandatory</t>
+          <t>Error: Field (12 09 001 000) LRN is mandatory</t>
         </is>
       </c>
       <c r="D620" s="2" t="inlineStr">
         <is>
-          <t>Error: Feltet (11 09 001 000) Anmodet Procedure er påkrævet</t>
+          <t>LRN (12 09 001 000) skal være udfyldt</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="3" t="inlineStr">
         <is>
-          <t>DK3122</t>
+          <t>DK3121</t>
         </is>
       </c>
       <c r="B621" s="3" t="n"/>
       <c r="C621" s="3" t="inlineStr">
         <is>
-          <t>Error: Field (11 09 002 000 )Previous Procedure Type is mandatory</t>
+          <t>Error: Field (11 09 001 000) Requested Procedure Type is mandatory</t>
         </is>
       </c>
       <c r="D621" s="3" t="inlineStr">
         <is>
-          <t>Forudgående procedure (11 09 002 000) skal være udfyldt</t>
+          <t>Error: Feltet (11 09 001 000) Anmodet Procedure er påkrævet</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="inlineStr">
         <is>
-          <t>DK3123</t>
+          <t>DK3122</t>
         </is>
       </c>
       <c r="B622" s="2" t="n"/>
       <c r="C622" s="2" t="inlineStr">
         <is>
-          <t>Error: Field (11 01 001 000 ) Declaration Type is mandatory</t>
+          <t>Error: Field (11 09 002 000 )Previous Procedure Type is mandatory</t>
         </is>
       </c>
       <c r="D622" s="2" t="inlineStr">
         <is>
-          <t>Error: Feltet (11 01 001 000) Angivelses Type er påkrævet</t>
+          <t>Forudgående procedure (11 09 002 000) skal være udfyldt</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="3" t="inlineStr">
         <is>
-          <t>DK3124</t>
+          <t>DK3123</t>
         </is>
       </c>
       <c r="B623" s="3" t="n"/>
       <c r="C623" s="3" t="inlineStr">
         <is>
-          <t>If (13 05 017 000) Declarant Identification Number is DK09999981 and name, address or the Country is not provided</t>
+          <t>Error: Field (11 01 001 000 ) Declaration Type is mandatory</t>
         </is>
       </c>
       <c r="D623" s="3" t="inlineStr">
         <is>
-          <t>Hvis (13 05 017 000) EORI nr. - Klarerer er DK09999981 og navn, adresse eller land ikke er angivet</t>
+          <t>Error: Feltet (11 01 001 000) Angivelses Type er påkrævet</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="inlineStr">
         <is>
-          <t>DK3125</t>
+          <t>DK3124</t>
         </is>
       </c>
       <c r="B624" s="2" t="n"/>
       <c r="C624" s="2" t="inlineStr">
         <is>
-          <t>If the Declarant EORI (D.E. 13 05 017 000) is not DK09999981, then the combined weight (D.E. 18 01 001 000) across all goods items must not exceed 1000KG</t>
+          <t>If (13 05 017 000) Declarant Identification Number is DK09999981 and name, address or the Country is not provided</t>
         </is>
       </c>
       <c r="D624" s="2" t="inlineStr">
         <is>
-          <t>Hvis (13 05 017 000) EORI nr. - Klarerer ikke er DK09999981, må den samlede vægt (D.E. 18 01 001 000) af alle varer ikke overstige 1000KG</t>
+          <t>Hvis (13 05 017 000) EORI nr. - Klarerer er DK09999981 og navn, adresse eller land ikke er angivet</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="3" t="inlineStr">
         <is>
-          <t>DK3126</t>
+          <t>DK3125</t>
         </is>
       </c>
       <c r="B625" s="3" t="n"/>
       <c r="C625" s="3" t="inlineStr">
         <is>
-          <t>If the Declarant EORI (D.E. 13 05 017 000) is not DK09999981, then the combined value (D.E. 14 08 001 000 or D.E. 99 06 000 000 if not filled out) across all goods items must not exceed 1000 EUR (or DKK equivalent).</t>
+          <t>If the Declarant EORI (D.E. 13 05 017 000) is not DK09999981, then the combined weight (D.E. 18 01 001 000) across all goods items must not exceed 1000KG</t>
         </is>
       </c>
       <c r="D625" s="3" t="inlineStr">
         <is>
-          <t>Hvis (13 05 017 000) EORI nr. - Klarerer ikke er DK09999981, må den samlede værdi (D.E. 14 08 001 000 or D.E. 99 06 000 000 hvis ikke udfyldt) af alle varer ikke overstige 1000 EUR (Eller tilsvarende i DKK)</t>
+          <t>Hvis (13 05 017 000) EORI nr. - Klarerer ikke er DK09999981, må den samlede vægt (D.E. 18 01 001 000) af alle varer ikke overstige 1000KG</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="inlineStr">
         <is>
-          <t>DK3127</t>
+          <t>DK3126</t>
         </is>
       </c>
       <c r="B626" s="2" t="n"/>
       <c r="C626" s="2" t="inlineStr">
         <is>
-          <t>If (11 10 000 000) additional procedure on an oral declaration report for temporary admission is D01, D02, D03, D04, D05, D06, D07, D08, D09, D12, D14, D15, D28, D29 or D30 then DE 99 02 000 000 is optional</t>
+          <t>If the Declarant EORI (D.E. 13 05 017 000) is not DK09999981, then the combined value (D.E. 14 08 001 000 or D.E. 99 06 000 000 if not filled out) across all goods items must not exceed 1000 EUR (or DKK equivalent).</t>
         </is>
       </c>
       <c r="D626" s="2" t="inlineStr">
         <is>
-          <t>Hvis (11 10 000 000) Supplerende Procedurer på en mundtlig angivelsesregistrering for midlertidig indførsel er D01, D02, D03, D04, D05, D06, D07, D08, D09, D12, D14, D15, D28, D29 eller D30 så er (99 02 000 000) valgfri</t>
+          <t>Hvis (13 05 017 000) EORI nr. - Klarerer ikke er DK09999981, må den samlede værdi (D.E. 14 08 001 000 or D.E. 99 06 000 000 hvis ikke udfyldt) af alle varer ikke overstige 1000 EUR (Eller tilsvarende i DKK)</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="3" t="inlineStr">
         <is>
-          <t>DK3128</t>
+          <t>DK3127</t>
         </is>
       </c>
       <c r="B627" s="3" t="n"/>
       <c r="C627" s="3" t="inlineStr">
         <is>
-          <t>If (11 10 000 000) additional procedure on an H3 oral declaration is not D01, D02, D03, D04, D05, D06, D07, D08, D09, D12, D14, D15, D28, D29 or D30 then it is rejected</t>
+          <t>If (11 10 000 000) additional procedure on an oral declaration report for temporary admission is D01, D02, D03, D04, D05, D06, D07, D08, D09, D12, D14, D15, D28, D29 or D30 then DE 99 02 000 000 is optional</t>
         </is>
       </c>
       <c r="D627" s="3" t="inlineStr">
         <is>
-          <t>Hvis (11 10 000 000) Supplerende Procedurer på en O3 angivelse ikke er D01, D02, D03, D04, D05, D06, D07, D08, D09, D12, D14, D15, D28, D29 eller D30 bliver angivelsen afvist</t>
+          <t>Hvis (11 10 000 000) Supplerende Procedurer på en mundtlig angivelsesregistrering for midlertidig indførsel er D01, D02, D03, D04, D05, D06, D07, D08, D09, D12, D14, D15, D28, D29 eller D30 så er (99 02 000 000) valgfri</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="inlineStr">
         <is>
-          <t>DK3129</t>
+          <t>DK3128</t>
         </is>
       </c>
       <c r="B628" s="2" t="n"/>
       <c r="C628" s="2" t="inlineStr">
         <is>
-          <t>Either D.E. 14 08 001 Item amount invoiced or D.E. 99 06 Statistical value must be filled out</t>
+          <t>If (11 10 000 000) additional procedure on an H3 oral declaration is not D01, D02, D03, D04, D05, D06, D07, D08, D09, D12, D14, D15, D28, D29 or D30 then it is rejected</t>
         </is>
       </c>
       <c r="D628" s="2" t="inlineStr">
         <is>
-          <t>Enten (14 08 001) Varens Pris eller (99 06) Statistisk Værdi skal være udfyldt</t>
+          <t>Hvis (11 10 000 000) Supplerende Procedurer på en O3 angivelse ikke er D01, D02, D03, D04, D05, D06, D07, D08, D09, D12, D14, D15, D28, D29 eller D30 bliver angivelsen afvist</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="3" t="inlineStr">
         <is>
-          <t>DK3130</t>
-        </is>
-      </c>
-      <c r="B629" s="3" t="inlineStr">
-        <is>
-          <t>DKW3130</t>
-        </is>
-      </c>
+          <t>DK3129</t>
+        </is>
+      </c>
+      <c r="B629" s="3" t="n"/>
       <c r="C629" s="3" t="inlineStr">
         <is>
-          <t>D.E. 12 01 005 000 Measurement Unit and qualifier and D.E. 12 01 006 000 Quantity must be provided</t>
+          <t>Either D.E. 14 08 001 Item amount invoiced or D.E. 99 06 Statistical value must be filled out</t>
         </is>
       </c>
       <c r="D629" s="3" t="inlineStr">
         <is>
-          <t>D.E. 12 01 005 000 Måleenheder og kvalifikation og D.E. 12 01 006 000 Mængde skal angives</t>
+          <t>Enten (14 08 001) Varens Pris eller (99 06) Statistisk Værdi skal være udfyldt</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="inlineStr">
         <is>
-          <t>DK3131</t>
+          <t>DK3130</t>
         </is>
       </c>
       <c r="B630" s="2" t="inlineStr">
         <is>
-          <t>DKW3131</t>
+          <t>DKW3130</t>
         </is>
       </c>
       <c r="C630" s="2" t="inlineStr">
         <is>
-          <t>Data element Economic Operator identification number (16 15 051 017) must be provided</t>
+          <t>D.E. 12 01 005 000 Measurement Unit and qualifier and D.E. 12 01 006 000 Quantity must be provided</t>
         </is>
       </c>
       <c r="D630" s="2" t="inlineStr">
         <is>
-          <t>Dataelement Økonomisk operatørs identifikationsnummer (16 15 051 017) skal angives</t>
+          <t>D.E. 12 01 005 000 Måleenheder og kvalifikation og D.E. 12 01 006 000 Mængde skal angives</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="3" t="inlineStr">
         <is>
-          <t>DK3132</t>
+          <t>DK3131</t>
         </is>
       </c>
       <c r="B631" s="3" t="inlineStr">
         <is>
-          <t>DKW3132</t>
+          <t>DKW3131</t>
         </is>
       </c>
       <c r="C631" s="3" t="inlineStr">
         <is>
-          <t>Data element Authorisation number (16 15 052 000) must be filled out</t>
+          <t>Data element Economic Operator identification number (16 15 051 017) must be provided</t>
         </is>
       </c>
       <c r="D631" s="3" t="inlineStr">
         <is>
-          <t>Dataelement Autorisationsnummer (16 15 052 000) skal udfyldes</t>
+          <t>Dataelement Økonomisk operatørs identifikationsnummer (16 15 051 017) skal angives</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="inlineStr">
         <is>
-          <t>DK3133</t>
+          <t>DK3132</t>
         </is>
       </c>
       <c r="B632" s="2" t="inlineStr">
         <is>
-          <t>DKW3133</t>
+          <t>DKW3132</t>
         </is>
       </c>
       <c r="C632" s="2" t="inlineStr">
         <is>
-          <t>Data element Estimated date and time of transfer must be provided</t>
+          <t>Data element Authorisation number (16 15 052 000) must be filled out</t>
         </is>
       </c>
       <c r="D632" s="2" t="inlineStr">
         <is>
-          <t>Forventet  dato og tidspunkt for overførsel skal udfyldes</t>
+          <t>Dataelement Autorisationsnummer (16 15 052 000) skal udfyldes</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="3" t="inlineStr">
         <is>
-          <t>DK3134</t>
+          <t>DK3133</t>
         </is>
       </c>
       <c r="B633" s="3" t="inlineStr">
         <is>
-          <t>DKW3134</t>
+          <t>DKW3133</t>
         </is>
       </c>
       <c r="C633" s="3" t="inlineStr">
         <is>
-          <t>Data element Estimated date and time of transfer must not be from the past</t>
+          <t>Data element Estimated date and time of transfer must be provided</t>
         </is>
       </c>
       <c r="D633" s="3" t="inlineStr">
         <is>
-          <t>Forventet dato og tidspunkt for overførsel må ikke være historisk</t>
+          <t>Forventet  dato og tidspunkt for overførsel skal udfyldes</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="inlineStr">
         <is>
-          <t>DK3135</t>
+          <t>DK3134</t>
         </is>
       </c>
       <c r="B634" s="2" t="inlineStr">
         <is>
-          <t>DKW3135</t>
+          <t>DKW3134</t>
         </is>
       </c>
       <c r="C634" s="2" t="inlineStr">
         <is>
-          <t>Data element Date and time of transfer is mandatory and must be today or earlier</t>
+          <t>Data element Estimated date and time of transfer must not be from the past</t>
         </is>
       </c>
       <c r="D634" s="2" t="inlineStr">
         <is>
-          <t>Dato og tidspunkt for overførsel er obligatorisk og skal være i dag eller tidligere</t>
+          <t>Forventet dato og tidspunkt for overførsel må ikke være historisk</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="3" t="inlineStr">
         <is>
-          <t>DK3136</t>
+          <t>DK3135</t>
         </is>
       </c>
       <c r="B635" s="3" t="inlineStr">
         <is>
-          <t>DKW3136</t>
+          <t>DKW3135</t>
         </is>
       </c>
       <c r="C635" s="3" t="inlineStr">
         <is>
-          <t>Previous documents, master consignment, extenstions elements must be provided (on declaration level)</t>
+          <t>Data element Date and time of transfer is mandatory and must be today or earlier</t>
         </is>
       </c>
       <c r="D635" s="3" t="inlineStr">
         <is>
-          <t>Tidligere dokumenter, hovedforsendelse, udvidelseselementer skal forelægges (på deklarationsniveau)</t>
+          <t>Dato og tidspunkt for overførsel er obligatorisk og skal være i dag eller tidligere</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="inlineStr">
         <is>
-          <t>DK3137</t>
+          <t>DK3136</t>
         </is>
       </c>
       <c r="B636" s="2" t="inlineStr">
         <is>
-          <t>DKW3137</t>
+          <t>DKW3136</t>
         </is>
       </c>
       <c r="C636" s="2" t="inlineStr">
         <is>
-          <t>Parties, location, additional information and additional documents must be provided (on master consignment level)</t>
+          <t>Previous documents, master consignment, extenstions elements must be provided (on declaration level)</t>
         </is>
       </c>
       <c r="D636" s="2" t="inlineStr">
         <is>
-          <t>Parter, placering, yderligere oplysninger og yderligere dokumenter skal fremlægges (på hovedforsendelsesniveau)</t>
+          <t>Tidligere dokumenter, hovedforsendelse, udvidelseselementer skal forelægges (på deklarationsniveau)</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="3" t="inlineStr">
         <is>
-          <t>DK3138</t>
-        </is>
-      </c>
-      <c r="B637" s="3" t="n"/>
+          <t>DK3137</t>
+        </is>
+      </c>
+      <c r="B637" s="3" t="inlineStr">
+        <is>
+          <t>DKW3137</t>
+        </is>
+      </c>
       <c r="C637" s="3" t="inlineStr">
         <is>
-          <t>Movement status is mandatory</t>
+          <t>Parties, location, additional information and additional documents must be provided (on master consignment level)</t>
         </is>
       </c>
       <c r="D637" s="3" t="inlineStr">
         <is>
-          <t>Status af bevægelsen er obligatorisk</t>
+          <t>Parter, placering, yderligere oplysninger og yderligere dokumenter skal fremlægges (på hovedforsendelsesniveau)</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="inlineStr">
         <is>
-          <t>DK3139</t>
+          <t>DK3138</t>
         </is>
       </c>
       <c r="B638" s="2" t="n"/>
       <c r="C638" s="2" t="inlineStr">
         <is>
-          <t>Consignee (Data element 13 03 017 000) was marked as having AEO authorisation, but DK-CRS did not indicate that this is true</t>
+          <t>Movement status is mandatory</t>
         </is>
       </c>
       <c r="D638" s="2" t="inlineStr">
         <is>
-          <t>Modtager (Dataelement 13 03 017 000) var markeret som værende i besiddelse af AEO-autorisation, men DK-CRS angav ikke, at dette er tilfældet</t>
+          <t>Status af bevægelsen er obligatorisk</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="3" t="inlineStr">
         <is>
-          <t>DK3140</t>
+          <t>DK3139</t>
         </is>
       </c>
       <c r="B639" s="3" t="n"/>
       <c r="C639" s="3" t="inlineStr">
         <is>
-          <t>Economic operator (Data element 16 15 051 017) was marked as having AEO authorisation, but DK-CRS did not indicate that this is true</t>
+          <t>Consignee (Data element 13 03 017 000) was marked as having AEO authorisation, but DK-CRS did not indicate that this is true</t>
         </is>
       </c>
       <c r="D639" s="3" t="inlineStr">
         <is>
-          <t>Økonomisk operatør (Dataelement 16 15 051 017) var markeret som værende i besiddelse af AEO-autorisation, men DK-CRS angav ikke, at dette er tilfældet</t>
+          <t>Modtager (Dataelement 13 03 017 000) var markeret som værende i besiddelse af AEO-autorisation, men DK-CRS angav ikke, at dette er tilfældet</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="inlineStr">
         <is>
-          <t>DK3141</t>
-        </is>
-      </c>
-      <c r="B640" s="2" t="inlineStr">
-        <is>
-          <t>DKW3141</t>
-        </is>
-      </c>
+          <t>DK3140</t>
+        </is>
+      </c>
+      <c r="B640" s="2" t="n"/>
       <c r="C640" s="2" t="inlineStr">
         <is>
-          <t>Stedet, hvor varerne befinder sig - Stedets art (D.E. 16 15 045 000) er D, skal Stedets - Identifikationskvalifikator (D.E. 16 15 046 000) være "W", "X" eller "Z"</t>
+          <t>Economic operator (Data element 16 15 051 017) was marked as having AEO authorisation, but DK-CRS did not indicate that this is true</t>
         </is>
       </c>
       <c r="D640" s="2" t="inlineStr">
         <is>
-          <t>Stedet, hvor varerne befinder sig - Stedets art (D.E. 16 15 045 000) er D, skal Stedets - Identifikationskvalifikator (D.E. 16 15 046 000) være "W", "X" eller "Z"</t>
+          <t>Økonomisk operatør (Dataelement 16 15 051 017) var markeret som værende i besiddelse af AEO-autorisation, men DK-CRS angav ikke, at dette er tilfældet</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="3" t="inlineStr">
         <is>
-          <t>DK3142</t>
-        </is>
-      </c>
-      <c r="B641" s="3" t="n"/>
+          <t>DK3141</t>
+        </is>
+      </c>
+      <c r="B641" s="3" t="inlineStr">
+        <is>
+          <t>DKW3141</t>
+        </is>
+      </c>
       <c r="C641" s="3" t="inlineStr">
         <is>
-          <t>Error: For Oral declarations (O1, O3), the Additional declaration type (DE 11 02 001 000) must be A</t>
+          <t>Stedet, hvor varerne befinder sig - Stedets art (D.E. 16 15 045 000) er D, skal Stedets - Identifikationskvalifikator (D.E. 16 15 046 000) være "W", "X" eller "Z"</t>
         </is>
       </c>
       <c r="D641" s="3" t="inlineStr">
         <is>
-          <t>Fejl: For mundtlige angivelser (O1, O3) skal supplerende angivelsestype (DE 11 02 001 000) være lig A</t>
+          <t>Stedet, hvor varerne befinder sig - Stedets art (D.E. 16 15 045 000) er D, skal Stedets - Identifikationskvalifikator (D.E. 16 15 046 000) være "W", "X" eller "Z"</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="inlineStr">
         <is>
-          <t>DK3143</t>
+          <t>DK3142</t>
         </is>
       </c>
       <c r="B642" s="2" t="n"/>
       <c r="C642" s="2" t="inlineStr">
         <is>
-          <t>Error: (Dataelement 11 09 001 000) Procedure - Requested procedure on goods item level must be 53</t>
+          <t>Error: For Oral declarations (O1, O3), the Additional declaration type (DE 11 02 001 000) must be A</t>
         </is>
       </c>
       <c r="D642" s="2" t="inlineStr">
         <is>
-          <t>Fejl: (Dataelement 11 09 001 000) Procedure - Nuværende procedure på varepostniveau skal vare 53</t>
+          <t>Fejl: For mundtlige angivelser (O1, O3) skal supplerende angivelsestype (DE 11 02 001 000) være lig A</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="3" t="inlineStr">
         <is>
-          <t>DK3144</t>
+          <t>DK3143</t>
         </is>
       </c>
       <c r="B643" s="3" t="n"/>
       <c r="C643" s="3" t="inlineStr">
         <is>
-          <t>Error: (Dataelement 11 09 001 000) Procedure - Previous procedure on goods item level must be one of: 00, 51, 53, 71</t>
+          <t>Error: (Dataelement 11 09 001 000) Procedure - Requested procedure on goods item level must be 53</t>
         </is>
       </c>
       <c r="D643" s="3" t="inlineStr">
         <is>
-          <t>Fejl: (Dataelement 11 09 002 000) Procedure - Tidligere procedure på varepostniveau skal vare en af: 00, 51, 53, 71</t>
+          <t>Fejl: (Dataelement 11 09 001 000) Procedure - Nuværende procedure på varepostniveau skal vare 53</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="inlineStr">
         <is>
-          <t>DK3145</t>
+          <t>DK3144</t>
         </is>
       </c>
       <c r="B644" s="2" t="n"/>
       <c r="C644" s="2" t="inlineStr">
         <is>
-          <t>The verbal declaration checkbox must be checked for Oral declarations</t>
+          <t>Error: (Dataelement 11 09 001 000) Procedure - Previous procedure on goods item level must be one of: 00, 51, 53, 71</t>
         </is>
       </c>
       <c r="D644" s="2" t="inlineStr">
         <is>
-          <t>For mundtlige angivelser skal afkrydsningsfeltet være markeret</t>
+          <t>Fejl: (Dataelement 11 09 002 000) Procedure - Tidligere procedure på varepostniveau skal vare en af: 00, 51, 53, 71</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="3" t="inlineStr">
         <is>
-          <t>DK3146</t>
+          <t>DK3145</t>
         </is>
       </c>
       <c r="B645" s="3" t="n"/>
       <c r="C645" s="3" t="inlineStr">
         <is>
-          <t>Error: (Dataelement 12 11 015 000) Warehouse - Identifier is mandatory and must be of DKTST-format</t>
+          <t>The verbal declaration checkbox must be checked for Oral declarations</t>
         </is>
       </c>
       <c r="D645" s="3" t="inlineStr">
         <is>
-          <t>Fejl: (Dataelement 12 11 015 000) Oplag - Identifikator er obligatorisk og skal opfylde DKTST-formatet</t>
+          <t>For mundtlige angivelser skal afkrydsningsfeltet være markeret</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="inlineStr">
         <is>
-          <t>DK3150</t>
-        </is>
-      </c>
-      <c r="B646" s="2" t="inlineStr">
-        <is>
-          <t>DKW3150</t>
-        </is>
-      </c>
+          <t>DK3146</t>
+        </is>
+      </c>
+      <c r="B646" s="2" t="n"/>
       <c r="C646" s="2" t="inlineStr">
         <is>
-          <t>Warning: Previous Document Type Data Element 12 01 002 000 must be one of N820, N821, N822, N355, N337, or NMRN (at masterConsignment level)</t>
+          <t>Error: (Dataelement 12 11 015 000) Warehouse - Identifier is mandatory and must be of DKTST-format</t>
         </is>
       </c>
       <c r="D646" s="2" t="inlineStr">
         <is>
-          <t>OBS: Forrige dokumenttype dataelement 12 01 002 000 skal være en af N820, N821, N822, N355, N337 eller NMRN (på masterniveau for forsendelse)</t>
+          <t>Fejl: (Dataelement 12 11 015 000) Oplag - Identifikator er obligatorisk og skal opfylde DKTST-formatet</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="3" t="inlineStr">
         <is>
-          <t>DK3248</t>
+          <t>DK3147</t>
         </is>
       </c>
       <c r="B647" s="3" t="n"/>
       <c r="C647" s="3" t="inlineStr">
         <is>
-          <t>Error: (Dataelement 13 06 000 000) Representative - (Dataelement 13 06 016 000) Name, (Dataelement 13 06 017 000) Identification Type and (Dataelement 13 06 030 000) Status is mandatory</t>
+          <t>Error: Data element 16 13 036 000 UN/LOCODE for Place of Loading is incorrect or does not exist in the list of UN/LOCODEs</t>
         </is>
       </c>
       <c r="D647" s="3" t="inlineStr">
         <is>
-          <t>EORI-nr.  - Repræsentant (13 06 017 000), Navn (13 06 016 000) og Status (13 06 030 000) skal udfyldes</t>
+          <t>Fejl: Dataelement 16 13 036 000 UN/LOCODE for Lastningssted er angivet forkert eller findes ikke i listen over tilladte UN/LOCODEs</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="inlineStr">
         <is>
-          <t>DK3301</t>
-        </is>
-      </c>
-      <c r="B648" s="2" t="inlineStr">
-        <is>
-          <t>DKW3301</t>
-        </is>
-      </c>
+          <t>DK3148</t>
+        </is>
+      </c>
+      <c r="B648" s="2" t="n"/>
       <c r="C648" s="2" t="inlineStr">
         <is>
-          <t>Warning: (Data element 99 02 000 000) Guarantee type and (Data element 99 03 000 000) Guarantee reference, is not allowed for procedure category H2, H5, H7, I1 and I2.</t>
+          <t>Error: Data element 16 14 036 000 UN/LOCODE for Place of Unloading is incorrect or does not exist in the list of UN/LOCODEs</t>
         </is>
       </c>
       <c r="D648" s="2" t="inlineStr">
         <is>
-          <t>OBS: (Dataelement 99 02 000 000) Sikkerhedsstillelsesart og (Dataelement 99 03 000 000) Sikkerhedsstillelsesreference, er ikke tilladt for H2, H5, H7, I1 og I2.</t>
+          <t>Fejl: Dataelement 16 14 036 000 UN/LOCODE for Losningssted er angivet forkert eller findes ikke i listen over tilladte UN/LOCODEs</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="3" t="inlineStr">
         <is>
-          <t>DK3302</t>
-        </is>
-      </c>
-      <c r="B649" s="3" t="inlineStr">
-        <is>
-          <t>DKW3302</t>
-        </is>
-      </c>
+          <t>DK3149</t>
+        </is>
+      </c>
+      <c r="B649" s="3" t="n"/>
       <c r="C649" s="3" t="inlineStr">
         <is>
-          <t>Error: (Data element 14 06 001 000 and 14 05 001 000) - Total amount invoiced and Invoice currency  must not be present on B3 declarations.</t>
+          <t>Error: Data element 99 06 000 000 Statistical Value is mandatory on Goods Item level on this declaration</t>
         </is>
       </c>
       <c r="D649" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Samlet fakturabeløb (D.E. 14 06 001 000) og Fakturavaluta (D.E 14 05 001 000) må ikke være defineret på en B3 angivelse.</t>
+          <t>Fejl: Dataelement 99 06 000 000 Statistisk værdi er obligatorisk på varepost-niveau på denne angivelse</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="inlineStr">
         <is>
-          <t>DK35606</t>
-        </is>
-      </c>
-      <c r="B650" s="2" t="n"/>
+          <t>DK3150</t>
+        </is>
+      </c>
+      <c r="B650" s="2" t="inlineStr">
+        <is>
+          <t>DKW3150</t>
+        </is>
+      </c>
       <c r="C650" s="2" t="inlineStr">
         <is>
-          <t>Declaration type (11 01 000 000) 'CO' is not allowed for the selected Procedure Category</t>
+          <t>Warning: Previous Document Type Data Element 12 01 002 000 must be one of N820, N821, N822, N355, N337, or NMRN (at masterConsignment level)</t>
         </is>
       </c>
       <c r="D650" s="2" t="inlineStr">
         <is>
-          <t>Angivelsestype (11 01 000 000) 'CO' er ikke tilladt for den valgte procedurekategori.</t>
+          <t>OBS: Forrige dokumenttype dataelement 12 01 002 000 skal være en af N820, N821, N822, N355, N337 eller NMRN (på masterniveau for forsendelse)</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="3" t="inlineStr">
         <is>
-          <t>DK4001</t>
+          <t>DK3248</t>
         </is>
       </c>
       <c r="B651" s="3" t="n"/>
       <c r="C651" s="3" t="inlineStr">
         <is>
-          <t>Format error in field "location of goods" (16 15 000 000), the field must not be corrected.</t>
+          <t>Error: (Dataelement 13 06 000 000) Representative - (Dataelement 13 06 016 000) Name, (Dataelement 13 06 017 000) Identification Type and (Dataelement 13 06 030 000) Status is mandatory</t>
         </is>
       </c>
       <c r="D651" s="3" t="inlineStr">
         <is>
-          <t>Dataelement i gruppe 16 15, må ikke ændres</t>
+          <t>EORI-nr.  - Repræsentant (13 06 017 000), Navn (13 06 016 000) og Status (13 06 030 000) skal udfyldes</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="inlineStr">
         <is>
-          <t>DK4002</t>
-        </is>
-      </c>
-      <c r="B652" s="2" t="n"/>
+          <t>DK3301</t>
+        </is>
+      </c>
+      <c r="B652" s="2" t="inlineStr">
+        <is>
+          <t>DKW3301</t>
+        </is>
+      </c>
       <c r="C652" s="2" t="inlineStr">
         <is>
-          <t>The amendment application contains changes to data elements in 16 15 000 000 // 16 15 which can not be changed in relation to a conversion of the declaration.</t>
+          <t>Warning: (Data element 99 02 000 000) Guarantee type and (Data element 99 03 000 000) Guarantee reference, is not allowed for procedure category H2, H5, H7, I1 and I2.</t>
         </is>
       </c>
       <c r="D652" s="2" t="inlineStr">
         <is>
-          <t>Ændrings anmodningen indeholder ændringer i dataelement gruppe 16 15 som ikke må ændres efter antagelse.</t>
+          <t>OBS: (Dataelement 99 02 000 000) Sikkerhedsstillelsesart og (Dataelement 99 03 000 000) Sikkerhedsstillelsesreference, er ikke tilladt for H2, H5, H7, I1 og I2.</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="3" t="inlineStr">
         <is>
-          <t>DK4003</t>
-        </is>
-      </c>
-      <c r="B653" s="3" t="n"/>
+          <t>DK3302</t>
+        </is>
+      </c>
+      <c r="B653" s="3" t="inlineStr">
+        <is>
+          <t>DKW3302</t>
+        </is>
+      </c>
       <c r="C653" s="3" t="inlineStr">
         <is>
-          <t>The conversion of customs office id of data element 16 15 000 000 // 16 15 is not valid. Either the previous fields have not been deleted or the information has not been correctly specified in the customs office id field.</t>
+          <t>Error: (Data element 14 06 001 000 and 14 05 001 000) - Total amount invoiced and Invoice currency  must not be present on B3 declarations.</t>
         </is>
       </c>
       <c r="D653" s="3" t="inlineStr">
         <is>
-          <t>Ændringen af toldstedskode i dataelement 16 15 047 001 er ikke gyldigt. Enten er de tidligere udfyldte dataelementer ikke slettet, eller også er toldsstedskoden forkert.</t>
+          <t>Fejl: Samlet fakturabeløb (D.E. 14 06 001 000) og Fakturavaluta (D.E 14 05 001 000) må ikke være defineret på en B3 angivelse.</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="inlineStr">
         <is>
-          <t>DK4004</t>
+          <t>DK35606</t>
         </is>
       </c>
       <c r="B654" s="2" t="n"/>
       <c r="C654" s="2" t="inlineStr">
         <is>
-          <t>The conversion of UN/LOCODE of data element 16 15 000 000 // 16 15 is not valid. Either the previous fields have not been deleted or the information has not been correctly specified in the location id field.</t>
+          <t>Declaration type (11 01 000 000) 'CO' is not allowed for the selected Procedure Category</t>
         </is>
       </c>
       <c r="D654" s="2" t="inlineStr">
         <is>
-          <t>Ændringen af UN/LOCODE i dataelement 16 15 036 001 er ikke gyldigt. Enten er de tidligere udfyldte dataelementer ikke slettet, eller også er UN/LOCODE forkert.</t>
+          <t>Angivelsestype (11 01 000 000) 'CO' er ikke tilladt for den valgte procedurekategori.</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="3" t="inlineStr">
         <is>
-          <t>DK4005</t>
+          <t>DK4001</t>
         </is>
       </c>
       <c r="B655" s="3" t="n"/>
       <c r="C655" s="3" t="inlineStr">
         <is>
-          <t>The conversion of authorisation number of data element 16 15 000 000 // 16 15 is not valid. Either the previous fields have not been deleted or the information has not been correctly specified in the authorisation reference number field.</t>
+          <t>Format error in field "location of goods" (16 15 000 000), the field must not be corrected.</t>
         </is>
       </c>
       <c r="D655" s="3" t="inlineStr">
         <is>
-          <t>Ændringen af bevilling nummer i dataelement 16 15 052 001 er ikke gyldigt. Enten er de tidligere udfyldte dataelementer ikke slettet, eller også er Bevillingsnummeret forkert.</t>
+          <t>Dataelement i gruppe 16 15, må ikke ændres</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="inlineStr">
         <is>
-          <t>DK4040</t>
+          <t>DK4002</t>
         </is>
       </c>
       <c r="B656" s="2" t="n"/>
       <c r="C656" s="2" t="inlineStr">
         <is>
-          <t>It is not allowed to ammend Exporter, Declarant and Representative.</t>
+          <t>The amendment application contains changes to data elements in 16 15 000 000 // 16 15 which can not be changed in relation to a conversion of the declaration.</t>
         </is>
       </c>
       <c r="D656" s="2" t="inlineStr">
         <is>
-          <t>Det er ikke tilladt at ændre eksportør, klarerer og repræsentant.</t>
+          <t>Ændrings anmodningen indeholder ændringer i dataelement gruppe 16 15 som ikke må ændres efter antagelse.</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="3" t="inlineStr">
         <is>
-          <t>DK4041</t>
+          <t>DK4003</t>
         </is>
       </c>
       <c r="B657" s="3" t="n"/>
       <c r="C657" s="3" t="inlineStr">
         <is>
-          <t>It is not allowed to ammend CustomsOfficeOfLodgement, CustomsOfficeOfExitDeclared, CustomsOfficeOfPresentation, and CustomsOfficeOfExport</t>
+          <t>The conversion of customs office id of data element 16 15 000 000 // 16 15 is not valid. Either the previous fields have not been deleted or the information has not been correctly specified in the customs office id field.</t>
         </is>
       </c>
       <c r="D657" s="3" t="inlineStr">
         <is>
-          <t>Det er ikke tilladt at ændre Indsendelsestoldsted, Udpassagetoldsted, Frembydelsestoldsted og Eksporttoldsted</t>
+          <t>Ændringen af toldstedskode i dataelement 16 15 047 001 er ikke gyldigt. Enten er de tidligere udfyldte dataelementer ikke slettet, eller også er toldsstedskoden forkert.</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="inlineStr">
         <is>
-          <t>DK4042</t>
+          <t>DK4004</t>
         </is>
       </c>
       <c r="B658" s="2" t="n"/>
       <c r="C658" s="2" t="inlineStr">
         <is>
-          <t>It is not possible to ammend MRN or  SubmitterReferenceNumber</t>
+          <t>The conversion of UN/LOCODE of data element 16 15 000 000 // 16 15 is not valid. Either the previous fields have not been deleted or the information has not been correctly specified in the location id field.</t>
         </is>
       </c>
       <c r="D658" s="2" t="inlineStr">
         <is>
-          <t>Det er ikke muligt at ændre MRN eller SubmitterReferenceNumber</t>
+          <t>Ændringen af UN/LOCODE i dataelement 16 15 036 001 er ikke gyldigt. Enten er de tidligere udfyldte dataelementer ikke slettet, eller også er UN/LOCODE forkert.</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="3" t="inlineStr">
         <is>
-          <t>DK4043</t>
+          <t>DK4005</t>
         </is>
       </c>
       <c r="B659" s="3" t="n"/>
       <c r="C659" s="3" t="inlineStr">
         <is>
-          <t>It must not be possible to amend Specific circumstance indicator</t>
+          <t>The conversion of authorisation number of data element 16 15 000 000 // 16 15 is not valid. Either the previous fields have not been deleted or the information has not been correctly specified in the authorisation reference number field.</t>
         </is>
       </c>
       <c r="D659" s="3" t="inlineStr">
         <is>
-          <t>Det må ikke være muligt at ændre Specifik omstændighedsindikator</t>
+          <t>Ændringen af bevilling nummer i dataelement 16 15 052 001 er ikke gyldigt. Enten er de tidligere udfyldte dataelementer ikke slettet, eller også er Bevillingsnummeret forkert.</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="inlineStr">
         <is>
-          <t>DK4044</t>
+          <t>DK4040</t>
         </is>
       </c>
       <c r="B660" s="2" t="n"/>
       <c r="C660" s="2" t="inlineStr">
         <is>
-          <t>Only Transport Document - Reference Number(D.E. 12 05 001 000), Previous Document - Reference Number (D.E. 12 01 001 000)  and Gross Mass (D.E. 18 04 001 000 ) can be amended on a Goods Registration</t>
+          <t>It is not allowed to ammend Exporter, Declarant and Representative.</t>
         </is>
       </c>
       <c r="D660" s="2" t="inlineStr">
         <is>
-          <t>Kun felterne Transportdokument - Referencenummer(D.E. 12 05 001 000), Forudgående dokument - Referencenummer (D.E. 12 01 001 000) og Bruttomasse (D.E. 18 04 001 000 ) kan rettes på en vareregistrering</t>
+          <t>Det er ikke tilladt at ændre eksportør, klarerer og repræsentant.</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="3" t="inlineStr">
         <is>
-          <t>DK4050</t>
+          <t>DK4041</t>
         </is>
       </c>
       <c r="B661" s="3" t="n"/>
       <c r="C661" s="3" t="inlineStr">
         <is>
-          <t>Error in "Qualifier of Identification", can not be filled out with Y</t>
+          <t>It is not allowed to ammend CustomsOfficeOfLodgement, CustomsOfficeOfExitDeclared, CustomsOfficeOfPresentation, and CustomsOfficeOfExport</t>
         </is>
       </c>
       <c r="D661" s="3" t="inlineStr">
         <is>
-          <t>Fejl i "Identifikationskode", må ikke være udfyldt med Y</t>
+          <t>Det er ikke tilladt at ændre Indsendelsestoldsted, Udpassagetoldsted, Frembydelsestoldsted og Eksporttoldsted</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="inlineStr">
         <is>
-          <t>DK5001</t>
-        </is>
-      </c>
-      <c r="B662" s="2" t="inlineStr">
-        <is>
-          <t>DKW5001</t>
-        </is>
-      </c>
+          <t>DK4042</t>
+        </is>
+      </c>
+      <c r="B662" s="2" t="n"/>
       <c r="C662" s="2" t="inlineStr">
         <is>
-          <t>Deferred payment (data element 12 10 000 000) is not allowed for this procedure category</t>
+          <t>It is not possible to ammend MRN or  SubmitterReferenceNumber</t>
         </is>
       </c>
       <c r="D662" s="2" t="inlineStr">
         <is>
-          <t>Betalingshenstand (data element 12 10 000 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Det er ikke muligt at ændre MRN eller SubmitterReferenceNumber</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="3" t="inlineStr">
         <is>
-          <t>DK5002</t>
-        </is>
-      </c>
-      <c r="B663" s="3" t="inlineStr">
-        <is>
-          <t>DKW5002</t>
-        </is>
-      </c>
+          <t>DK4043</t>
+        </is>
+      </c>
+      <c r="B663" s="3" t="n"/>
       <c r="C663" s="3" t="inlineStr">
         <is>
-          <t>Warehouse (data element 12 11 000 000) is not allowed for this procedure category</t>
+          <t>It must not be possible to amend Specific circumstance indicator</t>
         </is>
       </c>
       <c r="D663" s="3" t="inlineStr">
         <is>
-          <t>Oplag (data element 12 11 000 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Det må ikke være muligt at ændre Specifik omstændighedsindikator</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="inlineStr">
         <is>
-          <t>DK5003</t>
-        </is>
-      </c>
-      <c r="B664" s="2" t="inlineStr">
-        <is>
-          <t>DKW5003</t>
-        </is>
-      </c>
+          <t>DK4044</t>
+        </is>
+      </c>
+      <c r="B664" s="2" t="n"/>
       <c r="C664" s="2" t="inlineStr">
         <is>
-          <t>Duties and taxes - Method of payment (data element 14 03 038 000) is not allowed for this procedure category</t>
+          <t>Only Transport Document - Reference Number(D.E. 12 05 001 000), Previous Document - Reference Number (D.E. 12 01 001 000)  and Gross Mass (D.E. 18 04 001 000 ) can be amended on a Goods Registration</t>
         </is>
       </c>
       <c r="D664" s="2" t="inlineStr">
         <is>
-          <t>Betalingsmetode(14 03 038 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Kun felterne Transportdokument - Referencenummer(D.E. 12 05 001 000), Forudgående dokument - Referencenummer (D.E. 12 01 001 000) og Bruttomasse (D.E. 18 04 001 000 ) kan rettes på en vareregistrering</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="3" t="inlineStr">
         <is>
-          <t>DK5004</t>
-        </is>
-      </c>
-      <c r="B665" s="3" t="inlineStr">
-        <is>
-          <t>DKW5004</t>
-        </is>
-      </c>
+          <t>DK4050</t>
+        </is>
+      </c>
+      <c r="B665" s="3" t="n"/>
       <c r="C665" s="3" t="inlineStr">
         <is>
-          <t>Duties and taxes - Tax type (data element 14 03 039 000) is not allowed for this procedure category</t>
+          <t>Error in "Qualifier of Identification", can not be filled out with Y</t>
         </is>
       </c>
       <c r="D665" s="3" t="inlineStr">
         <is>
-          <t>Told og afgiftstype (14 03 039 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Fejl i "Identifikationskode", må ikke være udfyldt med Y</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="inlineStr">
         <is>
-          <t>DK5006</t>
+          <t>DK5001</t>
         </is>
       </c>
       <c r="B666" s="2" t="inlineStr">
         <is>
-          <t>DKW5006</t>
+          <t>DKW5001</t>
         </is>
       </c>
       <c r="C666" s="2" t="inlineStr">
         <is>
-          <t>Duties and taxes - Tax base - Amount (data element 14 03 040 014) is not allowed for this procedure category</t>
+          <t>Deferred payment (data element 12 10 000 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D666" s="2" t="inlineStr">
         <is>
-          <t>Beregningsgrundlag - Beløb (14 03 040 014) må ikke anvendes for denne procedure kategori</t>
+          <t>Betalingshenstand (data element 12 10 000 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="3" t="inlineStr">
         <is>
-          <t>DK5007</t>
+          <t>DK5002</t>
         </is>
       </c>
       <c r="B667" s="3" t="inlineStr">
         <is>
-          <t>DKW5007</t>
+          <t>DKW5002</t>
         </is>
       </c>
       <c r="C667" s="3" t="inlineStr">
         <is>
-          <t>Duties and taxes - Tax base - Tax rate (data element 14 03 040 041) is not allowed for this procedure category</t>
+          <t>Warehouse (data element 12 11 000 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D667" s="3" t="inlineStr">
         <is>
-          <t>Beregningsgrundlag - Sats (14 03 040 041) må ikke anvendes for denne procedure kategori</t>
+          <t>Oplag (data element 12 11 000 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="inlineStr">
         <is>
-          <t>DK5008</t>
+          <t>DK5003</t>
         </is>
       </c>
       <c r="B668" s="2" t="inlineStr">
         <is>
-          <t>DKW5008</t>
+          <t>DKW5003</t>
         </is>
       </c>
       <c r="C668" s="2" t="inlineStr">
         <is>
-          <t>Duties and taxes - Tax base - Tax amount (data element 14 03 040 043) is not allowed for this procedure category</t>
+          <t>Duties and taxes - Method of payment (data element 14 03 038 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D668" s="2" t="inlineStr">
         <is>
-          <t>Beregningsgrundlag - Afgiftbeløb (14 03 040 043) må ikke anvendes for denne procedure kategori</t>
+          <t>Betalingsmetode(14 03 038 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="3" t="inlineStr">
         <is>
-          <t>DK5009</t>
+          <t>DK5004</t>
         </is>
       </c>
       <c r="B669" s="3" t="inlineStr">
         <is>
-          <t>DKW5009</t>
+          <t>DKW5004</t>
         </is>
       </c>
       <c r="C669" s="3" t="inlineStr">
         <is>
-          <t>Duties and taxes - Payable tax amount (data element 14 03 042 000) is not allowed for this procedure category</t>
+          <t>Duties and taxes - Tax type (data element 14 03 039 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D669" s="3" t="inlineStr">
         <is>
-          <t>Skyldig beløb (14 03 042 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Told og afgiftstype (14 03 039 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="inlineStr">
         <is>
-          <t>DK5010</t>
+          <t>DK5006</t>
         </is>
       </c>
       <c r="B670" s="2" t="inlineStr">
         <is>
-          <t>DKW5010</t>
+          <t>DKW5006</t>
         </is>
       </c>
       <c r="C670" s="2" t="inlineStr">
         <is>
-          <t>Exchange rate (data element 14 09 000 000) is not allowed for this procedure category</t>
+          <t>Duties and taxes - Tax base - Amount (data element 14 03 040 014) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D670" s="2" t="inlineStr">
         <is>
-          <t>Vekselkurs (data element 14 09 000 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Beregningsgrundlag - Beløb (14 03 040 014) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="3" t="inlineStr">
         <is>
-          <t>DK5011</t>
+          <t>DK5007</t>
         </is>
       </c>
       <c r="B671" s="3" t="inlineStr">
         <is>
-          <t>DKW5011</t>
+          <t>DKW5007</t>
         </is>
       </c>
       <c r="C671" s="3" t="inlineStr">
         <is>
-          <t>Preference (data element 14 11 000 000) is not allowed for this procedure category</t>
+          <t>Duties and taxes - Tax base - Tax rate (data element 14 03 040 041) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D671" s="3" t="inlineStr">
         <is>
-          <t>Præference (data element 14 11 000 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Beregningsgrundlag - Sats (14 03 040 041) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="inlineStr">
         <is>
-          <t>DK5012</t>
+          <t>DK5008</t>
         </is>
       </c>
       <c r="B672" s="2" t="inlineStr">
         <is>
-          <t>DKW5012</t>
+          <t>DKW5008</t>
         </is>
       </c>
       <c r="C672" s="2" t="inlineStr">
         <is>
-          <t>Total duties and taxes amount (data element 14 16 001 000) is not allowed for this procedure category</t>
+          <t>Duties and taxes - Tax base - Tax amount (data element 14 03 040 043) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D672" s="2" t="inlineStr">
         <is>
-          <t>Told og afgifter i alt (14 16 000 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Beregningsgrundlag - Afgiftbeløb (14 03 040 043) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="3" t="inlineStr">
         <is>
-          <t>DK5013</t>
+          <t>DK5009</t>
         </is>
       </c>
       <c r="B673" s="3" t="inlineStr">
         <is>
-          <t>DKW5013</t>
+          <t>DKW5009</t>
         </is>
       </c>
       <c r="C673" s="3" t="inlineStr">
         <is>
-          <t>Internal currency unit (data element 14 17 001 000) is not allowed for this procedure category</t>
+          <t>Duties and taxes - Payable tax amount (data element 14 03 042 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D673" s="3" t="inlineStr">
         <is>
-          <t>Intern valutaenhed (data element 14 17 001 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Skyldig beløb (14 03 042 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="inlineStr">
         <is>
-          <t>DK5014</t>
+          <t>DK5010</t>
         </is>
       </c>
       <c r="B674" s="2" t="inlineStr">
         <is>
-          <t>DKW5014</t>
+          <t>DKW5010</t>
         </is>
       </c>
       <c r="C674" s="2" t="inlineStr">
         <is>
-          <t>Country of preferential origin (data element 16 09 000 000) is not allowed for this procedure category</t>
+          <t>Exchange rate (data element 14 09 000 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D674" s="2" t="inlineStr">
         <is>
-          <t>Præferenceoprindelsesland (data element 16 09 000 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Vekselkurs (data element 14 09 000 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="3" t="inlineStr">
         <is>
-          <t>DK5015</t>
+          <t>DK5011</t>
         </is>
       </c>
       <c r="B675" s="3" t="inlineStr">
         <is>
-          <t>DKW5015</t>
+          <t>DKW5011</t>
         </is>
       </c>
       <c r="C675" s="3" t="inlineStr">
         <is>
-          <t>Commodity code - National additional code (data element 18 09 060 000) is not allowed for this procedure category</t>
+          <t>Preference (data element 14 11 000 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D675" s="3" t="inlineStr">
         <is>
-          <t>Varekode - National tillægskode (data element 18 09 060 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Præference (data element 14 11 000 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="inlineStr">
         <is>
-          <t>DK5016</t>
+          <t>DK5012</t>
         </is>
       </c>
       <c r="B676" s="2" t="inlineStr">
         <is>
-          <t>DKW5016</t>
+          <t>DKW5012</t>
         </is>
       </c>
       <c r="C676" s="2" t="inlineStr">
         <is>
-          <t>Inland mode of transport (data element 19 04 000 000) is not allowed for this procedure category</t>
+          <t>Total duties and taxes amount (data element 14 16 001 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D676" s="2" t="inlineStr">
         <is>
-          <t>Indenlandsk transportmåde (data element 19 04 000 000) må ikke anvendes for denne procedure kategori</t>
+          <t>Told og afgifter i alt (14 16 000 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="3" t="inlineStr">
         <is>
-          <t>DK6000</t>
+          <t>DK5013</t>
         </is>
       </c>
       <c r="B677" s="3" t="inlineStr">
         <is>
-          <t>DKW6000</t>
+          <t>DKW5013</t>
         </is>
       </c>
       <c r="C677" s="3" t="inlineStr">
         <is>
-          <t>Error, 'Exporter idetification No' (13 01 017 000), the number does not exist or is not valid</t>
+          <t>Internal currency unit (data element 14 17 001 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D677" s="3" t="inlineStr">
         <is>
-          <t>Dataelement 13 01 017 000 EORI nummer findes ikke, eller er ikke gyldigt</t>
+          <t>Intern valutaenhed (data element 14 17 001 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="inlineStr">
         <is>
-          <t>DK6001</t>
+          <t>DK5014</t>
         </is>
       </c>
       <c r="B678" s="2" t="inlineStr">
         <is>
-          <t>DKW6001</t>
+          <t>DKW5014</t>
         </is>
       </c>
       <c r="C678" s="2" t="inlineStr">
         <is>
-          <t>Error in 'Exporter identification No.' (13 01 017 000), the Exporter must be registered as an exporter in DK.</t>
+          <t>Country of preferential origin (data element 16 09 000 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D678" s="2" t="inlineStr">
         <is>
-          <t>Fejl i dataelement 13 01 017 000 virksomheden skal være eksportør registreret i DK</t>
+          <t>Præferenceoprindelsesland (data element 16 09 000 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="3" t="inlineStr">
         <is>
-          <t>DK6002</t>
+          <t>DK5015</t>
         </is>
       </c>
       <c r="B679" s="3" t="inlineStr">
         <is>
-          <t>DKW6002</t>
+          <t>DKW5015</t>
         </is>
       </c>
       <c r="C679" s="3" t="inlineStr">
         <is>
-          <t>Error in 'Declarant identification No.' (13 05 017 000), the Declarant must be registered as an exporter in DK.</t>
+          <t>Commodity code - National additional code (data element 18 09 060 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D679" s="3" t="inlineStr">
         <is>
-          <t>Fejl i dataelement 13 05 017 000 virksomheden skal være eksportør registreret i DK</t>
+          <t>Varekode - National tillægskode (data element 18 09 060 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="inlineStr">
         <is>
-          <t>DK6003</t>
+          <t>DK5016</t>
         </is>
       </c>
       <c r="B680" s="2" t="inlineStr">
         <is>
-          <t>DKW6003</t>
+          <t>DKW5016</t>
         </is>
       </c>
       <c r="C680" s="2" t="inlineStr">
         <is>
-          <t>Error in 'Representative identification No.' (13 06 017 000), the Representative must be registered as an exporter in DK.</t>
+          <t>Inland mode of transport (data element 19 04 000 000) is not allowed for this procedure category</t>
         </is>
       </c>
       <c r="D680" s="2" t="inlineStr">
         <is>
-          <t>Fejl i dataelement 13 06 017 000 virksomheden skal være eksportør registreret i DK</t>
+          <t>Indenlandsk transportmåde (data element 19 04 000 000) må ikke anvendes for denne procedure kategori</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="3" t="inlineStr">
         <is>
-          <t>DK6007</t>
-        </is>
-      </c>
-      <c r="B681" s="3" t="n"/>
+          <t>DK6000</t>
+        </is>
+      </c>
+      <c r="B681" s="3" t="inlineStr">
+        <is>
+          <t>DKW6000</t>
+        </is>
+      </c>
       <c r="C681" s="3" t="inlineStr">
         <is>
-          <t>Error: You are not allowed to add "DKSEN" to the code field (12 02 008 000) in Additional Information (12 02 000 000) without supplying a SE number in the text field (12 02 009 000).</t>
+          <t>Error, 'Exporter idetification No' (13 01 017 000), the number does not exist or is not valid</t>
         </is>
       </c>
       <c r="D681" s="3" t="inlineStr">
         <is>
-          <t>Fejl: Du må ikke tilføje "DKSEN" til kodefeltet (12 02 008 000) i Yderligere Information (12 02 000 000) uden at angive et SE-nummer i tekstfeltet (12 02 009 000).</t>
+          <t>Dataelement 13 01 017 000 EORI nummer findes ikke, eller er ikke gyldigt</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="inlineStr">
         <is>
-          <t>DK6008</t>
-        </is>
-      </c>
-      <c r="B682" s="2" t="n"/>
+          <t>DK6001</t>
+        </is>
+      </c>
+      <c r="B682" s="2" t="inlineStr">
+        <is>
+          <t>DKW6001</t>
+        </is>
+      </c>
       <c r="C682" s="2" t="inlineStr">
         <is>
-          <t>Error: The SE number supplied in Additional Information (12 02 000 000) is on the wrong format. Should be eight (8) digits.</t>
+          <t>Error in 'Exporter identification No.' (13 01 017 000), the Exporter must be registered as an exporter in DK.</t>
         </is>
       </c>
       <c r="D682" s="2" t="inlineStr">
         <is>
-          <t>Fejl: SE-nummeret, der er angivet i Yderligere information (12 02 000 000) er i det forkerte format. Skal være otte (8) cifre.</t>
+          <t>Fejl i dataelement 13 01 017 000 virksomheden skal være eksportør registreret i DK</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="3" t="inlineStr">
         <is>
-          <t>DK6009</t>
-        </is>
-      </c>
-      <c r="B683" s="3" t="n"/>
+          <t>DK6002</t>
+        </is>
+      </c>
+      <c r="B683" s="3" t="inlineStr">
+        <is>
+          <t>DKW6002</t>
+        </is>
+      </c>
       <c r="C683" s="3" t="inlineStr">
         <is>
-          <t>Error: The SE number supplied in Additional Information (12 02 000 000) is not the same across the declaration.</t>
+          <t>Error in 'Declarant identification No.' (13 05 017 000), the Declarant must be registered as an exporter in DK.</t>
         </is>
       </c>
       <c r="D683" s="3" t="inlineStr">
         <is>
-          <t>Fejl: SE-nummeret, der er angivet i Yderligere oplysninger (12 02 000 000), er ikke det samme på tværs af erklæringen.</t>
+          <t>Fejl i dataelement 13 05 017 000 virksomheden skal være eksportør registreret i DK</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="inlineStr">
         <is>
-          <t>DK6010</t>
-        </is>
-      </c>
-      <c r="B684" s="2" t="n"/>
+          <t>DK6003</t>
+        </is>
+      </c>
+      <c r="B684" s="2" t="inlineStr">
+        <is>
+          <t>DKW6003</t>
+        </is>
+      </c>
       <c r="C684" s="2" t="inlineStr">
         <is>
-          <t>Error in SE number (12 02 009 000), the SE number must be registered as an exporter in DK.</t>
+          <t>Error in 'Representative identification No.' (13 06 017 000), the Representative must be registered as an exporter in DK.</t>
         </is>
       </c>
       <c r="D684" s="2" t="inlineStr">
         <is>
-          <t>Fejl i SE-nummer (12 02 009 000), SE-nummeret skal være eksportørregistreret i Danmark.</t>
+          <t>Fejl i dataelement 13 06 017 000 virksomheden skal være eksportør registreret i DK</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="3" t="inlineStr">
         <is>
-          <t>DK6012</t>
+          <t>DK6007</t>
         </is>
       </c>
       <c r="B685" s="3" t="n"/>
       <c r="C685" s="3" t="inlineStr">
         <is>
-          <t>Error in SE-Number (12 02 009 000), the EORI based on the SE number provided is invalid</t>
+          <t>Error: You are not allowed to add "DKSEN" to the code field (12 02 008 000) in Additional Information (12 02 000 000) without supplying a SE number in the text field (12 02 009 000).</t>
         </is>
       </c>
       <c r="D685" s="3" t="inlineStr">
         <is>
-          <t>Fejl i SE-Nummer (12 02 009 000), EORI baseret på det angivne SE-nummer er ugyldig.</t>
+          <t>Fejl: Du må ikke tilføje "DKSEN" til kodefeltet (12 02 008 000) i Yderligere Information (12 02 000 000) uden at angive et SE-nummer i tekstfeltet (12 02 009 000).</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="inlineStr">
         <is>
-          <t>DK9000</t>
-        </is>
-      </c>
-      <c r="B686" s="2" t="inlineStr">
-        <is>
-          <t>DKW9000</t>
-        </is>
-      </c>
+          <t>DK6008</t>
+        </is>
+      </c>
+      <c r="B686" s="2" t="n"/>
       <c r="C686" s="2" t="inlineStr">
         <is>
-          <t>Error in "Holder of the Tansit Procedure - Identification Number" (13 07 017 000), the number does not exist or is not valid.</t>
+          <t>Error: The SE number supplied in Additional Information (12 02 000 000) is on the wrong format. Should be eight (8) digits.</t>
         </is>
       </c>
       <c r="D686" s="2" t="inlineStr">
         <is>
-          <t>Fejl i "Den ansvarlige for forsendelsesproceduren - Identifikationsnummer" (13 07 017 000), nummeret eksisterer ikke eller er ikke validt.</t>
+          <t>Fejl: SE-nummeret, der er angivet i Yderligere information (12 02 000 000) er i det forkerte format. Skal være otte (8) cifre.</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="3" t="inlineStr">
         <is>
-          <t>DK9001</t>
-        </is>
-      </c>
-      <c r="B687" s="3" t="inlineStr">
-        <is>
-          <t>DKW9001</t>
-        </is>
-      </c>
+          <t>DK6009</t>
+        </is>
+      </c>
+      <c r="B687" s="3" t="n"/>
       <c r="C687" s="3" t="inlineStr">
         <is>
-          <t>Error in "Consignor - Identification Number" (13 02 017 000), the number does not exist or is not valid.</t>
+          <t>Error: The SE number supplied in Additional Information (12 02 000 000) is not the same across the declaration.</t>
         </is>
       </c>
       <c r="D687" s="3" t="inlineStr">
         <is>
-          <t>Fejl i dataelement 13 02 017 000 EORI - nr. , eksisterer ikke eller er ikke validt.</t>
+          <t>Fejl: SE-nummeret, der er angivet i Yderligere oplysninger (12 02 000 000), er ikke det samme på tværs af erklæringen.</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="inlineStr">
         <is>
-          <t>DK9002</t>
-        </is>
-      </c>
-      <c r="B688" s="2" t="inlineStr">
-        <is>
-          <t>DKW9002</t>
-        </is>
-      </c>
+          <t>DK6010</t>
+        </is>
+      </c>
+      <c r="B688" s="2" t="n"/>
       <c r="C688" s="2" t="inlineStr">
         <is>
-          <t>Error in "Consignee - Identification Number" (13 03 017 000), the number does not exist or is not valid.</t>
+          <t>Error in SE number (12 02 009 000), the SE number must be registered as an exporter in DK.</t>
         </is>
       </c>
       <c r="D688" s="2" t="inlineStr">
         <is>
-          <t>Fejl i "Modtager - Identifikationsnummer" (13 03 017 000), nummeret eksisterer ikke eller er ikke validt.</t>
+          <t>Fejl i SE-nummer (12 02 009 000), SE-nummeret skal være eksportørregistreret i Danmark.</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="3" t="inlineStr">
         <is>
-          <t>DK9003</t>
-        </is>
-      </c>
-      <c r="B689" s="3" t="inlineStr">
-        <is>
-          <t>DKW9003</t>
-        </is>
-      </c>
+          <t>DK6012</t>
+        </is>
+      </c>
+      <c r="B689" s="3" t="n"/>
       <c r="C689" s="3" t="inlineStr">
         <is>
-          <t>Error in "Additional Supply Chain Actor - Identification Number" (13 14 017 000), the number does not exist or is not valid.</t>
+          <t>Error in SE-Number (12 02 009 000), the EORI based on the SE number provided is invalid</t>
         </is>
       </c>
       <c r="D689" s="3" t="inlineStr">
         <is>
-          <t>Fejl i "Yderligere aktør i forsyningskæden - Identifikationsnummer" (13 14 017 000), nummeret eksisterer ikke eller er ikke validt.</t>
+          <t>Fejl i SE-Nummer (12 02 009 000), EORI baseret på det angivne SE-nummer er ugyldig.</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="inlineStr">
         <is>
-          <t>DK9004</t>
+          <t>DK9000</t>
         </is>
       </c>
       <c r="B690" s="2" t="inlineStr">
         <is>
-          <t>DKW9004</t>
+          <t>DKW9000</t>
         </is>
       </c>
       <c r="C690" s="2" t="inlineStr">
         <is>
-          <t>Error in "Trader at Destination - Identification Number", the number does not exist or is not valid.</t>
+          <t>Error in "Holder of the Tansit Procedure - Identification Number" (13 07 017 000), the number does not exist or is not valid.</t>
         </is>
       </c>
       <c r="D690" s="2" t="inlineStr">
         <is>
-          <t>Fejl i "Trader at Destination - ID, nummeret findes ikke eller er ikke validt.</t>
+          <t>Fejl i "Den ansvarlige for forsendelsesproceduren - Identifikationsnummer" (13 07 017 000), nummeret eksisterer ikke eller er ikke validt.</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="3" t="inlineStr">
         <is>
-          <t>DK9005</t>
-        </is>
-      </c>
-      <c r="B691" s="3" t="n"/>
+          <t>DK9001</t>
+        </is>
+      </c>
+      <c r="B691" s="3" t="inlineStr">
+        <is>
+          <t>DKW9001</t>
+        </is>
+      </c>
       <c r="C691" s="3" t="inlineStr">
         <is>
-          <t>Error in Notify party - Identification number (Data element 13 13 017 000), the number does not exist or is not valid</t>
+          <t>Error in "Consignor - Identification Number" (13 02 017 000), the number does not exist or is not valid.</t>
         </is>
       </c>
       <c r="D691" s="3" t="inlineStr">
         <is>
-          <t>Fejl i Part, der skal underrettes - Identifikationsnummer (Data element 13 13 017 000), nummeret findes ikke eller er ugyldig</t>
+          <t>Fejl i dataelement 13 02 017 000 EORI - nr. , eksisterer ikke eller er ikke validt.</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="inlineStr">
         <is>
-          <t>DK9006</t>
-        </is>
-      </c>
-      <c r="B692" s="2" t="n"/>
+          <t>DK9002</t>
+        </is>
+      </c>
+      <c r="B692" s="2" t="inlineStr">
+        <is>
+          <t>DKW9002</t>
+        </is>
+      </c>
       <c r="C692" s="2" t="inlineStr">
         <is>
-          <t>You are not allowed to amend Consignment Items which has the decreased quantity greater than discharged items when amending Temporary storage.</t>
+          <t>Error in "Consignee - Identification Number" (13 03 017 000), the number does not exist or is not valid.</t>
         </is>
       </c>
       <c r="D692" s="2" t="inlineStr">
         <is>
-          <t>Vægten kan ikke  ændres, så den er lavere end den vægt der allerede er fraført</t>
+          <t>Fejl i "Modtager - Identifikationsnummer" (13 03 017 000), nummeret eksisterer ikke eller er ikke validt.</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="3" t="inlineStr">
         <is>
-          <t>DK9007</t>
-        </is>
-      </c>
-      <c r="B693" s="3" t="n"/>
+          <t>DK9003</t>
+        </is>
+      </c>
+      <c r="B693" s="3" t="inlineStr">
+        <is>
+          <t>DKW9003</t>
+        </is>
+      </c>
       <c r="C693" s="3" t="inlineStr">
         <is>
-          <t>This goods registration was submitted by a user that is not allowed to lodge Goods Registrations. The GRE can only be lodged through an automatic system process using the manifest-system user.</t>
+          <t>Error in "Additional Supply Chain Actor - Identification Number" (13 14 017 000), the number does not exist or is not valid.</t>
         </is>
       </c>
       <c r="D693" s="3" t="inlineStr">
         <is>
-          <t>Denne vareregistrering er indsendt af en bruger som ikke har tilladelse at indsende vareregistreringer. En vareregistrering kan kun oprettes automatisk af systemet med brugeren manifest-system</t>
+          <t>Fejl i "Yderligere aktør i forsyningskæden - Identifikationsnummer" (13 14 017 000), nummeret eksisterer ikke eller er ikke validt.</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="inlineStr">
         <is>
-          <t>DMS10001</t>
-        </is>
-      </c>
-      <c r="B694" s="2" t="n"/>
+          <t>DK9004</t>
+        </is>
+      </c>
+      <c r="B694" s="2" t="inlineStr">
+        <is>
+          <t>DKW9004</t>
+        </is>
+      </c>
       <c r="C694" s="2" t="inlineStr">
         <is>
-          <t>Obligation error: obligation rule not met</t>
+          <t>Error in "Trader at Destination - Identification Number", the number does not exist or is not valid.</t>
         </is>
       </c>
       <c r="D694" s="2" t="inlineStr">
         <is>
-          <t>Regel er ikke opfyldt</t>
+          <t>Fejl i "Trader at Destination - ID, nummeret findes ikke eller er ikke validt.</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="3" t="inlineStr">
         <is>
-          <t>DMS10010</t>
+          <t>DK9005</t>
         </is>
       </c>
       <c r="B695" s="3" t="n"/>
       <c r="C695" s="3" t="inlineStr">
         <is>
-          <t>Format error: invalid format</t>
+          <t>Error in Notify party - Identification number (Data element 13 13 017 000), the number does not exist or is not valid</t>
         </is>
       </c>
       <c r="D695" s="3" t="inlineStr">
         <is>
-          <t>Ugyldigt format</t>
+          <t>Fejl i Part, der skal underrettes - Identifikationsnummer (Data element 13 13 017 000), nummeret findes ikke eller er ugyldig</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="inlineStr">
         <is>
-          <t>DMS10020</t>
+          <t>DK9006</t>
         </is>
       </c>
       <c r="B696" s="2" t="n"/>
       <c r="C696" s="2" t="inlineStr">
         <is>
-          <t>Domain error: invalid value</t>
+          <t>You are not allowed to amend Consignment Items which has the decreased quantity greater than discharged items when amending Temporary storage.</t>
         </is>
       </c>
       <c r="D696" s="2" t="inlineStr">
         <is>
-          <t>Ugyldig værdi</t>
+          <t>Vægten kan ikke  ændres, så den er lavere end den vægt der allerede er fraført</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="3" t="inlineStr">
         <is>
-          <t>DMS10021</t>
+          <t>DK9007</t>
         </is>
       </c>
       <c r="B697" s="3" t="n"/>
       <c r="C697" s="3" t="inlineStr">
         <is>
-          <t>Domain error: value can not be lower than 0.</t>
+          <t>This goods registration was submitted by a user that is not allowed to lodge Goods Registrations. The GRE can only be lodged through an automatic system process using the manifest-system user.</t>
         </is>
       </c>
       <c r="D697" s="3" t="inlineStr">
         <is>
-          <t>Værdien kan ikke være lavere end 0.</t>
+          <t>Denne vareregistrering er indsendt af en bruger som ikke har tilladelse at indsende vareregistreringer. En vareregistrering kan kun oprettes automatisk af systemet med brugeren manifest-system</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="inlineStr">
         <is>
-          <t>DMS10044</t>
+          <t>DMS10001</t>
         </is>
       </c>
       <c r="B698" s="2" t="n"/>
       <c r="C698" s="2" t="inlineStr">
         <is>
-          <t>Document not allowed</t>
+          <t>Obligation error: obligation rule not met</t>
         </is>
       </c>
       <c r="D698" s="2" t="inlineStr">
         <is>
-          <t>Dokumentet er ikke tilladt</t>
+          <t>Regel er ikke opfyldt</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="3" t="inlineStr">
         <is>
-          <t>DMS10045</t>
+          <t>DMS10010</t>
         </is>
       </c>
       <c r="B699" s="3" t="n"/>
       <c r="C699" s="3" t="inlineStr">
         <is>
-          <t>Calculated customs value is not allowed to be below zero</t>
+          <t>Format error: invalid format</t>
         </is>
       </c>
       <c r="D699" s="3" t="inlineStr">
         <is>
-          <t>Den beregnet toldværdi må ikke være under nul</t>
+          <t>Ugyldigt format</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="inlineStr">
         <is>
-          <t>DMS10046</t>
+          <t>DMS10020</t>
         </is>
       </c>
       <c r="B700" s="2" t="n"/>
       <c r="C700" s="2" t="inlineStr">
         <is>
-          <t>Missing document not required for requested procedure</t>
+          <t>Domain error: invalid value</t>
         </is>
       </c>
       <c r="D700" s="2" t="inlineStr">
         <is>
-          <t>Manglende dokument er ikke påkrævet til den valgte procedure</t>
+          <t>Ugyldig værdi</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="3" t="inlineStr">
         <is>
-          <t>DMS11003</t>
+          <t>DMS10021</t>
         </is>
       </c>
       <c r="B701" s="3" t="n"/>
       <c r="C701" s="3" t="inlineStr">
         <is>
-          <t>Relation error: invalid Item total value</t>
+          <t>Domain error: value can not be lower than 0.</t>
         </is>
       </c>
       <c r="D701" s="3" t="inlineStr">
         <is>
-          <t>Vareposter stemmer ikke overens med hoveddelen</t>
+          <t>Værdien kan ikke være lavere end 0.</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="inlineStr">
         <is>
-          <t>DMS11004</t>
+          <t>DMS10044</t>
         </is>
       </c>
       <c r="B702" s="2" t="n"/>
       <c r="C702" s="2" t="inlineStr">
         <is>
-          <t>Relation error: invalid combination of  procedures</t>
+          <t>Document not allowed</t>
         </is>
       </c>
       <c r="D702" s="2" t="inlineStr">
         <is>
-          <t>Ugyldig kombination af procedurer</t>
+          <t>Dokumentet er ikke tilladt</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="3" t="inlineStr">
         <is>
-          <t>DMS11005</t>
+          <t>DMS10045</t>
         </is>
       </c>
       <c r="B703" s="3" t="n"/>
       <c r="C703" s="3" t="inlineStr">
         <is>
-          <t>Relation error: differing requested procedure</t>
+          <t>Calculated customs value is not allowed to be below zero</t>
         </is>
       </c>
       <c r="D703" s="3" t="inlineStr">
         <is>
-          <t>Fejl, der er anmodet om forskellige procedurer</t>
+          <t>Den beregnet toldværdi må ikke være under nul</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="inlineStr">
         <is>
-          <t>DMS11006</t>
+          <t>DMS10046</t>
         </is>
       </c>
       <c r="B704" s="2" t="n"/>
       <c r="C704" s="2" t="inlineStr">
         <is>
-          <t>Relation error: NetMass greater than gross mass.</t>
+          <t>Missing document not required for requested procedure</t>
         </is>
       </c>
       <c r="D704" s="2" t="inlineStr">
         <is>
-          <t>Nettovægt større end bruttovægt</t>
+          <t>Manglende dokument er ikke påkrævet til den valgte procedure</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="3" t="inlineStr">
         <is>
-          <t>DMS11007</t>
+          <t>DMS11003</t>
         </is>
       </c>
       <c r="B705" s="3" t="n"/>
       <c r="C705" s="3" t="inlineStr">
         <is>
-          <t>Relation error: differing submitters</t>
+          <t>Relation error: invalid Item total value</t>
         </is>
       </c>
       <c r="D705" s="3" t="inlineStr">
         <is>
-          <t>Fejl, der er forskellige indsendere</t>
+          <t>Vareposter stemmer ikke overens med hoveddelen</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="inlineStr">
         <is>
-          <t>DMS11011</t>
+          <t>DMS11004</t>
         </is>
       </c>
       <c r="B706" s="2" t="n"/>
       <c r="C706" s="2" t="inlineStr">
         <is>
-          <t>Relation error: differing communication address</t>
+          <t>Relation error: invalid combination of  procedures</t>
         </is>
       </c>
       <c r="D706" s="2" t="inlineStr">
         <is>
-          <t>Fejl, der er forskellige kommunikationsadresser</t>
+          <t>Ugyldig kombination af procedurer</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="3" t="inlineStr">
         <is>
-          <t>DMS11012</t>
+          <t>DMS11005</t>
         </is>
       </c>
       <c r="B707" s="3" t="n"/>
       <c r="C707" s="3" t="inlineStr">
         <is>
-          <t>Relation error: element is not allowed to be amended through this additional message type</t>
+          <t>Relation error: differing requested procedure</t>
         </is>
       </c>
       <c r="D707" s="3" t="inlineStr">
         <is>
-          <t>Dataelement må ikke ændres gennem denne supplerende meddelelsetype</t>
+          <t>Fejl, der er anmodet om forskellige procedurer</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="inlineStr">
         <is>
-          <t>DMS11013</t>
+          <t>DMS11006</t>
         </is>
       </c>
       <c r="B708" s="2" t="n"/>
       <c r="C708" s="2" t="inlineStr">
         <is>
-          <t>Relation error: AdditionalMesage refers to declaration in invalid state.</t>
+          <t>Relation error: NetMass greater than gross mass.</t>
         </is>
       </c>
       <c r="D708" s="2" t="inlineStr">
         <is>
-          <t>Supplerende meddelelse henviser til en ugyldiggjort angivelse</t>
+          <t>Nettovægt større end bruttovægt</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="3" t="inlineStr">
         <is>
-          <t>DMS12001</t>
+          <t>DMS11007</t>
         </is>
       </c>
       <c r="B709" s="3" t="n"/>
       <c r="C709" s="3" t="inlineStr">
         <is>
-          <t>Uniqueness error: non-unique combination of document type and reference</t>
+          <t>Relation error: differing submitters</t>
         </is>
       </c>
       <c r="D709" s="3" t="inlineStr">
         <is>
-          <t>Kombination af dokumenttype og reference er ikke unik.</t>
+          <t>Fejl, der er forskellige indsendere</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="inlineStr">
         <is>
-          <t>DMS12003</t>
+          <t>DMS11011</t>
         </is>
       </c>
       <c r="B710" s="2" t="n"/>
       <c r="C710" s="2" t="inlineStr">
         <is>
-          <t>Uniqueness error: non-unique submitter reference</t>
+          <t>Relation error: differing communication address</t>
         </is>
       </c>
       <c r="D710" s="2" t="inlineStr">
         <is>
-          <t>Fejl, indsender reference er ikke unik</t>
+          <t>Fejl, der er forskellige kommunikationsadresser</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="3" t="inlineStr">
         <is>
-          <t>DMS12004</t>
+          <t>DMS11012</t>
         </is>
       </c>
       <c r="B711" s="3" t="n"/>
       <c r="C711" s="3" t="inlineStr">
         <is>
-          <t>Uniqueness error: non-unique submitter reference</t>
+          <t>Relation error: element is not allowed to be amended through this additional message type</t>
         </is>
       </c>
       <c r="D711" s="3" t="inlineStr">
         <is>
-          <t>Fejl, indsender reference er ikke unik</t>
+          <t>Dataelement må ikke ændres gennem denne supplerende meddelelsetype</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="inlineStr">
         <is>
-          <t>DMS12005</t>
+          <t>DMS11013</t>
         </is>
       </c>
       <c r="B712" s="2" t="n"/>
       <c r="C712" s="2" t="inlineStr">
         <is>
-          <t>Authorization error: invalid Party ID</t>
+          <t>Relation error: AdditionalMesage refers to declaration in invalid state.</t>
         </is>
       </c>
       <c r="D712" s="2" t="inlineStr">
         <is>
-          <t>Ugyldigt EORI nummer</t>
+          <t>Supplerende meddelelse henviser til en ugyldiggjort angivelse</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="3" t="inlineStr">
         <is>
-          <t>DMS12006</t>
+          <t>DMS12001</t>
         </is>
       </c>
       <c r="B713" s="3" t="n"/>
       <c r="C713" s="3" t="inlineStr">
         <is>
-          <t>Authorization warning: invalid import/export license number</t>
+          <t>Uniqueness error: non-unique combination of document type and reference</t>
         </is>
       </c>
       <c r="D713" s="3" t="inlineStr">
         <is>
-          <t>Ugyldig import /eksport licens nummer</t>
+          <t>Kombination af dokumenttype og reference er ikke unik.</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="inlineStr">
         <is>
-          <t>DMS12007</t>
+          <t>DMS12003</t>
         </is>
       </c>
       <c r="B714" s="2" t="n"/>
       <c r="C714" s="2" t="inlineStr">
         <is>
-          <t>Authorization error: authorization not valid for declaration</t>
+          <t>Uniqueness error: non-unique submitter reference</t>
         </is>
       </c>
       <c r="D714" s="2" t="inlineStr">
         <is>
-          <t>Bevilling er ikke gyldig i angivelsen</t>
+          <t>Fejl, indsender reference er ikke unik</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="3" t="inlineStr">
         <is>
-          <t>DMS12008</t>
+          <t>DMS12004</t>
         </is>
       </c>
       <c r="B715" s="3" t="n"/>
       <c r="C715" s="3" t="inlineStr">
         <is>
-          <t>Authorization error: requested amount or quantity is not available for authorization reservation</t>
+          <t>Uniqueness error: non-unique submitter reference</t>
         </is>
       </c>
       <c r="D715" s="3" t="inlineStr">
         <is>
-          <t>Bevillingsfejl, det anmodet beløb eller mængde er ikke tilgængelig for reservation</t>
+          <t>Fejl, indsender reference er ikke unik</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="inlineStr">
         <is>
-          <t>DMS12009</t>
+          <t>DMS12005</t>
         </is>
       </c>
       <c r="B716" s="2" t="n"/>
       <c r="C716" s="2" t="inlineStr">
         <is>
-          <t>Authorization error: invalid warehouse license</t>
+          <t>Authorization error: invalid Party ID</t>
         </is>
       </c>
       <c r="D716" s="2" t="inlineStr">
         <is>
-          <t>Bevillingsfejl, ugyldig oplag</t>
+          <t>Ugyldigt EORI nummer</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="3" t="inlineStr">
         <is>
-          <t>DMS12010</t>
+          <t>DMS12006</t>
         </is>
       </c>
       <c r="B717" s="3" t="n"/>
       <c r="C717" s="3" t="inlineStr">
         <is>
-          <t>Authorization error: one-time authorization cannot be used anymore</t>
+          <t>Authorization warning: invalid import/export license number</t>
         </is>
       </c>
       <c r="D717" s="3" t="inlineStr">
         <is>
-          <t>Enkeltstående bevilling kan ikke bruges</t>
+          <t>Ugyldig import /eksport licens nummer</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="inlineStr">
         <is>
-          <t>DMS12012</t>
+          <t>DMS12007</t>
         </is>
       </c>
       <c r="B718" s="2" t="n"/>
       <c r="C718" s="2" t="inlineStr">
         <is>
-          <t>Documentation is missing</t>
+          <t>Authorization error: authorization not valid for declaration</t>
         </is>
       </c>
       <c r="D718" s="2" t="inlineStr">
         <is>
-          <t>Dokumentation mangler</t>
+          <t>Bevilling er ikke gyldig i angivelsen</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="3" t="inlineStr">
         <is>
-          <t>DMS12013</t>
+          <t>DMS12008</t>
         </is>
       </c>
       <c r="B719" s="3" t="n"/>
       <c r="C719" s="3" t="inlineStr">
         <is>
-          <t>Authorization error: invalid VAT number</t>
+          <t>Authorization error: requested amount or quantity is not available for authorization reservation</t>
         </is>
       </c>
       <c r="D719" s="3" t="inlineStr">
         <is>
-          <t>Ugyldigt momsnummer</t>
+          <t>Bevillingsfejl, det anmodet beløb eller mængde er ikke tilgængelig for reservation</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="inlineStr">
         <is>
-          <t>DMS12014</t>
+          <t>DMS12009</t>
         </is>
       </c>
       <c r="B720" s="2" t="n"/>
       <c r="C720" s="2" t="inlineStr">
         <is>
-          <t>Sequence error: invalid supplement sequence</t>
+          <t>Authorization error: invalid warehouse license</t>
         </is>
       </c>
       <c r="D720" s="2" t="inlineStr">
         <is>
-          <t>Fejl, ugyldig supplement</t>
+          <t>Bevillingsfejl, ugyldig oplag</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="3" t="inlineStr">
         <is>
-          <t>DMS12015</t>
+          <t>DMS12010</t>
         </is>
       </c>
       <c r="B721" s="3" t="n"/>
       <c r="C721" s="3" t="inlineStr">
         <is>
-          <t>Sequence error: invalid additional message reference</t>
+          <t>Authorization error: one-time authorization cannot be used anymore</t>
         </is>
       </c>
       <c r="D721" s="3" t="inlineStr">
         <is>
-          <t>Ugyldig referance til supplerende meddelelse</t>
+          <t>Enkeltstående bevilling kan ikke bruges</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="inlineStr">
         <is>
-          <t>DMS12016</t>
+          <t>DMS12012</t>
         </is>
       </c>
       <c r="B722" s="2" t="n"/>
       <c r="C722" s="2" t="inlineStr">
         <is>
-          <t>Date error: disallowed acceptance date</t>
+          <t>Documentation is missing</t>
         </is>
       </c>
       <c r="D722" s="2" t="inlineStr">
         <is>
-          <t>Antagelsesdato afvist</t>
+          <t>Dokumentation mangler</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="3" t="inlineStr">
         <is>
-          <t>DMS12018</t>
+          <t>DMS12013</t>
         </is>
       </c>
       <c r="B723" s="3" t="n"/>
       <c r="C723" s="3" t="inlineStr">
         <is>
-          <t>Date error: disallowed signature timestamp</t>
+          <t>Authorization error: invalid VAT number</t>
         </is>
       </c>
       <c r="D723" s="3" t="inlineStr">
         <is>
-          <t>Datofejl, ikke tilladt signatur tidsstempel</t>
+          <t>Ugyldigt momsnummer</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="inlineStr">
         <is>
-          <t>DMS12022</t>
+          <t>DMS12014</t>
         </is>
       </c>
       <c r="B724" s="2" t="n"/>
       <c r="C724" s="2" t="inlineStr">
         <is>
-          <t>Relation error: inconsistent sequence number</t>
+          <t>Sequence error: invalid supplement sequence</t>
         </is>
       </c>
       <c r="D724" s="2" t="inlineStr">
         <is>
-          <t>Fejl, inkonsekvent sekvensnummer</t>
+          <t>Fejl, ugyldig supplement</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="3" t="inlineStr">
         <is>
-          <t>DMS12024</t>
+          <t>DMS12015</t>
         </is>
       </c>
       <c r="B725" s="3" t="n"/>
       <c r="C725" s="3" t="inlineStr">
         <is>
-          <t>Uniqueness error: non-unique item number</t>
+          <t>Sequence error: invalid additional message reference</t>
         </is>
       </c>
       <c r="D725" s="3" t="inlineStr">
         <is>
-          <t>Varenummer er ikke unik</t>
+          <t>Ugyldig referance til supplerende meddelelse</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="inlineStr">
         <is>
-          <t>DMS12026</t>
+          <t>DMS12016</t>
         </is>
       </c>
       <c r="B726" s="2" t="n"/>
       <c r="C726" s="2" t="inlineStr">
         <is>
-          <t>Uniqueness error: non-unique amendment element</t>
+          <t>Date error: disallowed acceptance date</t>
         </is>
       </c>
       <c r="D726" s="2" t="inlineStr">
         <is>
-          <t>Fejl, der er ikke et entydigt ændrings element</t>
+          <t>Antagelsesdato afvist</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="3" t="inlineStr">
         <is>
-          <t>DMS12027</t>
+          <t>DMS12018</t>
         </is>
       </c>
       <c r="B727" s="3" t="n"/>
       <c r="C727" s="3" t="inlineStr">
         <is>
-          <t>Uniqueness error: non-unique sequenceNumber</t>
+          <t>Date error: disallowed signature timestamp</t>
         </is>
       </c>
       <c r="D727" s="3" t="inlineStr">
         <is>
-          <t>Løbenummeret er ikke unikt</t>
+          <t>Datofejl, ikke tilladt signatur tidsstempel</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="inlineStr">
         <is>
-          <t>DMS12028</t>
+          <t>DMS12022</t>
         </is>
       </c>
       <c r="B728" s="2" t="n"/>
       <c r="C728" s="2" t="inlineStr">
         <is>
-          <t>Authorization error: disallowed party status</t>
+          <t>Relation error: inconsistent sequence number</t>
         </is>
       </c>
       <c r="D728" s="2" t="inlineStr">
         <is>
-          <t>Part status ikke tilladt</t>
+          <t>Fejl, inkonsekvent sekvensnummer</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="3" t="inlineStr">
         <is>
-          <t>DMS12029</t>
+          <t>DMS12024</t>
         </is>
       </c>
       <c r="B729" s="3" t="n"/>
       <c r="C729" s="3" t="inlineStr">
         <is>
-          <t>Authorization error: differing warehouse types</t>
+          <t>Uniqueness error: non-unique item number</t>
         </is>
       </c>
       <c r="D729" s="3" t="inlineStr">
         <is>
-          <t>Uoverensstemmelse imellem bevilling og lagertype</t>
+          <t>Varenummer er ikke unik</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="inlineStr">
         <is>
-          <t>DMS12030</t>
+          <t>DMS12026</t>
         </is>
       </c>
       <c r="B730" s="2" t="n"/>
       <c r="C730" s="2" t="inlineStr">
         <is>
-          <t>Authorization error: non-conforming declarant ID with warehouse license</t>
+          <t>Uniqueness error: non-unique amendment element</t>
         </is>
       </c>
       <c r="D730" s="2" t="inlineStr">
         <is>
-          <t>Bevillingsfejl, klarerer ID er ikke valid i forhold til dette oplag</t>
+          <t>Fejl, der er ikke et entydigt ændrings element</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="3" t="inlineStr">
         <is>
-          <t>DMS12031</t>
+          <t>DMS12027</t>
         </is>
       </c>
       <c r="B731" s="3" t="n"/>
       <c r="C731" s="3" t="inlineStr">
         <is>
-          <t>Sequence error: The invalidation was submitted after the deadline</t>
+          <t>Uniqueness error: non-unique sequenceNumber</t>
         </is>
       </c>
       <c r="D731" s="3" t="inlineStr">
         <is>
-          <t>Sequence error: The invalidation was submitted after the deadline</t>
+          <t>Løbenummeret er ikke unikt</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="inlineStr">
         <is>
-          <t>DMS12032</t>
+          <t>DMS12028</t>
         </is>
       </c>
       <c r="B732" s="2" t="n"/>
       <c r="C732" s="2" t="inlineStr">
         <is>
-          <t>Sequence error:  customs position already taken</t>
+          <t>Authorization error: disallowed party status</t>
         </is>
       </c>
       <c r="D732" s="2" t="inlineStr">
         <is>
-          <t>Toldafgørelse foreligger allerede</t>
+          <t>Part status ikke tilladt</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="3" t="inlineStr">
         <is>
-          <t>DMS12033</t>
+          <t>DMS12029</t>
         </is>
       </c>
       <c r="B733" s="3" t="n"/>
       <c r="C733" s="3" t="inlineStr">
         <is>
-          <t>Sequence error: data element under control</t>
+          <t>Authorization error: differing warehouse types</t>
         </is>
       </c>
       <c r="D733" s="3" t="inlineStr">
         <is>
-          <t>Fejl, dataelement er under kontrol</t>
+          <t>Uoverensstemmelse imellem bevilling og lagertype</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="inlineStr">
         <is>
-          <t>DMS12034</t>
+          <t>DMS12030</t>
         </is>
       </c>
       <c r="B734" s="2" t="n"/>
       <c r="C734" s="2" t="inlineStr">
         <is>
-          <t>Relation error: inconsistent mode of entry</t>
+          <t>Authorization error: non-conforming declarant ID with warehouse license</t>
         </is>
       </c>
       <c r="D734" s="2" t="inlineStr">
         <is>
-          <t>Fejl, inkonsekvent indførselsmåde</t>
+          <t>Bevillingsfejl, klarerer ID er ikke valid i forhold til dette oplag</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="3" t="inlineStr">
         <is>
-          <t>DMS12035</t>
+          <t>DMS12031</t>
         </is>
       </c>
       <c r="B735" s="3" t="n"/>
       <c r="C735" s="3" t="inlineStr">
         <is>
-          <t>Authorization error: undetermined</t>
+          <t>Sequence error: The invalidation was submitted after the deadline</t>
         </is>
       </c>
       <c r="D735" s="3" t="inlineStr">
         <is>
-          <t>Bevillingsfejl - ukendt</t>
+          <t>Sequence error: The invalidation was submitted after the deadline</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="inlineStr">
         <is>
-          <t>DMS12036</t>
+          <t>DMS12032</t>
         </is>
       </c>
       <c r="B736" s="2" t="n"/>
       <c r="C736" s="2" t="inlineStr">
         <is>
-          <t>Sequence error: already existing request</t>
+          <t>Sequence error:  customs position already taken</t>
         </is>
       </c>
       <c r="D736" s="2" t="inlineStr">
         <is>
-          <t>Anmodningen eksisterer allerede</t>
+          <t>Toldafgørelse foreligger allerede</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="3" t="inlineStr">
         <is>
-          <t>DMS12037</t>
+          <t>DMS12033</t>
         </is>
       </c>
       <c r="B737" s="3" t="n"/>
       <c r="C737" s="3" t="inlineStr">
         <is>
-          <t>Relation error: incorrect packaging content</t>
+          <t>Sequence error: data element under control</t>
         </is>
       </c>
       <c r="D737" s="3" t="inlineStr">
         <is>
-          <t>Forkert emballage type</t>
+          <t>Fejl, dataelement er under kontrol</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="inlineStr">
         <is>
-          <t>DMS12041</t>
+          <t>DMS12034</t>
         </is>
       </c>
       <c r="B738" s="2" t="n"/>
       <c r="C738" s="2" t="inlineStr">
         <is>
-          <t>Relation error: usage of preference is not allowed</t>
+          <t>Relation error: inconsistent mode of entry</t>
         </is>
       </c>
       <c r="D738" s="2" t="inlineStr">
         <is>
-          <t>Brug af præference er ikke tilladt</t>
+          <t>Fejl, inkonsekvent indførselsmåde</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="3" t="inlineStr">
         <is>
-          <t>DMS12042</t>
+          <t>DMS12035</t>
         </is>
       </c>
       <c r="B739" s="3" t="n"/>
       <c r="C739" s="3" t="inlineStr">
         <is>
-          <t>Relation error: elements must be identical within the GoodsItem</t>
+          <t>Authorization error: undetermined</t>
         </is>
       </c>
       <c r="D739" s="3" t="inlineStr">
         <is>
-          <t>Elementer skal være identiske inden for vareposten</t>
+          <t>Bevillingsfejl - ukendt</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="inlineStr">
         <is>
-          <t>DMS12043</t>
+          <t>DMS12036</t>
         </is>
       </c>
       <c r="B740" s="2" t="n"/>
       <c r="C740" s="2" t="inlineStr">
         <is>
-          <t>External Validation result OK</t>
+          <t>Sequence error: already existing request</t>
         </is>
       </c>
       <c r="D740" s="2" t="inlineStr">
         <is>
-          <t>Ekstern validering er ok</t>
+          <t>Anmodningen eksisterer allerede</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="3" t="inlineStr">
         <is>
-          <t>DMS12044</t>
+          <t>DMS12037</t>
         </is>
       </c>
       <c r="B741" s="3" t="n"/>
       <c r="C741" s="3" t="inlineStr">
         <is>
-          <t>Crosscheck validation between EMCS e-AD(s) and export declaration failed. This can be due to differing CN code(s), net mass(es) and/or numbers of items in the export declaration compared to the e-AD(s).</t>
+          <t>Relation error: incorrect packaging content</t>
         </is>
       </c>
       <c r="D741" s="3" t="inlineStr">
         <is>
-          <t>Fejl i validerings-krydstjek mellem e-AD(er) i EMCS og eksportangivelse. Dette kan skyldes forskelle i KN kode(r), nettovægt(e) og/eller antal poster i eksportangivelsen sammenlignet med e-AD(er).</t>
+          <t>Forkert emballage type</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="inlineStr">
         <is>
-          <t>DMS12045</t>
+          <t>DMS12041</t>
         </is>
       </c>
       <c r="B742" s="2" t="n"/>
       <c r="C742" s="2" t="inlineStr">
         <is>
-          <t>External Validation result conditionally OK</t>
+          <t>Relation error: usage of preference is not allowed</t>
         </is>
       </c>
       <c r="D742" s="2" t="inlineStr">
         <is>
-          <t>Ekstern validering, betinget ok</t>
+          <t>Brug af præference er ikke tilladt</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="3" t="inlineStr">
         <is>
-          <t>DMS12046</t>
+          <t>DMS12042</t>
         </is>
       </c>
       <c r="B743" s="3" t="n"/>
       <c r="C743" s="3" t="inlineStr">
         <is>
-          <t>Process error: goods presentation notification deadline passed.</t>
+          <t>Relation error: elements must be identical within the GoodsItem</t>
         </is>
       </c>
       <c r="D743" s="3" t="inlineStr">
         <is>
-          <t>Frist for frembydelse af varer er overskredet</t>
+          <t>Elementer skal være identiske inden for vareposten</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="inlineStr">
         <is>
-          <t>DMS12047</t>
+          <t>DMS12043</t>
         </is>
       </c>
       <c r="B744" s="2" t="n"/>
       <c r="C744" s="2" t="inlineStr">
         <is>
-          <t>Relation error:combination of DutyTaxFee rate and base is not allowed</t>
+          <t>External Validation result OK</t>
         </is>
       </c>
       <c r="D744" s="2" t="inlineStr">
         <is>
-          <t>Kombinationen af told/afgift sats og grundlag er ikke tilladt</t>
+          <t>Ekstern validering er ok</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="3" t="inlineStr">
         <is>
-          <t>DMS12048</t>
+          <t>DMS12044</t>
         </is>
       </c>
       <c r="B745" s="3" t="n"/>
       <c r="C745" s="3" t="inlineStr">
         <is>
-          <t>Relation error:Element is not allowed when office of entry/exit is equal to the office of declaration</t>
+          <t>Crosscheck validation between EMCS e-AD(s) and export declaration failed. This can be due to differing CN code(s), net mass(es) and/or numbers of items in the export declaration compared to the e-AD(s).</t>
         </is>
       </c>
       <c r="D745" s="3" t="inlineStr">
         <is>
-          <t>Fejl, dataelement er ikke tiladt når ind eller udgangstoldsted er lig med toldsted hvor angivelsen er indgivet til.</t>
+          <t>Fejl i validerings-krydstjek mellem e-AD(er) i EMCS og eksportangivelse. Dette kan skyldes forskelle i KN kode(r), nettovægt(e) og/eller antal poster i eksportangivelsen sammenlignet med e-AD(er).</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="inlineStr">
         <is>
-          <t>DMS12050</t>
+          <t>DMS12045</t>
         </is>
       </c>
       <c r="B746" s="2" t="n"/>
       <c r="C746" s="2" t="inlineStr">
         <is>
-          <t>Prerequisite error: invalid requested procedure</t>
+          <t>External Validation result conditionally OK</t>
         </is>
       </c>
       <c r="D746" s="2" t="inlineStr">
         <is>
-          <t>Fejl i data element 11 09 001 000. Anmodet toldprocedure er ugyldig.</t>
+          <t>Ekstern validering, betinget ok</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="3" t="inlineStr">
         <is>
-          <t>DMS12051</t>
+          <t>DMS12046</t>
         </is>
       </c>
       <c r="B747" s="3" t="n"/>
       <c r="C747" s="3" t="inlineStr">
         <is>
-          <t>Relation error: The combination of GoodsItem.additionalInformation code is not allowed</t>
+          <t>Process error: goods presentation notification deadline passed.</t>
         </is>
       </c>
       <c r="D747" s="3" t="inlineStr">
         <is>
-          <t>I dataelement 12 02 008 000 er koden ikke gyldig</t>
+          <t>Frist for frembydelse af varer er overskredet</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="inlineStr">
         <is>
-          <t>DMS12052</t>
+          <t>DMS12047</t>
         </is>
       </c>
       <c r="B748" s="2" t="n"/>
       <c r="C748" s="2" t="inlineStr">
         <is>
-          <t>Prerequisite error: invalid declaration.type</t>
+          <t>Relation error:combination of DutyTaxFee rate and base is not allowed</t>
         </is>
       </c>
       <c r="D748" s="2" t="inlineStr">
         <is>
-          <t>Ugyldig angivelsestype</t>
+          <t>Kombinationen af told/afgift sats og grundlag er ikke tilladt</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="3" t="inlineStr">
         <is>
-          <t>DMS12053</t>
+          <t>DMS12048</t>
         </is>
       </c>
       <c r="B749" s="3" t="n"/>
       <c r="C749" s="3" t="inlineStr">
         <is>
-          <t>Relation error: the number of items  from a single group is not allowed</t>
+          <t>Relation error:Element is not allowed when office of entry/exit is equal to the office of declaration</t>
         </is>
       </c>
       <c r="D749" s="3" t="inlineStr">
         <is>
-          <t>Fejl, antal af vareposter er ikke tilladt</t>
+          <t>Fejl, dataelement er ikke tiladt når ind eller udgangstoldsted er lig med toldsted hvor angivelsen er indgivet til.</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="inlineStr">
         <is>
-          <t>DMS12054</t>
+          <t>DMS12050</t>
         </is>
       </c>
       <c r="B750" s="2" t="n"/>
       <c r="C750" s="2" t="inlineStr">
         <is>
-          <t>Relation error: the following parties must be identical</t>
+          <t>Prerequisite error: invalid requested procedure</t>
         </is>
       </c>
       <c r="D750" s="2" t="inlineStr">
         <is>
-          <t>De følgende parter skal være identiske</t>
+          <t>Fejl i data element 11 09 001 000. Anmodet toldprocedure er ugyldig.</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="3" t="inlineStr">
         <is>
-          <t>DMS12055</t>
+          <t>DMS12051</t>
         </is>
       </c>
       <c r="B751" s="3" t="n"/>
       <c r="C751" s="3" t="inlineStr">
         <is>
-          <t>Relation error: the following parties can not be identical</t>
+          <t>Relation error: The combination of GoodsItem.additionalInformation code is not allowed</t>
         </is>
       </c>
       <c r="D751" s="3" t="inlineStr">
         <is>
-          <t>De følgende parter må ikke være identiske</t>
+          <t>I dataelement 12 02 008 000 er koden ikke gyldig</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="inlineStr">
         <is>
-          <t>DMS12056</t>
+          <t>DMS12052</t>
         </is>
       </c>
       <c r="B752" s="2" t="n"/>
       <c r="C752" s="2" t="inlineStr">
         <is>
-          <t>Relation error: the combination of elements is not allowed</t>
+          <t>Prerequisite error: invalid declaration.type</t>
         </is>
       </c>
       <c r="D752" s="2" t="inlineStr">
         <is>
-          <t>Kombinationen af dataelementer er ikke tilladt</t>
+          <t>Ugyldig angivelsestype</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="3" t="inlineStr">
         <is>
-          <t>DMS12057</t>
+          <t>DMS12053</t>
         </is>
       </c>
       <c r="B753" s="3" t="n"/>
       <c r="C753" s="3" t="inlineStr">
         <is>
-          <t>Relation error: elements must be identical within the Declaration</t>
+          <t>Relation error: the number of items  from a single group is not allowed</t>
         </is>
       </c>
       <c r="D753" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dataelementer i angivelsen skal være identiske </t>
+          <t>Fejl, antal af vareposter er ikke tilladt</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="inlineStr">
         <is>
-          <t>DMS12058</t>
+          <t>DMS12054</t>
         </is>
       </c>
       <c r="B754" s="2" t="n"/>
       <c r="C754" s="2" t="inlineStr">
         <is>
-          <t>Relation error: at least one packaging quantity must be greater than zero</t>
+          <t>Relation error: the following parties must be identical</t>
         </is>
       </c>
       <c r="D754" s="2" t="inlineStr">
         <is>
-          <t>Mindst én emballage-mængde skal være større end 0</t>
+          <t>De følgende parter skal være identiske</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="3" t="inlineStr">
         <is>
-          <t>DMS12059</t>
+          <t>DMS12055</t>
         </is>
       </c>
       <c r="B755" s="3" t="n"/>
       <c r="C755" s="3" t="inlineStr">
         <is>
-          <t>Authorization error: invalid additionalInformation type and code</t>
+          <t>Relation error: the following parties can not be identical</t>
         </is>
       </c>
       <c r="D755" s="3" t="inlineStr">
         <is>
-          <t>Ugyldig dataelement 12 02 008 000 type og kode.</t>
+          <t>De følgende parter må ikke være identiske</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="inlineStr">
         <is>
-          <t>DMS12060</t>
+          <t>DMS12056</t>
         </is>
       </c>
       <c r="B756" s="2" t="n"/>
       <c r="C756" s="2" t="inlineStr">
         <is>
-          <t>Relation error: Invalid combination of Declarant and the AdditionalInformation type and code</t>
+          <t>Relation error: the combination of elements is not allowed</t>
         </is>
       </c>
       <c r="D756" s="2" t="inlineStr">
         <is>
-          <t>Ugyldig kombination mellem klareren og dataelement 12 02 008 000</t>
+          <t>Kombinationen af dataelementer er ikke tilladt</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="3" t="inlineStr">
         <is>
-          <t>DMS12061</t>
+          <t>DMS12057</t>
         </is>
       </c>
       <c r="B757" s="3" t="n"/>
       <c r="C757" s="3" t="inlineStr">
         <is>
-          <t>Guarantee error: guarantee not valid for declaration</t>
+          <t>Relation error: elements must be identical within the Declaration</t>
         </is>
       </c>
       <c r="D757" s="3" t="inlineStr">
         <is>
-          <t>Sikkehedstillelsen ikke gyldig for angivelsen</t>
+          <t xml:space="preserve">Dataelementer i angivelsen skal være identiske </t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="inlineStr">
         <is>
-          <t>DMS13000</t>
+          <t>DMS12058</t>
         </is>
       </c>
       <c r="B758" s="2" t="n"/>
       <c r="C758" s="2" t="inlineStr">
         <is>
-          <t>Credibility check: incredible value found</t>
+          <t>Relation error: at least one packaging quantity must be greater than zero</t>
         </is>
       </c>
       <c r="D758" s="2" t="inlineStr">
         <is>
-          <t>Sandsynlighedskontrol</t>
+          <t>Mindst én emballage-mængde skal være større end 0</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="3" t="inlineStr">
         <is>
-          <t>DMS19999</t>
+          <t>DMS12059</t>
         </is>
       </c>
       <c r="B759" s="3" t="n"/>
       <c r="C759" s="3" t="inlineStr">
         <is>
-          <t>Additional errors found</t>
+          <t>Authorization error: invalid additionalInformation type and code</t>
         </is>
       </c>
       <c r="D759" s="3" t="inlineStr">
         <is>
-          <t>Yderligere fejl fundet</t>
+          <t>Ugyldig dataelement 12 02 008 000 type og kode.</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="inlineStr">
         <is>
-          <t>EMSV0001</t>
+          <t>DMS12060</t>
         </is>
       </c>
       <c r="B760" s="2" t="n"/>
       <c r="C760" s="2" t="inlineStr">
         <is>
-          <t>Related movement not (yet) found</t>
+          <t>Relation error: Invalid combination of Declarant and the AdditionalInformation type and code</t>
         </is>
       </c>
       <c r="D760" s="2" t="inlineStr">
         <is>
-          <t>Den relaterede angivelse er (endnu) ikke fundet</t>
+          <t>Ugyldig kombination mellem klareren og dataelement 12 02 008 000</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="3" t="inlineStr">
         <is>
-          <t>EMSV0002</t>
+          <t>DMS12061</t>
         </is>
       </c>
       <c r="B761" s="3" t="n"/>
       <c r="C761" s="3" t="inlineStr">
         <is>
-          <t>Related movement does not match declaration</t>
+          <t>Guarantee error: guarantee not valid for declaration</t>
         </is>
       </c>
       <c r="D761" s="3" t="inlineStr">
         <is>
-          <t>Den relateret angivelse stemmer ikke overens</t>
+          <t>Sikkehedstillelsen ikke gyldig for angivelsen</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="inlineStr">
         <is>
-          <t>EMSV0003</t>
+          <t>DMS13000</t>
         </is>
       </c>
       <c r="B762" s="2" t="n"/>
       <c r="C762" s="2" t="inlineStr">
         <is>
-          <t>Related movement not found</t>
+          <t>Credibility check: incredible value found</t>
         </is>
       </c>
       <c r="D762" s="2" t="inlineStr">
         <is>
-          <t>Relateret angivelse er ikke fundet</t>
+          <t>Sandsynlighedskontrol</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="3" t="inlineStr">
         <is>
-          <t>EXMS0001</t>
+          <t>DMS19999</t>
         </is>
       </c>
       <c r="B763" s="3" t="n"/>
       <c r="C763" s="3" t="inlineStr">
         <is>
-          <t>Unknown domain value (BCL49: 12)</t>
+          <t>Additional errors found</t>
         </is>
       </c>
       <c r="D763" s="3" t="inlineStr">
         <is>
-          <t>Ukendt domæneværdi</t>
+          <t>Yderligere fejl fundet</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="inlineStr">
         <is>
-          <t>EXMS0002</t>
+          <t>EMSV0001</t>
         </is>
       </c>
       <c r="B764" s="2" t="n"/>
       <c r="C764" s="2" t="inlineStr">
         <is>
-          <t>Missing element (BCL49: 13)</t>
+          <t>Related movement not (yet) found</t>
         </is>
       </c>
       <c r="D764" s="2" t="inlineStr">
         <is>
-          <t>Manglende element (BCL49: 13)</t>
+          <t>Den relaterede angivelse er (endnu) ikke fundet</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="3" t="inlineStr">
         <is>
-          <t>EXMS0003</t>
+          <t>EMSV0002</t>
         </is>
       </c>
       <c r="B765" s="3" t="n"/>
       <c r="C765" s="3" t="inlineStr">
         <is>
-          <t>Value not supported in this context (BCL49: 14)</t>
+          <t>Related movement does not match declaration</t>
         </is>
       </c>
       <c r="D765" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Værdi understøttes ikke i denne sammenhæng </t>
+          <t>Den relateret angivelse stemmer ikke overens</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="inlineStr">
         <is>
-          <t>EXMS0004</t>
+          <t>EMSV0003</t>
         </is>
       </c>
       <c r="B766" s="2" t="n"/>
       <c r="C766" s="2" t="inlineStr">
         <is>
-          <t>Element not supported in this context (BCL49: 15)</t>
+          <t>Related movement not found</t>
         </is>
       </c>
       <c r="D766" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elementet understøttes ikke i denne sammenhæng </t>
+          <t>Relateret angivelse er ikke fundet</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="3" t="inlineStr">
         <is>
-          <t>EXMS0005</t>
+          <t>EXMS0001</t>
         </is>
       </c>
       <c r="B767" s="3" t="n"/>
       <c r="C767" s="3" t="inlineStr">
         <is>
-          <t>Wrong field format (BCL49: 19, 37, 38, 39, 40)</t>
+          <t>Unknown domain value (BCL49: 12)</t>
         </is>
       </c>
       <c r="D767" s="3" t="inlineStr">
         <is>
-          <t>Forkert format (BCL49: 19, 37, 38, 39, 40)</t>
+          <t>Ukendt domæneværdi</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="inlineStr">
         <is>
-          <t>EXMS0006</t>
+          <t>EXMS0002</t>
         </is>
       </c>
       <c r="B768" s="2" t="n"/>
       <c r="C768" s="2" t="inlineStr">
         <is>
-          <t>Duplicate message (BCL49: 26)</t>
+          <t>Missing element (BCL49: 13)</t>
         </is>
       </c>
       <c r="D768" s="2" t="inlineStr">
         <is>
-          <t>Duplikeret meddelelse</t>
+          <t>Manglende element (BCL49: 13)</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="3" t="inlineStr">
         <is>
-          <t>EXMS0007</t>
+          <t>EXMS0003</t>
         </is>
       </c>
       <c r="B769" s="3" t="n"/>
       <c r="C769" s="3" t="inlineStr">
         <is>
-          <t>To many repetitions (BCL49: 35)</t>
+          <t>Value not supported in this context (BCL49: 14)</t>
         </is>
       </c>
       <c r="D769" s="3" t="inlineStr">
         <is>
-          <t>For mange gentagelser</t>
+          <t xml:space="preserve">Værdi understøttes ikke i denne sammenhæng </t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="inlineStr">
         <is>
-          <t>EXMS0008</t>
+          <t>EXMS0004</t>
         </is>
       </c>
       <c r="B770" s="2" t="n"/>
       <c r="C770" s="2" t="inlineStr">
         <is>
-          <t>Unknown MRN (BCL49: 90)</t>
+          <t>Element not supported in this context (BCL49: 15)</t>
         </is>
       </c>
       <c r="D770" s="2" t="inlineStr">
         <is>
-          <t>Ukendt MRN</t>
+          <t xml:space="preserve">Elementet understøttes ikke i denne sammenhæng </t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="3" t="inlineStr">
         <is>
-          <t>EXMS0009</t>
+          <t>EXMS0005</t>
         </is>
       </c>
       <c r="B771" s="3" t="n"/>
       <c r="C771" s="3" t="inlineStr">
         <is>
-          <t>Duplicate MRN (BCL49: 91)</t>
+          <t>Wrong field format (BCL49: 19, 37, 38, 39, 40)</t>
         </is>
       </c>
       <c r="D771" s="3" t="inlineStr">
         <is>
-          <t>Duplikeret MRN</t>
+          <t>Forkert format (BCL49: 19, 37, 38, 39, 40)</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="inlineStr">
         <is>
-          <t>EXMS0010</t>
+          <t>EXMS0006</t>
         </is>
       </c>
       <c r="B772" s="2" t="n"/>
       <c r="C772" s="2" t="inlineStr">
         <is>
-          <t>Invalid message sequence (BCL49: 92)</t>
+          <t>Duplicate message (BCL49: 26)</t>
         </is>
       </c>
       <c r="D772" s="2" t="inlineStr">
         <is>
-          <t>Ugyldig meddelelsesrækkefølge (BCL49: 92)</t>
+          <t>Duplikeret meddelelse</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="3" t="inlineStr">
         <is>
-          <t>EXMS0011</t>
+          <t>EXMS0007</t>
         </is>
       </c>
       <c r="B773" s="3" t="n"/>
       <c r="C773" s="3" t="inlineStr">
         <is>
-          <t>Invalid MRN (BCL49: 93)</t>
+          <t>To many repetitions (BCL49: 35)</t>
         </is>
       </c>
       <c r="D773" s="3" t="inlineStr">
         <is>
-          <t>Ugyldig MRN</t>
+          <t>For mange gentagelser</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="inlineStr">
         <is>
-          <t>EXMS0012</t>
+          <t>EXMS0008</t>
         </is>
       </c>
       <c r="B774" s="2" t="n"/>
       <c r="C774" s="2" t="inlineStr">
         <is>
-          <t>Diversion rejected, export cancelled (BCL43: 2)</t>
+          <t>Unknown MRN (BCL49: 90)</t>
         </is>
       </c>
       <c r="D774" s="2" t="inlineStr">
         <is>
-          <t>Omdirigering afvist, eksport annulleret (BCL43: 2)</t>
+          <t>Ukendt MRN</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="3" t="inlineStr">
         <is>
-          <t>EXMS0013</t>
+          <t>EXMS0009</t>
         </is>
       </c>
       <c r="B775" s="3" t="n"/>
       <c r="C775" s="3" t="inlineStr">
         <is>
-          <t>Diversion rejected, movement already exited (BCL43: 5)</t>
+          <t>Duplicate MRN (BCL49: 91)</t>
         </is>
       </c>
       <c r="D775" s="3" t="inlineStr">
         <is>
-          <t>Omdirigering afvist, angivelsen er allerede afsluttet (BCL43:5)</t>
+          <t>Duplikeret MRN</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="inlineStr">
         <is>
-          <t>EXMS0014</t>
+          <t>EXMS0010</t>
         </is>
       </c>
       <c r="B776" s="2" t="n"/>
       <c r="C776" s="2" t="inlineStr">
         <is>
-          <t>Diversion rejected, unknown MRN (BCL43: 3)</t>
+          <t>Invalid message sequence (BCL49: 92)</t>
         </is>
       </c>
       <c r="D776" s="2" t="inlineStr">
         <is>
-          <t>Afvigelse afvist, ukendt MRN</t>
+          <t>Ugyldig meddelelsesrækkefølge (BCL49: 92)</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="3" t="inlineStr">
         <is>
-          <t>EXMS0015</t>
+          <t>EXMS0011</t>
         </is>
       </c>
       <c r="B777" s="3" t="n"/>
       <c r="C777" s="3" t="inlineStr">
         <is>
-          <t>Diversion rejected, other reasons (BCL43: 4)</t>
+          <t>Invalid MRN (BCL49: 93)</t>
         </is>
       </c>
       <c r="D777" s="3" t="inlineStr">
         <is>
-          <t>Omdirigering afvist, andre årsager (BCL43:4)</t>
+          <t>Ugyldig MRN</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="inlineStr">
         <is>
-          <t>INF10001</t>
+          <t>EXMS0012</t>
         </is>
       </c>
       <c r="B778" s="2" t="n"/>
       <c r="C778" s="2" t="inlineStr">
         <is>
-          <t>The format of the INF number is not valid.</t>
+          <t>Diversion rejected, export cancelled (BCL43: 2)</t>
         </is>
       </c>
       <c r="D778" s="2" t="inlineStr">
         <is>
-          <t>Formatet af INF-nummeret er ikke gyldigt.</t>
+          <t>Omdirigering afvist, eksport annulleret (BCL43: 2)</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="3" t="inlineStr">
         <is>
-          <t>INF10002</t>
+          <t>EXMS0013</t>
         </is>
       </c>
       <c r="B779" s="3" t="n"/>
       <c r="C779" s="3" t="inlineStr">
         <is>
-          <t>The status of the INF number is not valid.</t>
+          <t>Diversion rejected, movement already exited (BCL43: 5)</t>
         </is>
       </c>
       <c r="D779" s="3" t="inlineStr">
         <is>
-          <t>Statusen for INF-nummeret er ikke gyldigt.</t>
+          <t>Omdirigering afvist, angivelsen er allerede afsluttet (BCL43:5)</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="inlineStr">
         <is>
-          <t>INF10003</t>
+          <t>EXMS0014</t>
         </is>
       </c>
       <c r="B780" s="2" t="n"/>
       <c r="C780" s="2" t="inlineStr">
         <is>
-          <t>The INF number is not valid.</t>
+          <t>Diversion rejected, unknown MRN (BCL43: 3)</t>
         </is>
       </c>
       <c r="D780" s="2" t="inlineStr">
         <is>
-          <t>INF-nummeret er ikke gyldigt.</t>
+          <t>Afvigelse afvist, ukendt MRN</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="3" t="inlineStr">
         <is>
-          <t>INFE02</t>
+          <t>EXMS0015</t>
         </is>
       </c>
       <c r="B781" s="3" t="n"/>
       <c r="C781" s="3" t="inlineStr">
         <is>
-          <t>The INF Number is in status Processed</t>
+          <t>Diversion rejected, other reasons (BCL43: 4)</t>
         </is>
       </c>
       <c r="D781" s="3" t="inlineStr">
         <is>
-          <t>INF-nummeret er i status Behandlet</t>
+          <t>Omdirigering afvist, andre årsager (BCL43:4)</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="inlineStr">
         <is>
-          <t>INFE03</t>
+          <t>INF10001</t>
         </is>
       </c>
       <c r="B782" s="2" t="n"/>
       <c r="C782" s="2" t="inlineStr">
         <is>
-          <t>The INF Number is in status Annulled</t>
+          <t>The format of the INF number is not valid.</t>
         </is>
       </c>
       <c r="D782" s="2" t="inlineStr">
         <is>
-          <t>Fejl, INF er annulleret</t>
+          <t>Formatet af INF-nummeret er ikke gyldigt.</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="3" t="inlineStr">
         <is>
-          <t>INFE04</t>
+          <t>INF10002</t>
         </is>
       </c>
       <c r="B783" s="3" t="n"/>
       <c r="C783" s="3" t="inlineStr">
         <is>
-          <t>The INF Number is in status Not Available</t>
+          <t>The status of the INF number is not valid.</t>
         </is>
       </c>
       <c r="D783" s="3" t="inlineStr">
         <is>
-          <t>Fejl, INF er ikke tilgængelig</t>
+          <t>Statusen for INF-nummeret er ikke gyldigt.</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="inlineStr">
         <is>
-          <t>INFE05</t>
+          <t>INF10003</t>
         </is>
       </c>
       <c r="B784" s="2" t="n"/>
       <c r="C784" s="2" t="inlineStr">
         <is>
-          <t>The INF Number is in status Completed</t>
+          <t>The INF number is not valid.</t>
         </is>
       </c>
       <c r="D784" s="2" t="inlineStr">
         <is>
-          <t>INF-nummeret er i status Afsluttet</t>
+          <t>INF-nummeret er ikke gyldigt.</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="3" t="inlineStr">
         <is>
-          <t>INFE06</t>
+          <t>INFE02</t>
         </is>
       </c>
       <c r="B785" s="3" t="n"/>
       <c r="C785" s="3" t="inlineStr">
         <is>
-          <t>The INF Number is in status BREXIT Suspension</t>
+          <t>The INF Number is in status Processed</t>
         </is>
       </c>
       <c r="D785" s="3" t="inlineStr">
         <is>
-          <t>Servicefejl</t>
+          <t>INF-nummeret er i status Behandlet</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="inlineStr">
         <is>
-          <t>INFE07</t>
+          <t>INFE03</t>
         </is>
       </c>
       <c r="B786" s="2" t="n"/>
       <c r="C786" s="2" t="inlineStr">
         <is>
-          <t>Service fault</t>
+          <t>The INF Number is in status Annulled</t>
         </is>
       </c>
       <c r="D786" s="2" t="inlineStr">
         <is>
-          <t>Service fejl</t>
+          <t>Fejl, INF er annulleret</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="3" t="inlineStr">
         <is>
-          <t>INFE08</t>
+          <t>INFE04</t>
         </is>
       </c>
       <c r="B787" s="3" t="n"/>
       <c r="C787" s="3" t="inlineStr">
         <is>
-          <t>Invalid INF Number.</t>
+          <t>The INF Number is in status Not Available</t>
         </is>
       </c>
       <c r="D787" s="3" t="inlineStr">
         <is>
-          <t>Ugyldigt INF-nummer</t>
+          <t>Fejl, INF er ikke tilgængelig</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="inlineStr">
         <is>
-          <t>INFW01</t>
+          <t>INFE05</t>
         </is>
       </c>
       <c r="B788" s="2" t="n"/>
       <c r="C788" s="2" t="inlineStr">
         <is>
-          <t>Warning: the inf is available</t>
+          <t>The INF Number is in status Completed</t>
         </is>
       </c>
       <c r="D788" s="2" t="inlineStr">
         <is>
-          <t>Info. INF er tilgængelig</t>
+          <t>INF-nummeret er i status Afsluttet</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="3" t="inlineStr">
         <is>
-          <t>INFW02</t>
+          <t>INFE06</t>
         </is>
       </c>
       <c r="B789" s="3" t="n"/>
       <c r="C789" s="3" t="inlineStr">
         <is>
-          <t>The INF Number is in status Processed</t>
+          <t>The INF Number is in status BREXIT Suspension</t>
         </is>
       </c>
       <c r="D789" s="3" t="inlineStr">
         <is>
-          <t>Advarsel: INF'en er afsluttet</t>
+          <t>Servicefejl</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="inlineStr">
         <is>
-          <t>INFW04</t>
+          <t>INFE07</t>
         </is>
       </c>
       <c r="B790" s="2" t="n"/>
       <c r="C790" s="2" t="inlineStr">
         <is>
-          <t>The INF Number is in status Not Available</t>
+          <t>Service fault</t>
         </is>
       </c>
       <c r="D790" s="2" t="inlineStr">
         <is>
-          <t>INF-nummeret er i status Ikke Tilgængelig</t>
+          <t>Service fejl</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="3" t="inlineStr">
         <is>
-          <t>INFW05</t>
+          <t>INFE08</t>
         </is>
       </c>
       <c r="B791" s="3" t="n"/>
       <c r="C791" s="3" t="inlineStr">
         <is>
-          <t>The INF Number is in status Completed</t>
+          <t>Invalid INF Number.</t>
         </is>
       </c>
       <c r="D791" s="3" t="inlineStr">
         <is>
-          <t>Advarsel:: INF'en er afsluttet</t>
+          <t>Ugyldigt INF-nummer</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="inlineStr">
         <is>
-          <t>INFW06</t>
+          <t>INFW01</t>
         </is>
       </c>
       <c r="B792" s="2" t="n"/>
       <c r="C792" s="2" t="inlineStr">
         <is>
-          <t>The INF Number is in status BREXIT Suspension</t>
+          <t>Warning: the inf is available</t>
         </is>
       </c>
       <c r="D792" s="2" t="inlineStr">
         <is>
-          <t>INF-nummeret er i status BREXIT Suspension</t>
+          <t>Info. INF er tilgængelig</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="3" t="inlineStr">
         <is>
-          <t>INFW07</t>
+          <t>INFW02</t>
         </is>
       </c>
       <c r="B793" s="3" t="n"/>
       <c r="C793" s="3" t="inlineStr">
         <is>
-          <t>Service fault</t>
+          <t>The INF Number is in status Processed</t>
         </is>
       </c>
       <c r="D793" s="3" t="inlineStr">
         <is>
-          <t>Service fejl</t>
+          <t>Advarsel: INF'en er afsluttet</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="inlineStr">
         <is>
-          <t>INFW08</t>
+          <t>INFW04</t>
         </is>
       </c>
       <c r="B794" s="2" t="n"/>
       <c r="C794" s="2" t="inlineStr">
         <is>
-          <t>Invalid INF Number</t>
+          <t>The INF Number is in status Not Available</t>
         </is>
       </c>
       <c r="D794" s="2" t="inlineStr">
         <is>
-          <t>Ugyldigt INF-nummer</t>
+          <t>INF-nummeret er i status Ikke Tilgængelig</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="3" t="inlineStr">
         <is>
-          <t>PoUS10001</t>
+          <t>INFW05</t>
         </is>
       </c>
       <c r="B795" s="3" t="n"/>
       <c r="C795" s="3" t="inlineStr">
         <is>
-          <t>The status of the union status proof is not valid.</t>
+          <t>The INF Number is in status Completed</t>
         </is>
       </c>
       <c r="D795" s="3" t="inlineStr">
         <is>
-          <t>Statusen for beviset på unionsstatus er ikke gyldig.</t>
+          <t>Advarsel:: INF'en er afsluttet</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="inlineStr">
         <is>
-          <t>PoUS10002</t>
+          <t>INFW06</t>
         </is>
       </c>
       <c r="B796" s="2" t="n"/>
       <c r="C796" s="2" t="inlineStr">
         <is>
-          <t>The union status proof is not valid.</t>
+          <t>The INF Number is in status BREXIT Suspension</t>
         </is>
       </c>
       <c r="D796" s="2" t="inlineStr">
         <is>
-          <t>Beviset på unionsstatus er ikke gyldigt.</t>
+          <t>INF-nummeret er i status BREXIT Suspension</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="3" t="inlineStr">
         <is>
-          <t>PoUS10003</t>
+          <t>INFW07</t>
         </is>
       </c>
       <c r="B797" s="3" t="n"/>
       <c r="C797" s="3" t="inlineStr">
         <is>
-          <t>The format of the PoUS reference is not valid.</t>
+          <t>Service fault</t>
         </is>
       </c>
       <c r="D797" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formatet for PoUS MRN er ikke gyldig </t>
+          <t>Service fejl</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="inlineStr">
         <is>
-          <t>PoUSE02</t>
+          <t>INFW08</t>
         </is>
       </c>
       <c r="B798" s="2" t="n"/>
       <c r="C798" s="2" t="inlineStr">
         <is>
-          <t>Error: the proof has expired</t>
+          <t>Invalid INF Number</t>
         </is>
       </c>
       <c r="D798" s="2" t="inlineStr">
         <is>
-          <t>Fejl, PoUS er udløbet</t>
+          <t>Ugyldigt INF-nummer</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="3" t="inlineStr">
         <is>
-          <t>PoUSE03</t>
+          <t>PoUS10001</t>
         </is>
       </c>
       <c r="B799" s="3" t="n"/>
       <c r="C799" s="3" t="inlineStr">
         <is>
-          <t>Error: the proof was not found</t>
+          <t>The status of the union status proof is not valid.</t>
         </is>
       </c>
       <c r="D799" s="3" t="inlineStr">
         <is>
-          <t>Fejl, PoUS blev ikke fundet</t>
+          <t>Statusen for beviset på unionsstatus er ikke gyldig.</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="inlineStr">
         <is>
-          <t>PoUSE05</t>
+          <t>PoUS10002</t>
         </is>
       </c>
       <c r="B800" s="2" t="n"/>
       <c r="C800" s="2" t="inlineStr">
         <is>
-          <t>Error: the proof is used</t>
+          <t>The union status proof is not valid.</t>
         </is>
       </c>
       <c r="D800" s="2" t="inlineStr">
         <is>
-          <t>Fejl, PoUS er anvendt</t>
+          <t>Beviset på unionsstatus er ikke gyldigt.</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="3" t="inlineStr">
         <is>
-          <t>PoUSE06</t>
+          <t>PoUS10003</t>
         </is>
       </c>
       <c r="B801" s="3" t="n"/>
       <c r="C801" s="3" t="inlineStr">
         <is>
-          <t>Error: service fault</t>
+          <t>The format of the PoUS reference is not valid.</t>
         </is>
       </c>
       <c r="D801" s="3" t="inlineStr">
         <is>
-          <t>Servicefejl</t>
+          <t xml:space="preserve">Formatet for PoUS MRN er ikke gyldig </t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="inlineStr">
         <is>
-          <t>PoUSW01</t>
+          <t>PoUSE02</t>
         </is>
       </c>
       <c r="B802" s="2" t="n"/>
       <c r="C802" s="2" t="inlineStr">
         <is>
-          <t>Warning: the proof is in status registered</t>
+          <t>Error: the proof has expired</t>
         </is>
       </c>
       <c r="D802" s="2" t="inlineStr">
         <is>
-          <t>Info, PoUS er i status registreret</t>
+          <t>Fejl, PoUS er udløbet</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="3" t="inlineStr">
         <is>
-          <t>PoUSW04</t>
+          <t>PoUSE03</t>
         </is>
       </c>
       <c r="B803" s="3" t="n"/>
       <c r="C803" s="3" t="inlineStr">
         <is>
-          <t>Warning: the proof is partially used</t>
+          <t>Error: the proof was not found</t>
         </is>
       </c>
       <c r="D803" s="3" t="inlineStr">
         <is>
-          <t>ADVARSEL: Beviset er delvis brugt</t>
+          <t>Fejl, PoUS blev ikke fundet</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="inlineStr">
         <is>
-          <t>TMSV0001</t>
+          <t>PoUSE05</t>
         </is>
       </c>
       <c r="B804" s="2" t="n"/>
       <c r="C804" s="2" t="inlineStr">
         <is>
-          <t>Missing reference date</t>
+          <t>Error: the proof is used</t>
         </is>
       </c>
       <c r="D804" s="2" t="inlineStr">
         <is>
-          <t>Manglende referencedato</t>
+          <t>Fejl, PoUS er anvendt</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="3" t="inlineStr">
         <is>
-          <t>TMSV0002</t>
+          <t>PoUSE06</t>
         </is>
       </c>
       <c r="B805" s="3" t="n"/>
       <c r="C805" s="3" t="inlineStr">
         <is>
-          <t>Invalid because of future reference date</t>
+          <t>Error: service fault</t>
         </is>
       </c>
       <c r="D805" s="3" t="inlineStr">
         <is>
-          <t>Ugyldig på grund af den fremtidige referencedato</t>
+          <t>Servicefejl</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="inlineStr">
         <is>
-          <t>TMSV0003</t>
+          <t>PoUSW01</t>
         </is>
       </c>
       <c r="B806" s="2" t="n"/>
       <c r="C806" s="2" t="inlineStr">
         <is>
-          <t>Commodity code can not be declared</t>
+          <t>Warning: the proof is in status registered</t>
         </is>
       </c>
       <c r="D806" s="2" t="inlineStr">
         <is>
-          <t>Varekode kan ikke angives</t>
+          <t>Info, PoUS er i status registreret</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="3" t="inlineStr">
         <is>
-          <t>TMSV0004</t>
+          <t>PoUSW04</t>
         </is>
       </c>
       <c r="B807" s="3" t="n"/>
       <c r="C807" s="3" t="inlineStr">
         <is>
-          <t>Subheading can not be declared</t>
+          <t>Warning: the proof is partially used</t>
         </is>
       </c>
       <c r="D807" s="3" t="inlineStr">
         <is>
-          <t>Underpositionen kan ikke angives</t>
+          <t>ADVARSEL: Beviset er delvis brugt</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="inlineStr">
         <is>
-          <t>TMSV0005</t>
+          <t>TMSV0001</t>
         </is>
       </c>
       <c r="B808" s="2" t="n"/>
       <c r="C808" s="2" t="inlineStr">
         <is>
-          <t>Additional antidumping code missing</t>
+          <t>Missing reference date</t>
         </is>
       </c>
       <c r="D808" s="2" t="inlineStr">
         <is>
-          <t>Supplerende antidumping kode mangler</t>
+          <t>Manglende referencedato</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="3" t="inlineStr">
         <is>
-          <t>TMSV0006</t>
+          <t>TMSV0002</t>
         </is>
       </c>
       <c r="B809" s="3" t="n"/>
       <c r="C809" s="3" t="inlineStr">
         <is>
-          <t>Multiple meursing additional codes</t>
+          <t>Invalid because of future reference date</t>
         </is>
       </c>
       <c r="D809" s="3" t="inlineStr">
         <is>
-          <t>Der er flere supplerende tillægskoder</t>
+          <t>Ugyldig på grund af den fremtidige referencedato</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="inlineStr">
         <is>
-          <t>TMSV0007</t>
+          <t>TMSV0003</t>
         </is>
       </c>
       <c r="B810" s="2" t="n"/>
       <c r="C810" s="2" t="inlineStr">
         <is>
-          <t>Duplicate value</t>
+          <t>Commodity code can not be declared</t>
         </is>
       </c>
       <c r="D810" s="2" t="inlineStr">
         <is>
-          <t>Duplikeret værdi</t>
+          <t>Varekode kan ikke angives</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="3" t="inlineStr">
         <is>
-          <t>TMSV0008</t>
+          <t>TMSV0004</t>
         </is>
       </c>
       <c r="B811" s="3" t="n"/>
       <c r="C811" s="3" t="inlineStr">
         <is>
-          <t>Additional agricultural code missing</t>
+          <t>Subheading can not be declared</t>
         </is>
       </c>
       <c r="D811" s="3" t="inlineStr">
         <is>
-          <t>Supplerende landbrugskode mangler</t>
+          <t>Underpositionen kan ikke angives</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="inlineStr">
         <is>
-          <t>TMSV0010</t>
+          <t>TMSV0005</t>
         </is>
       </c>
       <c r="B812" s="2" t="n"/>
       <c r="C812" s="2" t="inlineStr">
         <is>
-          <t>Data element value does not apply</t>
+          <t>Additional antidumping code missing</t>
         </is>
       </c>
       <c r="D812" s="2" t="inlineStr">
         <is>
-          <t>Dataelementværdi er ugyldig</t>
+          <t>Supplerende antidumping kode mangler</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="3" t="inlineStr">
         <is>
-          <t>TMSV0011</t>
+          <t>TMSV0006</t>
         </is>
       </c>
       <c r="B813" s="3" t="n"/>
       <c r="C813" s="3" t="inlineStr">
         <is>
-          <t>Missing data element value</t>
+          <t>Multiple meursing additional codes</t>
         </is>
       </c>
       <c r="D813" s="3" t="inlineStr">
         <is>
-          <t>Der mangler at blive udfyldt et dataelement.</t>
+          <t>Der er flere supplerende tillægskoder</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="inlineStr">
         <is>
-          <t>TMSV0012</t>
+          <t>TMSV0007</t>
         </is>
       </c>
       <c r="B814" s="2" t="n"/>
       <c r="C814" s="2" t="inlineStr">
         <is>
-          <t>Data element has invalid format</t>
+          <t>Duplicate value</t>
         </is>
       </c>
       <c r="D814" s="2" t="inlineStr">
         <is>
-          <t>Dataelement har ugyldigt format</t>
+          <t>Duplikeret værdi</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="3" t="inlineStr">
         <is>
-          <t>TMSV0013</t>
+          <t>TMSV0008</t>
         </is>
       </c>
       <c r="B815" s="3" t="n"/>
       <c r="C815" s="3" t="inlineStr">
         <is>
-          <t>Data element contains invalid value</t>
+          <t>Additional agricultural code missing</t>
         </is>
       </c>
       <c r="D815" s="3" t="inlineStr">
         <is>
-          <t>Dataelement indeholder ugyldig værdi</t>
+          <t>Supplerende landbrugskode mangler</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="inlineStr">
         <is>
-          <t>TMSV0040</t>
+          <t>TMSV0010</t>
         </is>
       </c>
       <c r="B816" s="2" t="n"/>
       <c r="C816" s="2" t="inlineStr">
         <is>
-          <t>Non existing value</t>
+          <t>Data element value does not apply</t>
         </is>
       </c>
       <c r="D816" s="2" t="inlineStr">
         <is>
-          <t>Ikke eksisterende værdi</t>
+          <t>Dataelementværdi er ugyldig</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="3" t="inlineStr">
         <is>
-          <t>TMSV0044</t>
+          <t>TMSV0011</t>
         </is>
       </c>
       <c r="B817" s="3" t="n"/>
       <c r="C817" s="3" t="inlineStr">
         <is>
-          <t>Unused Document</t>
+          <t>Missing data element value</t>
         </is>
       </c>
       <c r="D817" s="3" t="inlineStr">
         <is>
-          <t>Ubrugt dokument</t>
+          <t>Der mangler at blive udfyldt et dataelement.</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="inlineStr">
         <is>
-          <t>TMSV0045</t>
+          <t>TMSV0012</t>
         </is>
       </c>
       <c r="B818" s="2" t="n"/>
       <c r="C818" s="2" t="inlineStr">
         <is>
-          <t>Missing document</t>
+          <t>Data element has invalid format</t>
         </is>
       </c>
       <c r="D818" s="2" t="inlineStr">
         <is>
-          <t>Der mangler et dokument</t>
+          <t>Dataelement har ugyldigt format</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="3" t="inlineStr">
         <is>
-          <t>TMSV0046</t>
+          <t>TMSV0013</t>
         </is>
       </c>
       <c r="B819" s="3" t="n"/>
       <c r="C819" s="3" t="inlineStr">
         <is>
-          <t>Condition not fulfilled</t>
+          <t>Data element contains invalid value</t>
         </is>
       </c>
       <c r="D819" s="3" t="inlineStr">
         <is>
-          <t>Betingelser er ikke opfyldt</t>
+          <t>Dataelement indeholder ugyldig værdi</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="inlineStr">
         <is>
-          <t>TMSV0047</t>
+          <t>TMSV0040</t>
         </is>
       </c>
       <c r="B820" s="2" t="n"/>
       <c r="C820" s="2" t="inlineStr">
         <is>
-          <t>Prohibition</t>
+          <t>Non existing value</t>
         </is>
       </c>
       <c r="D820" s="2" t="inlineStr">
         <is>
-          <t>Restriktioner/forbud</t>
+          <t>Ikke eksisterende værdi</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="3" t="inlineStr">
         <is>
-          <t>TMSV0048</t>
+          <t>TMSV0044</t>
         </is>
       </c>
       <c r="B821" s="3" t="n"/>
       <c r="C821" s="3" t="inlineStr">
         <is>
-          <t>Provisional measure closed</t>
+          <t>Unused Document</t>
         </is>
       </c>
       <c r="D821" s="3" t="inlineStr">
         <is>
-          <t>Midlertidig foranstaltning lukket</t>
+          <t>Ubrugt dokument</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="inlineStr">
         <is>
-          <t>TMSV0049</t>
+          <t>TMSV0045</t>
         </is>
       </c>
       <c r="B822" s="2" t="n"/>
       <c r="C822" s="2" t="inlineStr">
         <is>
-          <t>Quota exhausted</t>
+          <t>Missing document</t>
         </is>
       </c>
       <c r="D822" s="2" t="inlineStr">
         <is>
-          <t>Kontingent opbrugt</t>
+          <t>Der mangler et dokument</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="3" t="inlineStr">
         <is>
-          <t>TMSV0050</t>
+          <t>TMSV0046</t>
         </is>
       </c>
       <c r="B823" s="3" t="n"/>
       <c r="C823" s="3" t="inlineStr">
         <is>
-          <t>Quota critical</t>
+          <t>Condition not fulfilled</t>
         </is>
       </c>
       <c r="D823" s="3" t="inlineStr">
         <is>
-          <t>Kontingent kritisk</t>
+          <t>Betingelser er ikke opfyldt</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="inlineStr">
         <is>
-          <t>TMSV0051</t>
+          <t>TMSV0047</t>
         </is>
       </c>
       <c r="B824" s="2" t="n"/>
       <c r="C824" s="2" t="inlineStr">
         <is>
-          <t>Quota blocked</t>
+          <t>Prohibition</t>
         </is>
       </c>
       <c r="D824" s="2" t="inlineStr">
         <is>
-          <t>Kontingent blokeret</t>
+          <t>Restriktioner/forbud</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="3" t="inlineStr">
         <is>
-          <t>TMSV0052</t>
+          <t>TMSV0048</t>
         </is>
       </c>
       <c r="B825" s="3" t="n"/>
       <c r="C825" s="3" t="inlineStr">
         <is>
-          <t>Quota blocked and critical</t>
+          <t>Provisional measure closed</t>
         </is>
       </c>
       <c r="D825" s="3" t="inlineStr">
         <is>
-          <t>Kontingent blokeret og kritisk</t>
+          <t>Midlertidig foranstaltning lukket</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="inlineStr">
         <is>
-          <t>TMSV0053</t>
+          <t>TMSV0049</t>
         </is>
       </c>
       <c r="B826" s="2" t="n"/>
       <c r="C826" s="2" t="inlineStr">
         <is>
-          <t>Quota suspended</t>
+          <t>Quota exhausted</t>
         </is>
       </c>
       <c r="D826" s="2" t="inlineStr">
         <is>
-          <t>Kontingent suspenderet</t>
+          <t>Kontingent opbrugt</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="3" t="inlineStr">
         <is>
-          <t>TMSV0054</t>
+          <t>TMSV0050</t>
         </is>
       </c>
       <c r="B827" s="3" t="n"/>
       <c r="C827" s="3" t="inlineStr">
         <is>
-          <t>Classification changes for definitive measure</t>
+          <t>Quota critical</t>
         </is>
       </c>
       <c r="D827" s="3" t="inlineStr">
         <is>
-          <t>Klassifikationsændringer for definitivt foranstaltning</t>
+          <t>Kontingent kritisk</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="inlineStr">
         <is>
-          <t>TMSV0055</t>
+          <t>TMSV0051</t>
         </is>
       </c>
       <c r="B828" s="2" t="n"/>
       <c r="C828" s="2" t="inlineStr">
         <is>
-          <t>Internal Quota System error</t>
+          <t>Quota blocked</t>
         </is>
       </c>
       <c r="D828" s="2" t="inlineStr">
         <is>
-          <t>Intern kontingent sytemfejl</t>
+          <t>Kontingent blokeret</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="3" t="inlineStr">
         <is>
-          <t>TMSV0056</t>
+          <t>TMSV0052</t>
         </is>
       </c>
       <c r="B829" s="3" t="n"/>
       <c r="C829" s="3" t="inlineStr">
         <is>
-          <t>Parent to commodity code not found.</t>
+          <t>Quota blocked and critical</t>
         </is>
       </c>
       <c r="D829" s="3" t="inlineStr">
         <is>
-          <t>Varekode er ikke fundet</t>
+          <t>Kontingent blokeret og kritisk</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="inlineStr">
         <is>
-          <t>TMSV0057</t>
+          <t>TMSV0053</t>
         </is>
       </c>
       <c r="B830" s="2" t="n"/>
       <c r="C830" s="2" t="inlineStr">
         <is>
-          <t>Abnormally high drawing request</t>
+          <t>Quota suspended</t>
         </is>
       </c>
       <c r="D830" s="2" t="inlineStr">
         <is>
-          <t>Usædvanlig høj anmodning</t>
+          <t>Kontingent suspenderet</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="3" t="inlineStr">
         <is>
-          <t>TMSV0058</t>
+          <t>TMSV0054</t>
         </is>
       </c>
       <c r="B831" s="3" t="n"/>
       <c r="C831" s="3" t="inlineStr">
         <is>
-          <t>Incompatible preference code and country code of despatch</t>
+          <t>Classification changes for definitive measure</t>
         </is>
       </c>
       <c r="D831" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ugyldig præferencekode og for det valgte afsendelsesland </t>
+          <t>Klassifikationsændringer for definitivt foranstaltning</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="inlineStr">
         <is>
-          <t>TMSV0059</t>
+          <t>TMSV0055</t>
         </is>
       </c>
       <c r="B832" s="2" t="n"/>
       <c r="C832" s="2" t="inlineStr">
         <is>
-          <t>Incomplete measure or commodity code</t>
+          <t>Internal Quota System error</t>
         </is>
       </c>
       <c r="D832" s="2" t="inlineStr">
         <is>
-          <t>Ufuldstændig varekode eller tillægskode</t>
+          <t>Intern kontingent sytemfejl</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="3" t="inlineStr">
         <is>
-          <t>TMSV0062</t>
+          <t>TMSV0056</t>
         </is>
       </c>
       <c r="B833" s="3" t="n"/>
       <c r="C833" s="3" t="inlineStr">
         <is>
-          <t>Licence Quota</t>
+          <t>Parent to commodity code not found.</t>
         </is>
       </c>
       <c r="D833" s="3" t="inlineStr">
         <is>
-          <t>Licens kontigent</t>
+          <t>Varekode er ikke fundet</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="inlineStr">
         <is>
-          <t>TMSV0063</t>
+          <t>TMSV0057</t>
         </is>
       </c>
       <c r="B834" s="2" t="n"/>
       <c r="C834" s="2" t="inlineStr">
         <is>
-          <t>Incomplete preferential document</t>
+          <t>Abnormally high drawing request</t>
         </is>
       </c>
       <c r="D834" s="2" t="inlineStr">
         <is>
-          <t>Ugyldigt præferancedokument</t>
+          <t>Usædvanlig høj anmodning</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="3" t="inlineStr">
         <is>
-          <t>TMSV0064</t>
+          <t>TMSV0058</t>
         </is>
       </c>
       <c r="B835" s="3" t="n"/>
       <c r="C835" s="3" t="inlineStr">
         <is>
-          <t>Additional codes for export refund available</t>
+          <t>Incompatible preference code and country code of despatch</t>
         </is>
       </c>
       <c r="D835" s="3" t="inlineStr">
         <is>
-          <t>Supplerenede koder til eksportrestitution er tilgængelige</t>
+          <t xml:space="preserve">Ugyldig præferencekode og for det valgte afsendelsesland </t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="inlineStr">
         <is>
-          <t>TMSV0065</t>
+          <t>TMSV0059</t>
         </is>
       </c>
       <c r="B836" s="2" t="n"/>
       <c r="C836" s="2" t="inlineStr">
         <is>
-          <t>No applicable measures found</t>
+          <t>Incomplete measure or commodity code</t>
         </is>
       </c>
       <c r="D836" s="2" t="inlineStr">
         <is>
-          <t>Ingen relevante foranstaltninger fundet</t>
+          <t>Ufuldstændig varekode eller tillægskode</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="3" t="inlineStr">
         <is>
-          <t>TMSV0066</t>
+          <t>TMSV0062</t>
         </is>
       </c>
       <c r="B837" s="3" t="n"/>
       <c r="C837" s="3" t="inlineStr">
         <is>
-          <t>Tariff condition not fulfilled</t>
+          <t>Licence Quota</t>
         </is>
       </c>
       <c r="D837" s="3" t="inlineStr">
         <is>
-          <t>Betingelser i Taric er ikke opfyldt</t>
+          <t>Licens kontigent</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="inlineStr">
         <is>
-          <t>TMSV0067</t>
+          <t>TMSV0063</t>
         </is>
       </c>
       <c r="B838" s="2" t="n"/>
       <c r="C838" s="2" t="inlineStr">
         <is>
-          <t>Conflicting documents</t>
+          <t>Incomplete preferential document</t>
         </is>
       </c>
       <c r="D838" s="2" t="inlineStr">
         <is>
-          <t>Modstridende dokumenter</t>
+          <t>Ugyldigt præferancedokument</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="3" t="inlineStr">
         <is>
-          <t>TMSV9997</t>
+          <t>TMSV0064</t>
         </is>
       </c>
       <c r="B839" s="3" t="n"/>
       <c r="C839" s="3" t="inlineStr">
         <is>
-          <t>Unknown informational result</t>
+          <t>Additional codes for export refund available</t>
         </is>
       </c>
       <c r="D839" s="3" t="inlineStr">
         <is>
-          <t>Ukendt informationsresultat</t>
+          <t>Supplerenede koder til eksportrestitution er tilgængelige</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="inlineStr">
         <is>
-          <t>TMSV9998</t>
+          <t>TMSV0065</t>
         </is>
       </c>
       <c r="B840" s="2" t="n"/>
       <c r="C840" s="2" t="inlineStr">
         <is>
-          <t>Unknown warning result</t>
+          <t>No applicable measures found</t>
         </is>
       </c>
       <c r="D840" s="2" t="inlineStr">
         <is>
-          <t>Ukendt advarsel</t>
+          <t>Ingen relevante foranstaltninger fundet</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="3" t="inlineStr">
         <is>
-          <t>TMSV9999</t>
+          <t>TMSV0066</t>
         </is>
       </c>
       <c r="B841" s="3" t="n"/>
       <c r="C841" s="3" t="inlineStr">
         <is>
+          <t>Tariff condition not fulfilled</t>
+        </is>
+      </c>
+      <c r="D841" s="3" t="inlineStr">
+        <is>
+          <t>Betingelser i Taric er ikke opfyldt</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="inlineStr">
+        <is>
+          <t>TMSV0067</t>
+        </is>
+      </c>
+      <c r="B842" s="2" t="n"/>
+      <c r="C842" s="2" t="inlineStr">
+        <is>
+          <t>Conflicting documents</t>
+        </is>
+      </c>
+      <c r="D842" s="2" t="inlineStr">
+        <is>
+          <t>Modstridende dokumenter</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="3" t="inlineStr">
+        <is>
+          <t>TMSV9997</t>
+        </is>
+      </c>
+      <c r="B843" s="3" t="n"/>
+      <c r="C843" s="3" t="inlineStr">
+        <is>
+          <t>Unknown informational result</t>
+        </is>
+      </c>
+      <c r="D843" s="3" t="inlineStr">
+        <is>
+          <t>Ukendt informationsresultat</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="inlineStr">
+        <is>
+          <t>TMSV9998</t>
+        </is>
+      </c>
+      <c r="B844" s="2" t="n"/>
+      <c r="C844" s="2" t="inlineStr">
+        <is>
+          <t>Unknown warning result</t>
+        </is>
+      </c>
+      <c r="D844" s="2" t="inlineStr">
+        <is>
+          <t>Ukendt advarsel</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="3" t="inlineStr">
+        <is>
+          <t>TMSV9999</t>
+        </is>
+      </c>
+      <c r="B845" s="3" t="n"/>
+      <c r="C845" s="3" t="inlineStr">
+        <is>
           <t>Unknown error result</t>
         </is>
       </c>
-      <c r="D841" s="3" t="inlineStr">
+      <c r="D845" s="3" t="inlineStr">
         <is>
           <t>Ukendt fejl</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" s="2" t="n"/>
-      <c r="B842" s="2" t="inlineStr">
-        <is>
-          <t>DKW10051</t>
-        </is>
-      </c>
-      <c r="C842" s="2" t="inlineStr">
-        <is>
-          <t>Subject to manual release due to provisional anti-dumping duties.</t>
-        </is>
-      </c>
-      <c r="D842" s="2" t="inlineStr">
-        <is>
-          <t>Underkastet til manuel frigivelse grundet midlertidig antidumpingtold.</t>
-        </is>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" s="3" t="n"/>
-      <c r="B843" s="3" t="inlineStr">
-        <is>
-          <t>DKW10053</t>
-        </is>
-      </c>
-      <c r="C843" s="3" t="inlineStr">
-        <is>
-          <t>Authorization missing for presentation (ACE/C522)</t>
-        </is>
-      </c>
-      <c r="D843" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tilladelse mangler til frembydelse (ACE/C522)</t>
-        </is>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" s="2" t="n"/>
-      <c r="B844" s="2" t="inlineStr">
-        <is>
-          <t>DKW10066</t>
-        </is>
-      </c>
-      <c r="C844" s="2" t="inlineStr">
-        <is>
-          <t>Bill of discharge is required.</t>
-        </is>
-      </c>
-      <c r="D844" s="2" t="inlineStr">
-        <is>
-          <t>Afslutningsopgørelse er påkrævet.</t>
-        </is>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" s="3" t="n"/>
-      <c r="B845" s="3" t="inlineStr">
-        <is>
-          <t>DKW11055</t>
-        </is>
-      </c>
-      <c r="C845" s="3" t="inlineStr">
-        <is>
-          <t>Declaration selected for manual release due to discrepancies in guarantee</t>
-        </is>
-      </c>
-      <c r="D845" s="3" t="inlineStr">
-        <is>
-          <t>Angivelse udtaget til manuel frigivelse grundet mangler I sikkerhedsstillelse</t>
         </is>
       </c>
     </row>
@@ -17001,17 +17005,17 @@
       <c r="A846" s="2" t="n"/>
       <c r="B846" s="2" t="inlineStr">
         <is>
-          <t>DKW11056</t>
+          <t>DKW10051</t>
         </is>
       </c>
       <c r="C846" s="2" t="inlineStr">
         <is>
-          <t>Declaration selected for manual release due to invalid or lacking guarantee</t>
+          <t>Subject to manual release due to provisional anti-dumping duties.</t>
         </is>
       </c>
       <c r="D846" s="2" t="inlineStr">
         <is>
-          <t>Angivelse udtaget til manuel frigivelse grundet mangel på gyldig sikkerhedsstillelse</t>
+          <t>Underkastet til manuel frigivelse grundet midlertidig antidumpingtold.</t>
         </is>
       </c>
     </row>
@@ -17019,17 +17023,17 @@
       <c r="A847" s="3" t="n"/>
       <c r="B847" s="3" t="inlineStr">
         <is>
-          <t>DKW11057</t>
+          <t>DKW10053</t>
         </is>
       </c>
       <c r="C847" s="3" t="inlineStr">
         <is>
-          <t>Declaration selected for manual release because the no guarantee is present on the authorization</t>
+          <t>Authorization missing for presentation (ACE/C522)</t>
         </is>
       </c>
       <c r="D847" s="3" t="inlineStr">
         <is>
-          <t>Angivelse udtaget til manuel frigivelse grundet manglende sikkerhedsstillelse for bevilling</t>
+          <t xml:space="preserve"> Tilladelse mangler til frembydelse (ACE/C522)</t>
         </is>
       </c>
     </row>
@@ -17037,17 +17041,17 @@
       <c r="A848" s="2" t="n"/>
       <c r="B848" s="2" t="inlineStr">
         <is>
-          <t>DKW11058</t>
+          <t>DKW10066</t>
         </is>
       </c>
       <c r="C848" s="2" t="inlineStr">
         <is>
-          <t>Declaration selected for manual release because the guarantee is invalid for the authorization</t>
+          <t>Bill of discharge is required.</t>
         </is>
       </c>
       <c r="D848" s="2" t="inlineStr">
         <is>
-          <t>Angivelse udtaget til manuel frigivelse grundet ugyldig sikkerhedsstillelse for bevilling</t>
+          <t>Afslutningsopgørelse er påkrævet.</t>
         </is>
       </c>
     </row>
@@ -17055,17 +17059,17 @@
       <c r="A849" s="3" t="n"/>
       <c r="B849" s="3" t="inlineStr">
         <is>
-          <t>DKW11059</t>
+          <t>DKW11055</t>
         </is>
       </c>
       <c r="C849" s="3" t="inlineStr">
         <is>
-          <t>Verbal declaration selected for manual release</t>
+          <t>Declaration selected for manual release due to discrepancies in guarantee</t>
         </is>
       </c>
       <c r="D849" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mundtlig angivelse udtaget til manuel frigivelse </t>
+          <t>Angivelse udtaget til manuel frigivelse grundet mangler I sikkerhedsstillelse</t>
         </is>
       </c>
     </row>
@@ -17073,17 +17077,17 @@
       <c r="A850" s="2" t="n"/>
       <c r="B850" s="2" t="inlineStr">
         <is>
-          <t>DKW1201</t>
+          <t>DKW11056</t>
         </is>
       </c>
       <c r="C850" s="2" t="inlineStr">
         <is>
-          <t>Manual release triggered because of goods restriction</t>
+          <t>Declaration selected for manual release due to invalid or lacking guarantee</t>
         </is>
       </c>
       <c r="D850" s="2" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi der er begrænsinger på varerne</t>
+          <t>Angivelse udtaget til manuel frigivelse grundet mangel på gyldig sikkerhedsstillelse</t>
         </is>
       </c>
     </row>
@@ -17091,17 +17095,17 @@
       <c r="A851" s="3" t="n"/>
       <c r="B851" s="3" t="inlineStr">
         <is>
-          <t>DKW1202</t>
+          <t>DKW11057</t>
         </is>
       </c>
       <c r="C851" s="3" t="inlineStr">
         <is>
-          <t>Manual release triggered because of import duty relief</t>
+          <t>Declaration selected for manual release because the no guarantee is present on the authorization</t>
         </is>
       </c>
       <c r="D851" s="3" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi der er fritagelse for import told</t>
+          <t>Angivelse udtaget til manuel frigivelse grundet manglende sikkerhedsstillelse for bevilling</t>
         </is>
       </c>
     </row>
@@ -17109,17 +17113,17 @@
       <c r="A852" s="2" t="n"/>
       <c r="B852" s="2" t="inlineStr">
         <is>
-          <t>DKW1203</t>
+          <t>DKW11058</t>
         </is>
       </c>
       <c r="C852" s="2" t="inlineStr">
         <is>
-          <t>Manual release triggered because Guarantee type (Data element 99 02 001 000) is 2, 3 or 8</t>
+          <t>Declaration selected for manual release because the guarantee is invalid for the authorization</t>
         </is>
       </c>
       <c r="D852" s="2" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi Sikkerhedsstillelsens art  (Data element 99 02 000 000) er 2, 3 eller 8</t>
+          <t>Angivelse udtaget til manuel frigivelse grundet ugyldig sikkerhedsstillelse for bevilling</t>
         </is>
       </c>
     </row>
@@ -17127,17 +17131,17 @@
       <c r="A853" s="3" t="n"/>
       <c r="B853" s="3" t="inlineStr">
         <is>
-          <t>DKW1204</t>
+          <t>DKW11059</t>
         </is>
       </c>
       <c r="C853" s="3" t="inlineStr">
         <is>
-          <t>Manual release triggered because Guarantee type (Data element 99 02 001 000) is D, E, F or G</t>
+          <t>Verbal declaration selected for manual release</t>
         </is>
       </c>
       <c r="D853" s="3" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi Sikkerhedsstillelsens art  (Data element 99 02 000 000) er D, E, F eller G</t>
+          <t xml:space="preserve">Mundtlig angivelse udtaget til manuel frigivelse </t>
         </is>
       </c>
     </row>
@@ -17145,17 +17149,17 @@
       <c r="A854" s="2" t="n"/>
       <c r="B854" s="2" t="inlineStr">
         <is>
-          <t>DKW1205</t>
+          <t>DKW1201</t>
         </is>
       </c>
       <c r="C854" s="2" t="inlineStr">
         <is>
-          <t>Manual release triggered because Supporting document - Type (Data element 12 03 002 000) is C605 or C700</t>
+          <t>Manual release triggered because of goods restriction</t>
         </is>
       </c>
       <c r="D854" s="2" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi Dokumentation - Type (Data element 12 03 002 000) er C605 eller C700</t>
+          <t>Manuel frigivelse udløst, fordi der er begrænsinger på varerne</t>
         </is>
       </c>
     </row>
@@ -17163,17 +17167,17 @@
       <c r="A855" s="3" t="n"/>
       <c r="B855" s="3" t="inlineStr">
         <is>
-          <t>DKW1206</t>
+          <t>DKW1202</t>
         </is>
       </c>
       <c r="C855" s="3" t="inlineStr">
         <is>
-          <t>Manual release triggered because Supporting document - Type (Data element 12 03 002 000) is C710</t>
+          <t>Manual release triggered because of import duty relief</t>
         </is>
       </c>
       <c r="D855" s="3" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi Dokumentation - Type (Data element 12 03 002 000) er C710</t>
+          <t>Manuel frigivelse udløst, fordi der er fritagelse for import told</t>
         </is>
       </c>
     </row>
@@ -17181,17 +17185,17 @@
       <c r="A856" s="2" t="n"/>
       <c r="B856" s="2" t="inlineStr">
         <is>
-          <t>DKW1207</t>
+          <t>DKW1203</t>
         </is>
       </c>
       <c r="C856" s="2" t="inlineStr">
         <is>
-          <t>Manual release triggered because Supporting document - Type (Data element 12 03 002 000) is C711</t>
+          <t>Manual release triggered because Guarantee type (Data element 99 02 001 000) is 2, 3 or 8</t>
         </is>
       </c>
       <c r="D856" s="2" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi Dokumentation - Type (Data element 12 03 002 000) er C711</t>
+          <t>Manuel frigivelse udløst, fordi Sikkerhedsstillelsens art  (Data element 99 02 000 000) er 2, 3 eller 8</t>
         </is>
       </c>
     </row>
@@ -17199,17 +17203,17 @@
       <c r="A857" s="3" t="n"/>
       <c r="B857" s="3" t="inlineStr">
         <is>
-          <t>DKW1208</t>
+          <t>DKW1204</t>
         </is>
       </c>
       <c r="C857" s="3" t="inlineStr">
         <is>
-          <t>Manual release triggered because Supporting document - Type (Data element 12 03 002 000) is C712</t>
+          <t>Manual release triggered because Guarantee type (Data element 99 02 001 000) is D, E, F or G</t>
         </is>
       </c>
       <c r="D857" s="3" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi Dokumentation - Type (Data element 12 03 002 000) er C712</t>
+          <t>Manuel frigivelse udløst, fordi Sikkerhedsstillelsens art  (Data element 99 02 000 000) er D, E, F eller G</t>
         </is>
       </c>
     </row>
@@ -17217,17 +17221,17 @@
       <c r="A858" s="2" t="n"/>
       <c r="B858" s="2" t="inlineStr">
         <is>
-          <t>DKW1209</t>
+          <t>DKW1205</t>
         </is>
       </c>
       <c r="C858" s="2" t="inlineStr">
         <is>
-          <t>Manual release triggered because the procedure category is O3</t>
+          <t>Manual release triggered because Supporting document - Type (Data element 12 03 002 000) is C605 or C700</t>
         </is>
       </c>
       <c r="D858" s="2" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi procedurekategori er O3</t>
+          <t>Manuel frigivelse udløst, fordi Dokumentation - Type (Data element 12 03 002 000) er C605 eller C700</t>
         </is>
       </c>
     </row>
@@ -17235,17 +17239,17 @@
       <c r="A859" s="3" t="n"/>
       <c r="B859" s="3" t="inlineStr">
         <is>
-          <t>DKW20050</t>
+          <t>DKW1206</t>
         </is>
       </c>
       <c r="C859" s="3" t="inlineStr">
         <is>
-          <t>Authorisation does not contain a guarantee.</t>
+          <t>Manual release triggered because Supporting document - Type (Data element 12 03 002 000) is C710</t>
         </is>
       </c>
       <c r="D859" s="3" t="inlineStr">
         <is>
-          <t>Autorisationen indeholder ingen garanti.</t>
+          <t>Manuel frigivelse udløst, fordi Dokumentation - Type (Data element 12 03 002 000) er C710</t>
         </is>
       </c>
     </row>
@@ -17253,17 +17257,17 @@
       <c r="A860" s="2" t="n"/>
       <c r="B860" s="2" t="inlineStr">
         <is>
-          <t>DKW20052</t>
+          <t>DKW1207</t>
         </is>
       </c>
       <c r="C860" s="2" t="inlineStr">
         <is>
-          <t>Authorisation does not contain a valid guarantee.</t>
+          <t>Manual release triggered because Supporting document - Type (Data element 12 03 002 000) is C711</t>
         </is>
       </c>
       <c r="D860" s="2" t="inlineStr">
         <is>
-          <t>Autorisationen indeholder ikke en gyldig garanti.</t>
+          <t>Manuel frigivelse udløst, fordi Dokumentation - Type (Data element 12 03 002 000) er C711</t>
         </is>
       </c>
     </row>
@@ -17271,17 +17275,17 @@
       <c r="A861" s="3" t="n"/>
       <c r="B861" s="3" t="inlineStr">
         <is>
-          <t>DKW35600</t>
+          <t>DKW1208</t>
         </is>
       </c>
       <c r="C861" s="3" t="inlineStr">
         <is>
-          <t>Manual release triggered because Method of payment (14 03 038 000) is 'A' and procedure category is not 'H1'.</t>
+          <t>Manual release triggered because Supporting document - Type (Data element 12 03 002 000) is C712</t>
         </is>
       </c>
       <c r="D861" s="3" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi Betalingsmåde (14 03 038 000) er 'A', og procedurekategori ikke er 'H1'.</t>
+          <t>Manuel frigivelse udløst, fordi Dokumentation - Type (Data element 12 03 002 000) er C712</t>
         </is>
       </c>
     </row>
@@ -17289,17 +17293,17 @@
       <c r="A862" s="2" t="n"/>
       <c r="B862" s="2" t="inlineStr">
         <is>
-          <t>DKW35601</t>
+          <t>DKW1209</t>
         </is>
       </c>
       <c r="C862" s="2" t="inlineStr">
         <is>
-          <t>Manual release triggered because procedure category is 'H1' and Additional information – Code (12 02 008 000) is '00700'.</t>
+          <t>Manual release triggered because the procedure category is O3</t>
         </is>
       </c>
       <c r="D862" s="2" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi procedurekategori er 'H1', og Supplerendeoplysninger - Kode (12 02 008 000) er '00700'.</t>
+          <t>Manuel frigivelse udløst, fordi procedurekategori er O3</t>
         </is>
       </c>
     </row>
@@ -17307,17 +17311,17 @@
       <c r="A863" s="3" t="n"/>
       <c r="B863" s="3" t="inlineStr">
         <is>
-          <t>DKW35602</t>
+          <t>DKW20050</t>
         </is>
       </c>
       <c r="C863" s="3" t="inlineStr">
         <is>
-          <t>Manual release triggered because procedure category is 'H1' and Quota order number (99 01 000 000) starts with '094'.</t>
+          <t>Authorisation does not contain a guarantee.</t>
         </is>
       </c>
       <c r="D863" s="3" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi procedurekategori er 'H1', og Kontingentløbenummer (99 01 000 000) starter med '094'.</t>
+          <t>Autorisationen indeholder ingen garanti.</t>
         </is>
       </c>
     </row>
@@ -17325,17 +17329,17 @@
       <c r="A864" s="2" t="n"/>
       <c r="B864" s="2" t="inlineStr">
         <is>
-          <t>DKW35603</t>
+          <t>DKW20052</t>
         </is>
       </c>
       <c r="C864" s="2" t="inlineStr">
         <is>
-          <t>Manual release triggered because procedure category is 'H1' and Procedure code combination (11 09 000 000) exists in codelist 'Definitiv toldfrihed'.</t>
+          <t>Authorisation does not contain a valid guarantee.</t>
         </is>
       </c>
       <c r="D864" s="2" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi procedurekategori er 'H1', og procedurekodekombinationen (11 09 000 000) findes i kodelisten 'Definitiv toldfrihed'.</t>
+          <t>Autorisationen indeholder ikke en gyldig garanti.</t>
         </is>
       </c>
     </row>
@@ -17343,17 +17347,17 @@
       <c r="A865" s="3" t="n"/>
       <c r="B865" s="3" t="inlineStr">
         <is>
-          <t>DKW35604</t>
+          <t>DKW35600</t>
         </is>
       </c>
       <c r="C865" s="3" t="inlineStr">
         <is>
-          <t>Manual release triggered because Procedure Category is 'B1' and contains ship supplies.</t>
+          <t>Manual release triggered because Method of payment (14 03 038 000) is 'A' and procedure category is not 'H1'.</t>
         </is>
       </c>
       <c r="D865" s="3" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi procedurekategori er 'B1', og den indeholder skibsforbrugsvarer.</t>
+          <t>Manuel frigivelse udløst, fordi Betalingsmåde (14 03 038 000) er 'A', og procedurekategori ikke er 'H1'.</t>
         </is>
       </c>
     </row>
@@ -17361,17 +17365,17 @@
       <c r="A866" s="2" t="n"/>
       <c r="B866" s="2" t="inlineStr">
         <is>
-          <t>DKW35605</t>
+          <t>DKW35601</t>
         </is>
       </c>
       <c r="C866" s="2" t="inlineStr">
         <is>
-          <t>Manual release triggered because declaration contains Supporting Document (12 03 002 000) that should be verified.</t>
+          <t>Manual release triggered because procedure category is 'H1' and Additional information – Code (12 02 008 000) is '00700'.</t>
         </is>
       </c>
       <c r="D866" s="2" t="inlineStr">
         <is>
-          <t>Manuel frigivelse udløst, fordi angivelsen indeholder understøttende Dokumentation (12 03 000 000), der skal verificeres.</t>
+          <t>Manuel frigivelse udløst, fordi procedurekategori er 'H1', og Supplerendeoplysninger - Kode (12 02 008 000) er '00700'.</t>
         </is>
       </c>
     </row>
@@ -17379,17 +17383,17 @@
       <c r="A867" s="3" t="n"/>
       <c r="B867" s="3" t="inlineStr">
         <is>
-          <t>DKW35650</t>
+          <t>DKW35602</t>
         </is>
       </c>
       <c r="C867" s="3" t="inlineStr">
         <is>
-          <t>If Supporting Document - Type (Data element 12 03 002 000) is C620 on Declaration level, then the declaration must be selected for manual release due to PoUS</t>
+          <t>Manual release triggered because procedure category is 'H1' and Quota order number (99 01 000 000) starts with '094'.</t>
         </is>
       </c>
       <c r="D867" s="3" t="inlineStr">
         <is>
-          <t>Hvis Dokumentation - Type (Dataelement 12 03 002 000) er C620 på angivelsens hoveddel, så skal angivelsen udtages til manuel frigivelse på grund af PoUS</t>
+          <t>Manuel frigivelse udløst, fordi procedurekategori er 'H1', og Kontingentløbenummer (99 01 000 000) starter med '094'.</t>
         </is>
       </c>
     </row>
@@ -17397,17 +17401,17 @@
       <c r="A868" s="2" t="n"/>
       <c r="B868" s="2" t="inlineStr">
         <is>
-          <t>DKW35651</t>
+          <t>DKW35603</t>
         </is>
       </c>
       <c r="C868" s="2" t="inlineStr">
         <is>
-          <t>If Supporting Document - Type (Data element 12 03 002 000) is C620 on Goods Item level, then the declaration must be selected for manual release due to PoUS</t>
+          <t>Manual release triggered because procedure category is 'H1' and Procedure code combination (11 09 000 000) exists in codelist 'Definitiv toldfrihed'.</t>
         </is>
       </c>
       <c r="D868" s="2" t="inlineStr">
         <is>
-          <t>Hvis Dokumentation - Type (Dataelement 12 03 002 000) er C620 på varepostniveau, så skal angivelsen udtages til manuel frigivelse på grund af PoUS</t>
+          <t>Manuel frigivelse udløst, fordi procedurekategori er 'H1', og procedurekodekombinationen (11 09 000 000) findes i kodelisten 'Definitiv toldfrihed'.</t>
         </is>
       </c>
     </row>
@@ -17415,17 +17419,17 @@
       <c r="A869" s="3" t="n"/>
       <c r="B869" s="3" t="inlineStr">
         <is>
-          <t>DKW9893</t>
+          <t>DKW35604</t>
         </is>
       </c>
       <c r="C869" s="3" t="inlineStr">
         <is>
-          <t>Kg of netmass per supplementary unit appears to be too low</t>
+          <t>Manual release triggered because Procedure Category is 'B1' and contains ship supplies.</t>
         </is>
       </c>
       <c r="D869" s="3" t="inlineStr">
         <is>
-          <t>Kg nettovægt pr. supplerende enhed synes for lav</t>
+          <t>Manuel frigivelse udløst, fordi procedurekategori er 'B1', og den indeholder skibsforbrugsvarer.</t>
         </is>
       </c>
     </row>
@@ -17433,17 +17437,17 @@
       <c r="A870" s="2" t="n"/>
       <c r="B870" s="2" t="inlineStr">
         <is>
-          <t>DKW9894</t>
+          <t>DKW35605</t>
         </is>
       </c>
       <c r="C870" s="2" t="inlineStr">
         <is>
-          <t>Kg of netmass per supplementary unit appears to be too high</t>
+          <t>Manual release triggered because declaration contains Supporting Document (12 03 002 000) that should be verified.</t>
         </is>
       </c>
       <c r="D870" s="2" t="inlineStr">
         <is>
-          <t>Kg nettovægt pr. supplerende enhed synes for høj</t>
+          <t>Manuel frigivelse udløst, fordi angivelsen indeholder understøttende Dokumentation (12 03 000 000), der skal verificeres.</t>
         </is>
       </c>
     </row>
@@ -17451,17 +17455,17 @@
       <c r="A871" s="3" t="n"/>
       <c r="B871" s="3" t="inlineStr">
         <is>
-          <t>DKW9895</t>
+          <t>DKW35650</t>
         </is>
       </c>
       <c r="C871" s="3" t="inlineStr">
         <is>
-          <t>Statistical value per supplementary unit appears to be too high</t>
+          <t>If Supporting Document - Type (Data element 12 03 002 000) is C620 on Declaration level, then the declaration must be selected for manual release due to PoUS</t>
         </is>
       </c>
       <c r="D871" s="3" t="inlineStr">
         <is>
-          <t>Statistisk værdi pr. supplerende enhed synes for høj</t>
+          <t>Hvis Dokumentation - Type (Dataelement 12 03 002 000) er C620 på angivelsens hoveddel, så skal angivelsen udtages til manuel frigivelse på grund af PoUS</t>
         </is>
       </c>
     </row>
@@ -17469,17 +17473,17 @@
       <c r="A872" s="2" t="n"/>
       <c r="B872" s="2" t="inlineStr">
         <is>
-          <t>DKW9896</t>
+          <t>DKW35651</t>
         </is>
       </c>
       <c r="C872" s="2" t="inlineStr">
         <is>
-          <t>Statistical value per supplementary unit appears to be too low</t>
+          <t>If Supporting Document - Type (Data element 12 03 002 000) is C620 on Goods Item level, then the declaration must be selected for manual release due to PoUS</t>
         </is>
       </c>
       <c r="D872" s="2" t="inlineStr">
         <is>
-          <t>Statistisk værdi pr. supplerende enhed synes for lav</t>
+          <t>Hvis Dokumentation - Type (Dataelement 12 03 002 000) er C620 på varepostniveau, så skal angivelsen udtages til manuel frigivelse på grund af PoUS</t>
         </is>
       </c>
     </row>
@@ -17487,17 +17491,17 @@
       <c r="A873" s="3" t="n"/>
       <c r="B873" s="3" t="inlineStr">
         <is>
-          <t>DKW9897</t>
+          <t>DKW9893</t>
         </is>
       </c>
       <c r="C873" s="3" t="inlineStr">
         <is>
-          <t>Statistical value per kg of net mass appears to be too high</t>
+          <t>Kg of netmass per supplementary unit appears to be too low</t>
         </is>
       </c>
       <c r="D873" s="3" t="inlineStr">
         <is>
-          <t>Statistisk værdi pr. kg nettovægt synes for høj</t>
+          <t>Kg nettovægt pr. supplerende enhed synes for lav</t>
         </is>
       </c>
     </row>
@@ -17505,15 +17509,87 @@
       <c r="A874" s="2" t="n"/>
       <c r="B874" s="2" t="inlineStr">
         <is>
+          <t>DKW9894</t>
+        </is>
+      </c>
+      <c r="C874" s="2" t="inlineStr">
+        <is>
+          <t>Kg of netmass per supplementary unit appears to be too high</t>
+        </is>
+      </c>
+      <c r="D874" s="2" t="inlineStr">
+        <is>
+          <t>Kg nettovægt pr. supplerende enhed synes for høj</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="3" t="n"/>
+      <c r="B875" s="3" t="inlineStr">
+        <is>
+          <t>DKW9895</t>
+        </is>
+      </c>
+      <c r="C875" s="3" t="inlineStr">
+        <is>
+          <t>Statistical value per supplementary unit appears to be too high</t>
+        </is>
+      </c>
+      <c r="D875" s="3" t="inlineStr">
+        <is>
+          <t>Statistisk værdi pr. supplerende enhed synes for høj</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n"/>
+      <c r="B876" s="2" t="inlineStr">
+        <is>
+          <t>DKW9896</t>
+        </is>
+      </c>
+      <c r="C876" s="2" t="inlineStr">
+        <is>
+          <t>Statistical value per supplementary unit appears to be too low</t>
+        </is>
+      </c>
+      <c r="D876" s="2" t="inlineStr">
+        <is>
+          <t>Statistisk værdi pr. supplerende enhed synes for lav</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="3" t="n"/>
+      <c r="B877" s="3" t="inlineStr">
+        <is>
+          <t>DKW9897</t>
+        </is>
+      </c>
+      <c r="C877" s="3" t="inlineStr">
+        <is>
+          <t>Statistical value per kg of net mass appears to be too high</t>
+        </is>
+      </c>
+      <c r="D877" s="3" t="inlineStr">
+        <is>
+          <t>Statistisk værdi pr. kg nettovægt synes for høj</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n"/>
+      <c r="B878" s="2" t="inlineStr">
+        <is>
           <t>DKW9898</t>
         </is>
       </c>
-      <c r="C874" s="2" t="inlineStr">
+      <c r="C878" s="2" t="inlineStr">
         <is>
           <t>Statistical value per kg of net mass appears to be too low</t>
         </is>
       </c>
-      <c r="D874" s="2" t="inlineStr">
+      <c r="D878" s="2" t="inlineStr">
         <is>
           <t>Statistisk værdi pr. kg nettovægt synes for lav</t>
         </is>
